--- a/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_53_.xlsx
+++ b/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_53_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA297"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="258.2898876404494" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="80.08988764044946"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="64.68988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1797,103 +1797,40 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BROKEN DOWN 36'X36' &amp; SCREW MISSING 02 PCS</t>
-        </is>
-      </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BROKEN DOWN 36'X36' &amp; SCREW MISSING 02 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
@@ -2008,103 +1945,40 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>R/SIDE RAIL BENT &amp; CUT 10'</t>
-        </is>
-      </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "R/SIDE RAIL BENT &amp; CUT 10'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>L/SIDE RAIL BENT &amp; CUT 10'</t>
-        </is>
-      </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "L/SIDE RAIL BENT &amp; CUT 10'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -2219,37 +2093,16 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY CANOLA SEEDS DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY CANOLA SEEDS DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -2364,70 +2217,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0" t="inlineStr">
-        <is>
-          <t>L/DOOR TOP GASKET CUT 02'</t>
-        </is>
-      </c>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "L/DOOR TOP GASKET CUT 02'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST .</t>
-        </is>
-      </c>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
@@ -2542,37 +2353,16 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST .</t>
-        </is>
-      </c>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
@@ -2911,37 +2701,16 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
@@ -3056,37 +2825,16 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="0"/>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y28" s="0"/>
-      <c r="Z28" s="0"/>
-      <c r="AA28" s="0"/>
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
@@ -3425,37 +3173,16 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
-      <c r="R32" s="0"/>
-      <c r="S32" s="0"/>
-      <c r="T32" s="0"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY PLASTIC DUST</t>
-        </is>
-      </c>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
-      <c r="AA32" s="0"/>
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY PLASTIC DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
@@ -3682,70 +3409,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="0"/>
-      <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
-      <c r="R35" s="0"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="0"/>
-      <c r="W35" s="0"/>
-      <c r="X35" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y35" s="0"/>
-      <c r="Z35" s="0"/>
-      <c r="AA35" s="0"/>
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
-      <c r="L36" s="0"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0"/>
-      <c r="R36" s="0"/>
-      <c r="S36" s="0"/>
-      <c r="T36" s="0"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="0"/>
-      <c r="W36" s="0"/>
-      <c r="X36" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y36" s="0"/>
-      <c r="Z36" s="0"/>
-      <c r="AA36" s="0"/>
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
@@ -3860,37 +3545,16 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-      <c r="K38" s="0"/>
-      <c r="L38" s="0"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-      <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
-      <c r="S38" s="0"/>
-      <c r="T38" s="0"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="0"/>
-      <c r="W38" s="0"/>
-      <c r="X38" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y38" s="0"/>
-      <c r="Z38" s="0"/>
-      <c r="AA38" s="0"/>
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
@@ -4005,37 +3669,16 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
-      <c r="L40" s="0"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="0"/>
-      <c r="O40" s="0"/>
-      <c r="P40" s="0"/>
-      <c r="Q40" s="0"/>
-      <c r="R40" s="0"/>
-      <c r="S40" s="0"/>
-      <c r="T40" s="0"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="0"/>
-      <c r="W40" s="0"/>
-      <c r="X40" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD &amp; COTTON DUST</t>
-        </is>
-      </c>
-      <c r="Y40" s="0"/>
-      <c r="Z40" s="0"/>
-      <c r="AA40" s="0"/>
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY MUD &amp; COTTON DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
@@ -4238,37 +3881,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
-      <c r="L43" s="0"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="0"/>
-      <c r="O43" s="0"/>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0"/>
-      <c r="R43" s="0"/>
-      <c r="S43" s="0"/>
-      <c r="T43" s="0"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="0"/>
-      <c r="W43" s="0"/>
-      <c r="X43" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST</t>
-        </is>
-      </c>
-      <c r="Y43" s="0"/>
-      <c r="Z43" s="0"/>
-      <c r="AA43" s="0"/>
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
@@ -4383,37 +4005,16 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-      <c r="R45" s="0"/>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y45" s="0"/>
-      <c r="Z45" s="0"/>
-      <c r="AA45" s="0"/>
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
@@ -4528,37 +4129,16 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
-      <c r="B47" s="0"/>
-      <c r="C47" s="0"/>
-      <c r="D47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="0"/>
-      <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
-      <c r="R47" s="0"/>
-      <c r="S47" s="0"/>
-      <c r="T47" s="0"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="0"/>
-      <c r="W47" s="0"/>
-      <c r="X47" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY OIL STAIN DUST</t>
-        </is>
-      </c>
-      <c r="Y47" s="0"/>
-      <c r="Z47" s="0"/>
-      <c r="AA47" s="0"/>
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY OIL STAIN DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
@@ -4673,103 +4253,40 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
-      <c r="B49" s="0"/>
-      <c r="C49" s="0"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0" t="inlineStr">
-        <is>
-          <t>R/SIDE PANEL CUT 03'</t>
-        </is>
-      </c>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL CUT 03'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0"/>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
-      <c r="Q50" s="0"/>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="0"/>
-      <c r="W50" s="0"/>
-      <c r="X50" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD STEEL PLATS FITTING 10'X10'+ HOLE 04'</t>
-        </is>
-      </c>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0"/>
-      <c r="AA50" s="0"/>
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD STEEL PLATS FITTING 10'X10'+ HOLE 04'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="0"/>
-      <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
-      <c r="R51" s="0"/>
-      <c r="S51" s="0"/>
-      <c r="T51" s="0"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="0"/>
-      <c r="W51" s="0"/>
-      <c r="X51" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN+SCRAP DUST &amp; SCRATECHED</t>
-        </is>
-      </c>
-      <c r="Y51" s="0"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL STAIN+SCRAP DUST &amp; SCRATECHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
@@ -4884,103 +4401,40 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
-      <c r="X53" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL  DIRTY.</t>
-        </is>
-      </c>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL  DIRTY.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="0"/>
-      <c r="W54" s="0"/>
-      <c r="X54" s="0" t="inlineStr">
-        <is>
-          <t>R/SIDE PANEL CUT 02'</t>
-        </is>
-      </c>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0"/>
-      <c r="AA54" s="0"/>
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL CUT 02'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
-      <c r="R55" s="0"/>
-      <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="0"/>
-      <c r="W55" s="0"/>
-      <c r="X55" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN+SCRAP DUST &amp; SCRATECHED</t>
-        </is>
-      </c>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0"/>
-      <c r="AA55" s="0"/>
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL STAIN+SCRAP DUST &amp; SCRATECHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
@@ -5207,37 +4661,16 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="0"/>
-      <c r="L58" s="0"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="0"/>
-      <c r="O58" s="0"/>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
-      <c r="R58" s="0"/>
-      <c r="S58" s="0"/>
-      <c r="T58" s="0"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="0"/>
-      <c r="W58" s="0"/>
-      <c r="X58" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0"/>
-      <c r="AA58" s="0"/>
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
@@ -5352,37 +4785,16 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
-      <c r="H60" s="0"/>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
-      <c r="L60" s="0"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="0"/>
-      <c r="O60" s="0"/>
-      <c r="P60" s="0"/>
-      <c r="Q60" s="0"/>
-      <c r="R60" s="0"/>
-      <c r="S60" s="0"/>
-      <c r="T60" s="0"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="0"/>
-      <c r="W60" s="0"/>
-      <c r="X60" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY OIL STAIN &amp; MUD DUST.</t>
-        </is>
-      </c>
-      <c r="Y60" s="0"/>
-      <c r="Z60" s="0"/>
-      <c r="AA60" s="0"/>
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY OIL STAIN &amp; MUD DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
@@ -5497,37 +4909,16 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
-      <c r="H62" s="0"/>
-      <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
-      <c r="K62" s="0"/>
-      <c r="L62" s="0"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="0"/>
-      <c r="O62" s="0"/>
-      <c r="P62" s="0"/>
-      <c r="Q62" s="0"/>
-      <c r="R62" s="0"/>
-      <c r="S62" s="0"/>
-      <c r="T62" s="0"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="0"/>
-      <c r="W62" s="0"/>
-      <c r="X62" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY TYER MARK,BLACK STAIN,DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y62" s="0"/>
-      <c r="Z62" s="0"/>
-      <c r="AA62" s="0"/>
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY TYER MARK,BLACK STAIN,DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
@@ -5642,37 +5033,16 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0"/>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-      <c r="G64" s="0"/>
-      <c r="H64" s="0"/>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
-      <c r="K64" s="0"/>
-      <c r="L64" s="0"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="0"/>
-      <c r="O64" s="0"/>
-      <c r="P64" s="0"/>
-      <c r="Q64" s="0"/>
-      <c r="R64" s="0"/>
-      <c r="S64" s="0"/>
-      <c r="T64" s="0"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="0"/>
-      <c r="W64" s="0"/>
-      <c r="X64" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST .</t>
-        </is>
-      </c>
-      <c r="Y64" s="0"/>
-      <c r="Z64" s="0"/>
-      <c r="AA64" s="0"/>
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
@@ -5899,37 +5269,16 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0"/>
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
-      <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
-      <c r="L67" s="0"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="0"/>
-      <c r="O67" s="0"/>
-      <c r="P67" s="0"/>
-      <c r="Q67" s="0"/>
-      <c r="R67" s="0"/>
-      <c r="S67" s="0"/>
-      <c r="T67" s="0"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="0"/>
-      <c r="W67" s="0"/>
-      <c r="X67" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD DUST &amp; SCRAP + SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y67" s="0"/>
-      <c r="Z67" s="0"/>
-      <c r="AA67" s="0"/>
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD DUST &amp; SCRAP + SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
@@ -6044,37 +5393,16 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0"/>
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
-      <c r="D69" s="0"/>
-      <c r="E69" s="0"/>
-      <c r="F69" s="0"/>
-      <c r="G69" s="0"/>
-      <c r="H69" s="0"/>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-      <c r="K69" s="0"/>
-      <c r="L69" s="0"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="0"/>
-      <c r="O69" s="0"/>
-      <c r="P69" s="0"/>
-      <c r="Q69" s="0"/>
-      <c r="R69" s="0"/>
-      <c r="S69" s="0"/>
-      <c r="T69" s="0"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="0"/>
-      <c r="W69" s="0"/>
-      <c r="X69" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY CANOLA SEEDS DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y69" s="0"/>
-      <c r="Z69" s="0"/>
-      <c r="AA69" s="0"/>
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY CANOLA SEEDS DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
@@ -6189,70 +5517,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0"/>
-      <c r="B71" s="0"/>
-      <c r="C71" s="0"/>
-      <c r="D71" s="0"/>
-      <c r="E71" s="0"/>
-      <c r="F71" s="0"/>
-      <c r="G71" s="0"/>
-      <c r="H71" s="0"/>
-      <c r="I71" s="0"/>
-      <c r="J71" s="0"/>
-      <c r="K71" s="0"/>
-      <c r="L71" s="0"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="0"/>
-      <c r="O71" s="0"/>
-      <c r="P71" s="0"/>
-      <c r="Q71" s="0"/>
-      <c r="R71" s="0"/>
-      <c r="S71" s="0"/>
-      <c r="T71" s="0"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="0"/>
-      <c r="W71" s="0"/>
-      <c r="X71" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL NO-10 CUT &amp; HOLE 10'X02'.</t>
-        </is>
-      </c>
-      <c r="Y71" s="0"/>
-      <c r="Z71" s="0"/>
-      <c r="AA71" s="0"/>
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL NO-10 CUT &amp; HOLE 10'X02'.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="0"/>
-      <c r="B72" s="0"/>
-      <c r="C72" s="0"/>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0"/>
-      <c r="G72" s="0"/>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-      <c r="K72" s="0"/>
-      <c r="L72" s="0"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="0"/>
-      <c r="O72" s="0"/>
-      <c r="P72" s="0"/>
-      <c r="Q72" s="0"/>
-      <c r="R72" s="0"/>
-      <c r="S72" s="0"/>
-      <c r="T72" s="0"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="0"/>
-      <c r="W72" s="0"/>
-      <c r="X72" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY SCRATCHED,BADLY SCRAP DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y72" s="0"/>
-      <c r="Z72" s="0"/>
-      <c r="AA72" s="0"/>
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SCRATCHED,BADLY SCRAP DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
@@ -6367,37 +5653,16 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0"/>
-      <c r="B74" s="0"/>
-      <c r="C74" s="0"/>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
-      <c r="F74" s="0"/>
-      <c r="G74" s="0"/>
-      <c r="H74" s="0"/>
-      <c r="I74" s="0"/>
-      <c r="J74" s="0"/>
-      <c r="K74" s="0"/>
-      <c r="L74" s="0"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="0"/>
-      <c r="O74" s="0"/>
-      <c r="P74" s="0"/>
-      <c r="Q74" s="0"/>
-      <c r="R74" s="0"/>
-      <c r="S74" s="0"/>
-      <c r="T74" s="0"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="0"/>
-      <c r="W74" s="0"/>
-      <c r="X74" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY SCRACHED &amp; SCRAP  DUST .</t>
-        </is>
-      </c>
-      <c r="Y74" s="0"/>
-      <c r="Z74" s="0"/>
-      <c r="AA74" s="0"/>
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SCRACHED &amp; SCRAP  DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
@@ -6512,70 +5777,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0"/>
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
-      <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
-      <c r="H76" s="0"/>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-      <c r="K76" s="0"/>
-      <c r="L76" s="0"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="0"/>
-      <c r="O76" s="0"/>
-      <c r="P76" s="0"/>
-      <c r="Q76" s="0"/>
-      <c r="R76" s="0"/>
-      <c r="S76" s="0"/>
-      <c r="T76" s="0"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="0"/>
-      <c r="W76" s="0"/>
-      <c r="X76" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCK BAR BENT 02 PCS.(DOOR NOT CLOSE)</t>
-        </is>
-      </c>
-      <c r="Y76" s="0"/>
-      <c r="Z76" s="0"/>
-      <c r="AA76" s="0"/>
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCK BAR BENT 02 PCS.(DOOR NOT CLOSE)", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
-      <c r="C77" s="0"/>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="L77" s="0"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="0"/>
-      <c r="O77" s="0"/>
-      <c r="P77" s="0"/>
-      <c r="Q77" s="0"/>
-      <c r="R77" s="0"/>
-      <c r="S77" s="0"/>
-      <c r="T77" s="0"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="0"/>
-      <c r="W77" s="0"/>
-      <c r="X77" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SCRATCHGED &amp; SCRAP DUST .</t>
-        </is>
-      </c>
-      <c r="Y77" s="0"/>
-      <c r="Z77" s="0"/>
-      <c r="AA77" s="0"/>
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SCRATCHGED &amp; SCRAP DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
@@ -6690,37 +5913,16 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0"/>
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0"/>
-      <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
-      <c r="J79" s="0"/>
-      <c r="K79" s="0"/>
-      <c r="L79" s="0"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="0"/>
-      <c r="O79" s="0"/>
-      <c r="P79" s="0"/>
-      <c r="Q79" s="0"/>
-      <c r="R79" s="0"/>
-      <c r="S79" s="0"/>
-      <c r="T79" s="0"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="0"/>
-      <c r="W79" s="0"/>
-      <c r="X79" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY MUD DUST </t>
-        </is>
-      </c>
-      <c r="Y79" s="0"/>
-      <c r="Z79" s="0"/>
-      <c r="AA79" s="0"/>
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD DUST ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
@@ -6947,169 +6149,64 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0"/>
-      <c r="B82" s="0"/>
-      <c r="C82" s="0"/>
-      <c r="D82" s="0"/>
-      <c r="E82" s="0"/>
-      <c r="F82" s="0"/>
-      <c r="G82" s="0"/>
-      <c r="H82" s="0"/>
-      <c r="I82" s="0"/>
-      <c r="J82" s="0"/>
-      <c r="K82" s="0"/>
-      <c r="L82" s="0"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="0"/>
-      <c r="O82" s="0"/>
-      <c r="P82" s="0"/>
-      <c r="Q82" s="0"/>
-      <c r="R82" s="0"/>
-      <c r="S82" s="0"/>
-      <c r="T82" s="0"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="0"/>
-      <c r="W82" s="0"/>
-      <c r="X82" s="0" t="inlineStr">
-        <is>
-          <t>BOTH DOOR GASKET AREA BADLY RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y82" s="0"/>
-      <c r="Z82" s="0"/>
-      <c r="AA82" s="0"/>
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR GASKET AREA BADLY RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-      <c r="G83" s="0"/>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
-      <c r="J83" s="0"/>
-      <c r="K83" s="0"/>
-      <c r="L83" s="0"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="0"/>
-      <c r="O83" s="0"/>
-      <c r="P83" s="0"/>
-      <c r="Q83" s="0"/>
-      <c r="R83" s="0"/>
-      <c r="S83" s="0"/>
-      <c r="T83" s="0"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="0"/>
-      <c r="W83" s="0"/>
-      <c r="X83" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; BADLY RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y83" s="0"/>
-      <c r="Z83" s="0"/>
-      <c r="AA83" s="0"/>
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; BADLY RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="0"/>
-      <c r="B84" s="0"/>
-      <c r="C84" s="0"/>
-      <c r="D84" s="0"/>
-      <c r="E84" s="0"/>
-      <c r="F84" s="0"/>
-      <c r="G84" s="0"/>
-      <c r="H84" s="0"/>
-      <c r="I84" s="0"/>
-      <c r="J84" s="0"/>
-      <c r="K84" s="0"/>
-      <c r="L84" s="0"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="0"/>
-      <c r="O84" s="0"/>
-      <c r="P84" s="0"/>
-      <c r="Q84" s="0"/>
-      <c r="R84" s="0"/>
-      <c r="S84" s="0"/>
-      <c r="T84" s="0"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="0"/>
-      <c r="W84" s="0"/>
-      <c r="X84" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION BADLY.</t>
-        </is>
-      </c>
-      <c r="Y84" s="0"/>
-      <c r="Z84" s="0"/>
-      <c r="AA84" s="0"/>
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION BADLY.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="0"/>
-      <c r="B85" s="0"/>
-      <c r="C85" s="0"/>
-      <c r="D85" s="0"/>
-      <c r="E85" s="0"/>
-      <c r="F85" s="0"/>
-      <c r="G85" s="0"/>
-      <c r="H85" s="0"/>
-      <c r="I85" s="0"/>
-      <c r="J85" s="0"/>
-      <c r="K85" s="0"/>
-      <c r="L85" s="0"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="0"/>
-      <c r="O85" s="0"/>
-      <c r="P85" s="0"/>
-      <c r="Q85" s="0"/>
-      <c r="R85" s="0"/>
-      <c r="S85" s="0"/>
-      <c r="T85" s="0"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="0"/>
-      <c r="W85" s="0"/>
-      <c r="X85" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD SCREW MISSING 04 PCS &amp; SCRATCHED AT V/P</t>
-        </is>
-      </c>
-      <c r="Y85" s="0"/>
-      <c r="Z85" s="0"/>
-      <c r="AA85" s="0"/>
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD SCREW MISSING 04 PCS &amp; SCRATCHED AT V/P", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="0"/>
-      <c r="B86" s="0"/>
-      <c r="C86" s="0"/>
-      <c r="D86" s="0"/>
-      <c r="E86" s="0"/>
-      <c r="F86" s="0"/>
-      <c r="G86" s="0"/>
-      <c r="H86" s="0"/>
-      <c r="I86" s="0"/>
-      <c r="J86" s="0"/>
-      <c r="K86" s="0"/>
-      <c r="L86" s="0"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="0"/>
-      <c r="O86" s="0"/>
-      <c r="P86" s="0"/>
-      <c r="Q86" s="0"/>
-      <c r="R86" s="0"/>
-      <c r="S86" s="0"/>
-      <c r="T86" s="0"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="0"/>
-      <c r="W86" s="0"/>
-      <c r="X86" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN &amp; BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y86" s="0"/>
-      <c r="Z86" s="0"/>
-      <c r="AA86" s="0"/>
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL STAIN &amp; BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
@@ -7336,37 +6433,16 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0"/>
-      <c r="B89" s="0"/>
-      <c r="C89" s="0"/>
-      <c r="D89" s="0"/>
-      <c r="E89" s="0"/>
-      <c r="F89" s="0"/>
-      <c r="G89" s="0"/>
-      <c r="H89" s="0"/>
-      <c r="I89" s="0"/>
-      <c r="J89" s="0"/>
-      <c r="K89" s="0"/>
-      <c r="L89" s="0"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="0"/>
-      <c r="O89" s="0"/>
-      <c r="P89" s="0"/>
-      <c r="Q89" s="0"/>
-      <c r="R89" s="0"/>
-      <c r="S89" s="0"/>
-      <c r="T89" s="0"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="0"/>
-      <c r="W89" s="0"/>
-      <c r="X89" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BLACK STAIN &amp; DUST</t>
-        </is>
-      </c>
-      <c r="Y89" s="0"/>
-      <c r="Z89" s="0"/>
-      <c r="AA89" s="0"/>
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
@@ -7593,37 +6669,16 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0"/>
-      <c r="B92" s="0"/>
-      <c r="C92" s="0"/>
-      <c r="D92" s="0"/>
-      <c r="E92" s="0"/>
-      <c r="F92" s="0"/>
-      <c r="G92" s="0"/>
-      <c r="H92" s="0"/>
-      <c r="I92" s="0"/>
-      <c r="J92" s="0"/>
-      <c r="K92" s="0"/>
-      <c r="L92" s="0"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="0"/>
-      <c r="O92" s="0"/>
-      <c r="P92" s="0"/>
-      <c r="Q92" s="0"/>
-      <c r="R92" s="0"/>
-      <c r="S92" s="0"/>
-      <c r="T92" s="0"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="0"/>
-      <c r="W92" s="0"/>
-      <c r="X92" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY OIL STAIN &amp; BADLY SCRATCHED.</t>
-        </is>
-      </c>
-      <c r="Y92" s="0"/>
-      <c r="Z92" s="0"/>
-      <c r="AA92" s="0"/>
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY OIL STAIN &amp; BADLY SCRATCHED.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
@@ -7962,37 +7017,16 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="0"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
-      <c r="J96" s="0"/>
-      <c r="K96" s="0"/>
-      <c r="L96" s="0"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="0"/>
-      <c r="O96" s="0"/>
-      <c r="P96" s="0"/>
-      <c r="Q96" s="0"/>
-      <c r="R96" s="0"/>
-      <c r="S96" s="0"/>
-      <c r="T96" s="0"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="0"/>
-      <c r="W96" s="0"/>
-      <c r="X96" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD OIL SPOT &amp; MUD DUST &amp; TYRE MARK</t>
-        </is>
-      </c>
-      <c r="Y96" s="0"/>
-      <c r="Z96" s="0"/>
-      <c r="AA96" s="0"/>
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; MUD DUST &amp; TYRE MARK", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
@@ -8107,37 +7141,16 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0"/>
-      <c r="B98" s="0"/>
-      <c r="C98" s="0"/>
-      <c r="D98" s="0"/>
-      <c r="E98" s="0"/>
-      <c r="F98" s="0"/>
-      <c r="G98" s="0"/>
-      <c r="H98" s="0"/>
-      <c r="I98" s="0"/>
-      <c r="J98" s="0"/>
-      <c r="K98" s="0"/>
-      <c r="L98" s="0"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="0"/>
-      <c r="O98" s="0"/>
-      <c r="P98" s="0"/>
-      <c r="Q98" s="0"/>
-      <c r="R98" s="0"/>
-      <c r="S98" s="0"/>
-      <c r="T98" s="0"/>
-      <c r="U98" s="4"/>
-      <c r="V98" s="0"/>
-      <c r="W98" s="0"/>
-      <c r="X98" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY  BLACK STAIN, DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y98" s="0"/>
-      <c r="Z98" s="0"/>
-      <c r="AA98" s="0"/>
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  BLACK STAIN, DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
@@ -8364,136 +7377,52 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0"/>
-      <c r="B101" s="0"/>
-      <c r="C101" s="0"/>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
-      <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
-      <c r="H101" s="0"/>
-      <c r="I101" s="0"/>
-      <c r="J101" s="0"/>
-      <c r="K101" s="0"/>
-      <c r="L101" s="0"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="0"/>
-      <c r="O101" s="0"/>
-      <c r="P101" s="0"/>
-      <c r="Q101" s="0"/>
-      <c r="R101" s="0"/>
-      <c r="S101" s="0"/>
-      <c r="T101" s="0"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="0"/>
-      <c r="W101" s="0"/>
-      <c r="X101" s="0" t="inlineStr">
-        <is>
-          <t>L/DOOR  ( D/NOT CLOOSED).</t>
-        </is>
-      </c>
-      <c r="Y101" s="0"/>
-      <c r="Z101" s="0"/>
-      <c r="AA101" s="0"/>
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "L/DOOR  ( D/NOT CLOOSED).", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="0"/>
-      <c r="B102" s="0"/>
-      <c r="C102" s="0"/>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
-      <c r="F102" s="0"/>
-      <c r="G102" s="0"/>
-      <c r="H102" s="0"/>
-      <c r="I102" s="0"/>
-      <c r="J102" s="0"/>
-      <c r="K102" s="0"/>
-      <c r="L102" s="0"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="0"/>
-      <c r="O102" s="0"/>
-      <c r="P102" s="0"/>
-      <c r="Q102" s="0"/>
-      <c r="R102" s="0"/>
-      <c r="S102" s="0"/>
-      <c r="T102" s="0"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="0"/>
-      <c r="W102" s="0"/>
-      <c r="X102" s="0" t="inlineStr">
-        <is>
-          <t>F/B SCREW DOWN 02 PCS &amp; F/B DOWN 08'X06'.</t>
-        </is>
-      </c>
-      <c r="Y102" s="0"/>
-      <c r="Z102" s="0"/>
-      <c r="AA102" s="0"/>
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B SCREW DOWN 02 PCS &amp; F/B DOWN 08'X06'.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="0"/>
-      <c r="B103" s="0"/>
-      <c r="C103" s="0"/>
-      <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
-      <c r="F103" s="0"/>
-      <c r="G103" s="0"/>
-      <c r="H103" s="0"/>
-      <c r="I103" s="0"/>
-      <c r="J103" s="0"/>
-      <c r="K103" s="0"/>
-      <c r="L103" s="0"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="0"/>
-      <c r="O103" s="0"/>
-      <c r="P103" s="0"/>
-      <c r="Q103" s="0"/>
-      <c r="R103" s="0"/>
-      <c r="S103" s="0"/>
-      <c r="T103" s="0"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="0"/>
-      <c r="W103" s="0"/>
-      <c r="X103" s="0" t="inlineStr">
-        <is>
-          <t>L/DOOR BTM RAIL BENT &amp; UP WARD 08' .</t>
-        </is>
-      </c>
-      <c r="Y103" s="0"/>
-      <c r="Z103" s="0"/>
-      <c r="AA103" s="0"/>
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "L/DOOR BTM RAIL BENT &amp; UP WARD 08' .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="0"/>
-      <c r="B104" s="0"/>
-      <c r="C104" s="0"/>
-      <c r="D104" s="0"/>
-      <c r="E104" s="0"/>
-      <c r="F104" s="0"/>
-      <c r="G104" s="0"/>
-      <c r="H104" s="0"/>
-      <c r="I104" s="0"/>
-      <c r="J104" s="0"/>
-      <c r="K104" s="0"/>
-      <c r="L104" s="0"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="0"/>
-      <c r="O104" s="0"/>
-      <c r="P104" s="0"/>
-      <c r="Q104" s="0"/>
-      <c r="R104" s="0"/>
-      <c r="S104" s="0"/>
-      <c r="T104" s="0"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="0"/>
-      <c r="W104" s="0"/>
-      <c r="X104" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y104" s="0"/>
-      <c r="Z104" s="0"/>
-      <c r="AA104" s="0"/>
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
@@ -8608,37 +7537,16 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0"/>
-      <c r="B106" s="0"/>
-      <c r="C106" s="0"/>
-      <c r="D106" s="0"/>
-      <c r="E106" s="0"/>
-      <c r="F106" s="0"/>
-      <c r="G106" s="0"/>
-      <c r="H106" s="0"/>
-      <c r="I106" s="0"/>
-      <c r="J106" s="0"/>
-      <c r="K106" s="0"/>
-      <c r="L106" s="0"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="0"/>
-      <c r="O106" s="0"/>
-      <c r="P106" s="0"/>
-      <c r="Q106" s="0"/>
-      <c r="R106" s="0"/>
-      <c r="S106" s="0"/>
-      <c r="T106" s="0"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="0"/>
-      <c r="W106" s="0"/>
-      <c r="X106" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY BADLY OIL STAIN ,BLACK STAIN &amp; DUST.</t>
-        </is>
-      </c>
-      <c r="Y106" s="0"/>
-      <c r="Z106" s="0"/>
-      <c r="AA106" s="0"/>
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BADLY OIL STAIN ,BLACK STAIN &amp; DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
@@ -8865,70 +7773,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="0"/>
-      <c r="B109" s="0"/>
-      <c r="C109" s="0"/>
-      <c r="D109" s="0"/>
-      <c r="E109" s="0"/>
-      <c r="F109" s="0"/>
-      <c r="G109" s="0"/>
-      <c r="H109" s="0"/>
-      <c r="I109" s="0"/>
-      <c r="J109" s="0"/>
-      <c r="K109" s="0"/>
-      <c r="L109" s="0"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="0"/>
-      <c r="O109" s="0"/>
-      <c r="P109" s="0"/>
-      <c r="Q109" s="0"/>
-      <c r="R109" s="0"/>
-      <c r="S109" s="0"/>
-      <c r="T109" s="0"/>
-      <c r="U109" s="4"/>
-      <c r="V109" s="0"/>
-      <c r="W109" s="0"/>
-      <c r="X109" s="0" t="inlineStr">
-        <is>
-          <t>L/DOOR BTM GASKET INNER SIDE STRIP BENT 08' .</t>
-        </is>
-      </c>
-      <c r="Y109" s="0"/>
-      <c r="Z109" s="0"/>
-      <c r="AA109" s="0"/>
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "L/DOOR BTM GASKET INNER SIDE STRIP BENT 08' .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="0"/>
-      <c r="B110" s="0"/>
-      <c r="C110" s="0"/>
-      <c r="D110" s="0"/>
-      <c r="E110" s="0"/>
-      <c r="F110" s="0"/>
-      <c r="G110" s="0"/>
-      <c r="H110" s="0"/>
-      <c r="I110" s="0"/>
-      <c r="J110" s="0"/>
-      <c r="K110" s="0"/>
-      <c r="L110" s="0"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="0"/>
-      <c r="O110" s="0"/>
-      <c r="P110" s="0"/>
-      <c r="Q110" s="0"/>
-      <c r="R110" s="0"/>
-      <c r="S110" s="0"/>
-      <c r="T110" s="0"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="0"/>
-      <c r="W110" s="0"/>
-      <c r="X110" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY MUD+SAND ,WASTES PAPER DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y110" s="0"/>
-      <c r="Z110" s="0"/>
-      <c r="AA110" s="0"/>
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY MUD+SAND ,WASTES PAPER DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
@@ -9043,103 +7909,40 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0"/>
-      <c r="B112" s="0"/>
-      <c r="C112" s="0"/>
-      <c r="D112" s="0"/>
-      <c r="E112" s="0"/>
-      <c r="F112" s="0"/>
-      <c r="G112" s="0"/>
-      <c r="H112" s="0"/>
-      <c r="I112" s="0"/>
-      <c r="J112" s="0"/>
-      <c r="K112" s="0"/>
-      <c r="L112" s="0"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="0"/>
-      <c r="O112" s="0"/>
-      <c r="P112" s="0"/>
-      <c r="Q112" s="0"/>
-      <c r="R112" s="0"/>
-      <c r="S112" s="0"/>
-      <c r="T112" s="0"/>
-      <c r="U112" s="4"/>
-      <c r="V112" s="0"/>
-      <c r="W112" s="0"/>
-      <c r="X112" s="0" t="inlineStr">
-        <is>
-          <t>B/DOOR LOCKBAR BENT 02 PCS .</t>
-        </is>
-      </c>
-      <c r="Y112" s="0"/>
-      <c r="Z112" s="0"/>
-      <c r="AA112" s="0"/>
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "B/DOOR LOCKBAR BENT 02 PCS .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="0"/>
-      <c r="B113" s="0"/>
-      <c r="C113" s="0"/>
-      <c r="D113" s="0"/>
-      <c r="E113" s="0"/>
-      <c r="F113" s="0"/>
-      <c r="G113" s="0"/>
-      <c r="H113" s="0"/>
-      <c r="I113" s="0"/>
-      <c r="J113" s="0"/>
-      <c r="K113" s="0"/>
-      <c r="L113" s="0"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="0"/>
-      <c r="O113" s="0"/>
-      <c r="P113" s="0"/>
-      <c r="Q113" s="0"/>
-      <c r="R113" s="0"/>
-      <c r="S113" s="0"/>
-      <c r="T113" s="0"/>
-      <c r="U113" s="4"/>
-      <c r="V113" s="0"/>
-      <c r="W113" s="0"/>
-      <c r="X113" s="0" t="inlineStr">
-        <is>
-          <t>F/B SCREW LOOSED 13 PCS &amp; UP &amp; DOWN .</t>
-        </is>
-      </c>
-      <c r="Y113" s="0"/>
-      <c r="Z113" s="0"/>
-      <c r="AA113" s="0"/>
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B SCREW LOOSED 13 PCS &amp; UP &amp; DOWN .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="0"/>
-      <c r="B114" s="0"/>
-      <c r="C114" s="0"/>
-      <c r="D114" s="0"/>
-      <c r="E114" s="0"/>
-      <c r="F114" s="0"/>
-      <c r="G114" s="0"/>
-      <c r="H114" s="0"/>
-      <c r="I114" s="0"/>
-      <c r="J114" s="0"/>
-      <c r="K114" s="0"/>
-      <c r="L114" s="0"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="0"/>
-      <c r="O114" s="0"/>
-      <c r="P114" s="0"/>
-      <c r="Q114" s="0"/>
-      <c r="R114" s="0"/>
-      <c r="S114" s="0"/>
-      <c r="T114" s="0"/>
-      <c r="U114" s="4"/>
-      <c r="V114" s="0"/>
-      <c r="W114" s="0"/>
-      <c r="X114" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DUST.</t>
-        </is>
-      </c>
-      <c r="Y114" s="0"/>
-      <c r="Z114" s="0"/>
-      <c r="AA114" s="0"/>
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
@@ -9254,37 +8057,16 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="0"/>
-      <c r="B116" s="0"/>
-      <c r="C116" s="0"/>
-      <c r="D116" s="0"/>
-      <c r="E116" s="0"/>
-      <c r="F116" s="0"/>
-      <c r="G116" s="0"/>
-      <c r="H116" s="0"/>
-      <c r="I116" s="0"/>
-      <c r="J116" s="0"/>
-      <c r="K116" s="0"/>
-      <c r="L116" s="0"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="0"/>
-      <c r="O116" s="0"/>
-      <c r="P116" s="0"/>
-      <c r="Q116" s="0"/>
-      <c r="R116" s="0"/>
-      <c r="S116" s="0"/>
-      <c r="T116" s="0"/>
-      <c r="U116" s="4"/>
-      <c r="V116" s="0"/>
-      <c r="W116" s="0"/>
-      <c r="X116" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY SCRATCHED,TYER MARK,BLACK STAIN &amp; MUD DUST.</t>
-        </is>
-      </c>
-      <c r="Y116" s="0"/>
-      <c r="Z116" s="0"/>
-      <c r="AA116" s="0"/>
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SCRATCHED,TYER MARK,BLACK STAIN &amp; MUD DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
@@ -9399,37 +8181,16 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="0"/>
-      <c r="B118" s="0"/>
-      <c r="C118" s="0"/>
-      <c r="D118" s="0"/>
-      <c r="E118" s="0"/>
-      <c r="F118" s="0"/>
-      <c r="G118" s="0"/>
-      <c r="H118" s="0"/>
-      <c r="I118" s="0"/>
-      <c r="J118" s="0"/>
-      <c r="K118" s="0"/>
-      <c r="L118" s="0"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="0"/>
-      <c r="O118" s="0"/>
-      <c r="P118" s="0"/>
-      <c r="Q118" s="0"/>
-      <c r="R118" s="0"/>
-      <c r="S118" s="0"/>
-      <c r="T118" s="0"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="0"/>
-      <c r="W118" s="0"/>
-      <c r="X118" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DROP OIL SPOT &amp; DUST.</t>
-        </is>
-      </c>
-      <c r="Y118" s="0"/>
-      <c r="Z118" s="0"/>
-      <c r="AA118" s="0"/>
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DROP OIL SPOT &amp; DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
@@ -9544,70 +8305,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="0"/>
-      <c r="B120" s="0"/>
-      <c r="C120" s="0"/>
-      <c r="D120" s="0"/>
-      <c r="E120" s="0"/>
-      <c r="F120" s="0"/>
-      <c r="G120" s="0"/>
-      <c r="H120" s="0"/>
-      <c r="I120" s="0"/>
-      <c r="J120" s="0"/>
-      <c r="K120" s="0"/>
-      <c r="L120" s="0"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="0"/>
-      <c r="O120" s="0"/>
-      <c r="P120" s="0"/>
-      <c r="Q120" s="0"/>
-      <c r="R120" s="0"/>
-      <c r="S120" s="0"/>
-      <c r="T120" s="0"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="0"/>
-      <c r="W120" s="0"/>
-      <c r="X120" s="0" t="inlineStr">
-        <is>
-          <t>R/DOORBTM GASKET MISSING 02' .</t>
-        </is>
-      </c>
-      <c r="Y120" s="0"/>
-      <c r="Z120" s="0"/>
-      <c r="AA120" s="0"/>
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "R/DOORBTM GASKET MISSING 02' .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="0"/>
-      <c r="B121" s="0"/>
-      <c r="C121" s="0"/>
-      <c r="D121" s="0"/>
-      <c r="E121" s="0"/>
-      <c r="F121" s="0"/>
-      <c r="G121" s="0"/>
-      <c r="H121" s="0"/>
-      <c r="I121" s="0"/>
-      <c r="J121" s="0"/>
-      <c r="K121" s="0"/>
-      <c r="L121" s="0"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="0"/>
-      <c r="O121" s="0"/>
-      <c r="P121" s="0"/>
-      <c r="Q121" s="0"/>
-      <c r="R121" s="0"/>
-      <c r="S121" s="0"/>
-      <c r="T121" s="0"/>
-      <c r="U121" s="4"/>
-      <c r="V121" s="0"/>
-      <c r="W121" s="0"/>
-      <c r="X121" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY OIL STAIN &amp; DUST .</t>
-        </is>
-      </c>
-      <c r="Y121" s="0"/>
-      <c r="Z121" s="0"/>
-      <c r="AA121" s="0"/>
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY OIL STAIN &amp; DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
@@ -9722,37 +8441,16 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="0"/>
-      <c r="B123" s="0"/>
-      <c r="C123" s="0"/>
-      <c r="D123" s="0"/>
-      <c r="E123" s="0"/>
-      <c r="F123" s="0"/>
-      <c r="G123" s="0"/>
-      <c r="H123" s="0"/>
-      <c r="I123" s="0"/>
-      <c r="J123" s="0"/>
-      <c r="K123" s="0"/>
-      <c r="L123" s="0"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="0"/>
-      <c r="O123" s="0"/>
-      <c r="P123" s="0"/>
-      <c r="Q123" s="0"/>
-      <c r="R123" s="0"/>
-      <c r="S123" s="0"/>
-      <c r="T123" s="0"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="0"/>
-      <c r="W123" s="0"/>
-      <c r="X123" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DROP OIL SPOT,SCRACHED &amp; DUST .</t>
-        </is>
-      </c>
-      <c r="Y123" s="0"/>
-      <c r="Z123" s="0"/>
-      <c r="AA123" s="0"/>
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DROP OIL SPOT,SCRACHED &amp; DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
@@ -9867,70 +8565,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="0"/>
-      <c r="B125" s="0"/>
-      <c r="C125" s="0"/>
-      <c r="D125" s="0"/>
-      <c r="E125" s="0"/>
-      <c r="F125" s="0"/>
-      <c r="G125" s="0"/>
-      <c r="H125" s="0"/>
-      <c r="I125" s="0"/>
-      <c r="J125" s="0"/>
-      <c r="K125" s="0"/>
-      <c r="L125" s="0"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="0"/>
-      <c r="O125" s="0"/>
-      <c r="P125" s="0"/>
-      <c r="Q125" s="0"/>
-      <c r="R125" s="0"/>
-      <c r="S125" s="0"/>
-      <c r="T125" s="0"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="0"/>
-      <c r="W125" s="0"/>
-      <c r="X125" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD SCROW MISSING &amp; HOLE 03 PLS.</t>
-        </is>
-      </c>
-      <c r="Y125" s="0"/>
-      <c r="Z125" s="0"/>
-      <c r="AA125" s="0"/>
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD SCROW MISSING &amp; HOLE 03 PLS.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="0"/>
-      <c r="B126" s="0"/>
-      <c r="C126" s="0"/>
-      <c r="D126" s="0"/>
-      <c r="E126" s="0"/>
-      <c r="F126" s="0"/>
-      <c r="G126" s="0"/>
-      <c r="H126" s="0"/>
-      <c r="I126" s="0"/>
-      <c r="J126" s="0"/>
-      <c r="K126" s="0"/>
-      <c r="L126" s="0"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="0"/>
-      <c r="O126" s="0"/>
-      <c r="P126" s="0"/>
-      <c r="Q126" s="0"/>
-      <c r="R126" s="0"/>
-      <c r="S126" s="0"/>
-      <c r="T126" s="0"/>
-      <c r="U126" s="4"/>
-      <c r="V126" s="0"/>
-      <c r="W126" s="0"/>
-      <c r="X126" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y126" s="0"/>
-      <c r="Z126" s="0"/>
-      <c r="AA126" s="0"/>
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
@@ -10045,37 +8701,16 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="0"/>
-      <c r="B128" s="0"/>
-      <c r="C128" s="0"/>
-      <c r="D128" s="0"/>
-      <c r="E128" s="0"/>
-      <c r="F128" s="0"/>
-      <c r="G128" s="0"/>
-      <c r="H128" s="0"/>
-      <c r="I128" s="0"/>
-      <c r="J128" s="0"/>
-      <c r="K128" s="0"/>
-      <c r="L128" s="0"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="0"/>
-      <c r="O128" s="0"/>
-      <c r="P128" s="0"/>
-      <c r="Q128" s="0"/>
-      <c r="R128" s="0"/>
-      <c r="S128" s="0"/>
-      <c r="T128" s="0"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="0"/>
-      <c r="W128" s="0"/>
-      <c r="X128" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y128" s="0"/>
-      <c r="Z128" s="0"/>
-      <c r="AA128" s="0"/>
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
@@ -10190,37 +8825,16 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="0"/>
-      <c r="B130" s="0"/>
-      <c r="C130" s="0"/>
-      <c r="D130" s="0"/>
-      <c r="E130" s="0"/>
-      <c r="F130" s="0"/>
-      <c r="G130" s="0"/>
-      <c r="H130" s="0"/>
-      <c r="I130" s="0"/>
-      <c r="J130" s="0"/>
-      <c r="K130" s="0"/>
-      <c r="L130" s="0"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="0"/>
-      <c r="O130" s="0"/>
-      <c r="P130" s="0"/>
-      <c r="Q130" s="0"/>
-      <c r="R130" s="0"/>
-      <c r="S130" s="0"/>
-      <c r="T130" s="0"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="0"/>
-      <c r="W130" s="0"/>
-      <c r="X130" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DROP OIL SPOT,CHEMICAL WATER DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y130" s="0"/>
-      <c r="Z130" s="0"/>
-      <c r="AA130" s="0"/>
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DROP OIL SPOT,CHEMICAL WATER DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
@@ -10559,37 +9173,16 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="0"/>
-      <c r="B134" s="0"/>
-      <c r="C134" s="0"/>
-      <c r="D134" s="0"/>
-      <c r="E134" s="0"/>
-      <c r="F134" s="0"/>
-      <c r="G134" s="0"/>
-      <c r="H134" s="0"/>
-      <c r="I134" s="0"/>
-      <c r="J134" s="0"/>
-      <c r="K134" s="0"/>
-      <c r="L134" s="0"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="0"/>
-      <c r="O134" s="0"/>
-      <c r="P134" s="0"/>
-      <c r="Q134" s="0"/>
-      <c r="R134" s="0"/>
-      <c r="S134" s="0"/>
-      <c r="T134" s="0"/>
-      <c r="U134" s="4"/>
-      <c r="V134" s="0"/>
-      <c r="W134" s="0"/>
-      <c r="X134" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST.</t>
-        </is>
-      </c>
-      <c r="Y134" s="0"/>
-      <c r="Z134" s="0"/>
-      <c r="AA134" s="0"/>
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
@@ -10704,37 +9297,16 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="0"/>
-      <c r="B136" s="0"/>
-      <c r="C136" s="0"/>
-      <c r="D136" s="0"/>
-      <c r="E136" s="0"/>
-      <c r="F136" s="0"/>
-      <c r="G136" s="0"/>
-      <c r="H136" s="0"/>
-      <c r="I136" s="0"/>
-      <c r="J136" s="0"/>
-      <c r="K136" s="0"/>
-      <c r="L136" s="0"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="0"/>
-      <c r="O136" s="0"/>
-      <c r="P136" s="0"/>
-      <c r="Q136" s="0"/>
-      <c r="R136" s="0"/>
-      <c r="S136" s="0"/>
-      <c r="T136" s="0"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="0"/>
-      <c r="W136" s="0"/>
-      <c r="X136" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST.</t>
-        </is>
-      </c>
-      <c r="Y136" s="0"/>
-      <c r="Z136" s="0"/>
-      <c r="AA136" s="0"/>
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
@@ -10849,37 +9421,16 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="0"/>
-      <c r="B138" s="0"/>
-      <c r="C138" s="0"/>
-      <c r="D138" s="0"/>
-      <c r="E138" s="0"/>
-      <c r="F138" s="0"/>
-      <c r="G138" s="0"/>
-      <c r="H138" s="0"/>
-      <c r="I138" s="0"/>
-      <c r="J138" s="0"/>
-      <c r="K138" s="0"/>
-      <c r="L138" s="0"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="0"/>
-      <c r="O138" s="0"/>
-      <c r="P138" s="0"/>
-      <c r="Q138" s="0"/>
-      <c r="R138" s="0"/>
-      <c r="S138" s="0"/>
-      <c r="T138" s="0"/>
-      <c r="U138" s="4"/>
-      <c r="V138" s="0"/>
-      <c r="W138" s="0"/>
-      <c r="X138" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST.</t>
-        </is>
-      </c>
-      <c r="Y138" s="0"/>
-      <c r="Z138" s="0"/>
-      <c r="AA138" s="0"/>
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
@@ -10994,37 +9545,16 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="0"/>
-      <c r="B140" s="0"/>
-      <c r="C140" s="0"/>
-      <c r="D140" s="0"/>
-      <c r="E140" s="0"/>
-      <c r="F140" s="0"/>
-      <c r="G140" s="0"/>
-      <c r="H140" s="0"/>
-      <c r="I140" s="0"/>
-      <c r="J140" s="0"/>
-      <c r="K140" s="0"/>
-      <c r="L140" s="0"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="0"/>
-      <c r="O140" s="0"/>
-      <c r="P140" s="0"/>
-      <c r="Q140" s="0"/>
-      <c r="R140" s="0"/>
-      <c r="S140" s="0"/>
-      <c r="T140" s="0"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="0"/>
-      <c r="W140" s="0"/>
-      <c r="X140" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY NORMAL DROP OIL SPOT,COTTON DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y140" s="0"/>
-      <c r="Z140" s="0"/>
-      <c r="AA140" s="0"/>
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY NORMAL DROP OIL SPOT,COTTON DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
@@ -11139,37 +9669,16 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="0"/>
-      <c r="B142" s="0"/>
-      <c r="C142" s="0"/>
-      <c r="D142" s="0"/>
-      <c r="E142" s="0"/>
-      <c r="F142" s="0"/>
-      <c r="G142" s="0"/>
-      <c r="H142" s="0"/>
-      <c r="I142" s="0"/>
-      <c r="J142" s="0"/>
-      <c r="K142" s="0"/>
-      <c r="L142" s="0"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="0"/>
-      <c r="O142" s="0"/>
-      <c r="P142" s="0"/>
-      <c r="Q142" s="0"/>
-      <c r="R142" s="0"/>
-      <c r="S142" s="0"/>
-      <c r="T142" s="0"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="0"/>
-      <c r="W142" s="0"/>
-      <c r="X142" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST</t>
-        </is>
-      </c>
-      <c r="Y142" s="0"/>
-      <c r="Z142" s="0"/>
-      <c r="AA142" s="0"/>
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
@@ -11284,37 +9793,16 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="0"/>
-      <c r="B144" s="0"/>
-      <c r="C144" s="0"/>
-      <c r="D144" s="0"/>
-      <c r="E144" s="0"/>
-      <c r="F144" s="0"/>
-      <c r="G144" s="0"/>
-      <c r="H144" s="0"/>
-      <c r="I144" s="0"/>
-      <c r="J144" s="0"/>
-      <c r="K144" s="0"/>
-      <c r="L144" s="0"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="0"/>
-      <c r="O144" s="0"/>
-      <c r="P144" s="0"/>
-      <c r="Q144" s="0"/>
-      <c r="R144" s="0"/>
-      <c r="S144" s="0"/>
-      <c r="T144" s="0"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="0"/>
-      <c r="W144" s="0"/>
-      <c r="X144" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST</t>
-        </is>
-      </c>
-      <c r="Y144" s="0"/>
-      <c r="Z144" s="0"/>
-      <c r="AA144" s="0"/>
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
@@ -11429,37 +9917,16 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="0"/>
-      <c r="B146" s="0"/>
-      <c r="C146" s="0"/>
-      <c r="D146" s="0"/>
-      <c r="E146" s="0"/>
-      <c r="F146" s="0"/>
-      <c r="G146" s="0"/>
-      <c r="H146" s="0"/>
-      <c r="I146" s="0"/>
-      <c r="J146" s="0"/>
-      <c r="K146" s="0"/>
-      <c r="L146" s="0"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="0"/>
-      <c r="O146" s="0"/>
-      <c r="P146" s="0"/>
-      <c r="Q146" s="0"/>
-      <c r="R146" s="0"/>
-      <c r="S146" s="0"/>
-      <c r="T146" s="0"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="0"/>
-      <c r="W146" s="0"/>
-      <c r="X146" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST</t>
-        </is>
-      </c>
-      <c r="Y146" s="0"/>
-      <c r="Z146" s="0"/>
-      <c r="AA146" s="0"/>
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
@@ -11574,37 +10041,16 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="0"/>
-      <c r="B148" s="0"/>
-      <c r="C148" s="0"/>
-      <c r="D148" s="0"/>
-      <c r="E148" s="0"/>
-      <c r="F148" s="0"/>
-      <c r="G148" s="0"/>
-      <c r="H148" s="0"/>
-      <c r="I148" s="0"/>
-      <c r="J148" s="0"/>
-      <c r="K148" s="0"/>
-      <c r="L148" s="0"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="0"/>
-      <c r="O148" s="0"/>
-      <c r="P148" s="0"/>
-      <c r="Q148" s="0"/>
-      <c r="R148" s="0"/>
-      <c r="S148" s="0"/>
-      <c r="T148" s="0"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="0"/>
-      <c r="W148" s="0"/>
-      <c r="X148" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y148" s="0"/>
-      <c r="Z148" s="0"/>
-      <c r="AA148" s="0"/>
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
@@ -11719,70 +10165,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="0"/>
-      <c r="B150" s="0"/>
-      <c r="C150" s="0"/>
-      <c r="D150" s="0"/>
-      <c r="E150" s="0"/>
-      <c r="F150" s="0"/>
-      <c r="G150" s="0"/>
-      <c r="H150" s="0"/>
-      <c r="I150" s="0"/>
-      <c r="J150" s="0"/>
-      <c r="K150" s="0"/>
-      <c r="L150" s="0"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="0"/>
-      <c r="O150" s="0"/>
-      <c r="P150" s="0"/>
-      <c r="Q150" s="0"/>
-      <c r="R150" s="0"/>
-      <c r="S150" s="0"/>
-      <c r="T150" s="0"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="0"/>
-      <c r="W150" s="0"/>
-      <c r="X150" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION.</t>
-        </is>
-      </c>
-      <c r="Y150" s="0"/>
-      <c r="Z150" s="0"/>
-      <c r="AA150" s="0"/>
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="0"/>
-      <c r="B151" s="0"/>
-      <c r="C151" s="0"/>
-      <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
-      <c r="H151" s="0"/>
-      <c r="I151" s="0"/>
-      <c r="J151" s="0"/>
-      <c r="K151" s="0"/>
-      <c r="L151" s="0"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="0"/>
-      <c r="O151" s="0"/>
-      <c r="P151" s="0"/>
-      <c r="Q151" s="0"/>
-      <c r="R151" s="0"/>
-      <c r="S151" s="0"/>
-      <c r="T151" s="0"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="0"/>
-      <c r="W151" s="0"/>
-      <c r="X151" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y151" s="0"/>
-      <c r="Z151" s="0"/>
-      <c r="AA151" s="0"/>
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
@@ -12009,37 +10413,16 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="0"/>
-      <c r="B154" s="0"/>
-      <c r="C154" s="0"/>
-      <c r="D154" s="0"/>
-      <c r="E154" s="0"/>
-      <c r="F154" s="0"/>
-      <c r="G154" s="0"/>
-      <c r="H154" s="0"/>
-      <c r="I154" s="0"/>
-      <c r="J154" s="0"/>
-      <c r="K154" s="0"/>
-      <c r="L154" s="0"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="0"/>
-      <c r="O154" s="0"/>
-      <c r="P154" s="0"/>
-      <c r="Q154" s="0"/>
-      <c r="R154" s="0"/>
-      <c r="S154" s="0"/>
-      <c r="T154" s="0"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="0"/>
-      <c r="W154" s="0"/>
-      <c r="X154" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST .</t>
-        </is>
-      </c>
-      <c r="Y154" s="0"/>
-      <c r="Z154" s="0"/>
-      <c r="AA154" s="0"/>
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
@@ -12442,70 +10825,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="0"/>
-      <c r="B159" s="0"/>
-      <c r="C159" s="0"/>
-      <c r="D159" s="0"/>
-      <c r="E159" s="0"/>
-      <c r="F159" s="0"/>
-      <c r="G159" s="0"/>
-      <c r="H159" s="0"/>
-      <c r="I159" s="0"/>
-      <c r="J159" s="0"/>
-      <c r="K159" s="0"/>
-      <c r="L159" s="0"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="0"/>
-      <c r="O159" s="0"/>
-      <c r="P159" s="0"/>
-      <c r="Q159" s="0"/>
-      <c r="R159" s="0"/>
-      <c r="S159" s="0"/>
-      <c r="T159" s="0"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="0"/>
-      <c r="W159" s="0"/>
-      <c r="X159" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT PANEL CUT 03'.</t>
-        </is>
-      </c>
-      <c r="Y159" s="0"/>
-      <c r="Z159" s="0"/>
-      <c r="AA159" s="0"/>
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT PANEL CUT 03'.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="0"/>
-      <c r="B160" s="0"/>
-      <c r="C160" s="0"/>
-      <c r="D160" s="0"/>
-      <c r="E160" s="0"/>
-      <c r="F160" s="0"/>
-      <c r="G160" s="0"/>
-      <c r="H160" s="0"/>
-      <c r="I160" s="0"/>
-      <c r="J160" s="0"/>
-      <c r="K160" s="0"/>
-      <c r="L160" s="0"/>
-      <c r="M160" s="4"/>
-      <c r="N160" s="0"/>
-      <c r="O160" s="0"/>
-      <c r="P160" s="0"/>
-      <c r="Q160" s="0"/>
-      <c r="R160" s="0"/>
-      <c r="S160" s="0"/>
-      <c r="T160" s="0"/>
-      <c r="U160" s="4"/>
-      <c r="V160" s="0"/>
-      <c r="W160" s="0"/>
-      <c r="X160" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY FISH MEAL DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y160" s="0"/>
-      <c r="Z160" s="0"/>
-      <c r="AA160" s="0"/>
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY FISH MEAL DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
@@ -12708,37 +11049,16 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="0"/>
-      <c r="B163" s="0"/>
-      <c r="C163" s="0"/>
-      <c r="D163" s="0"/>
-      <c r="E163" s="0"/>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
-      <c r="H163" s="0"/>
-      <c r="I163" s="0"/>
-      <c r="J163" s="0"/>
-      <c r="K163" s="0"/>
-      <c r="L163" s="0"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="0"/>
-      <c r="O163" s="0"/>
-      <c r="P163" s="0"/>
-      <c r="Q163" s="0"/>
-      <c r="R163" s="0"/>
-      <c r="S163" s="0"/>
-      <c r="T163" s="0"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="0"/>
-      <c r="W163" s="0"/>
-      <c r="X163" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY.</t>
-        </is>
-      </c>
-      <c r="Y163" s="0"/>
-      <c r="Z163" s="0"/>
-      <c r="AA163" s="0"/>
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
@@ -13077,103 +11397,40 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="0"/>
-      <c r="B167" s="0"/>
-      <c r="C167" s="0"/>
-      <c r="D167" s="0"/>
-      <c r="E167" s="0"/>
-      <c r="F167" s="0"/>
-      <c r="G167" s="0"/>
-      <c r="H167" s="0"/>
-      <c r="I167" s="0"/>
-      <c r="J167" s="0"/>
-      <c r="K167" s="0"/>
-      <c r="L167" s="0"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="0"/>
-      <c r="O167" s="0"/>
-      <c r="P167" s="0"/>
-      <c r="Q167" s="0"/>
-      <c r="R167" s="0"/>
-      <c r="S167" s="0"/>
-      <c r="T167" s="0"/>
-      <c r="U167" s="4"/>
-      <c r="V167" s="0"/>
-      <c r="W167" s="0"/>
-      <c r="X167" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BROKEN DOWN 30' &amp; 30' &amp; SCRATCHED AT VARIOUS PLS</t>
-        </is>
-      </c>
-      <c r="Y167" s="0"/>
-      <c r="Z167" s="0"/>
-      <c r="AA167" s="0"/>
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD BROKEN DOWN 30' &amp; 30' &amp; SCRATCHED AT VARIOUS PLS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="0"/>
-      <c r="B168" s="0"/>
-      <c r="C168" s="0"/>
-      <c r="D168" s="0"/>
-      <c r="E168" s="0"/>
-      <c r="F168" s="0"/>
-      <c r="G168" s="0"/>
-      <c r="H168" s="0"/>
-      <c r="I168" s="0"/>
-      <c r="J168" s="0"/>
-      <c r="K168" s="0"/>
-      <c r="L168" s="0"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="0"/>
-      <c r="O168" s="0"/>
-      <c r="P168" s="0"/>
-      <c r="Q168" s="0"/>
-      <c r="R168" s="0"/>
-      <c r="S168" s="0"/>
-      <c r="T168" s="0"/>
-      <c r="U168" s="4"/>
-      <c r="V168" s="0"/>
-      <c r="W168" s="0"/>
-      <c r="X168" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y168" s="0"/>
-      <c r="Z168" s="0"/>
-      <c r="AA168" s="0"/>
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="0"/>
-      <c r="B169" s="0"/>
-      <c r="C169" s="0"/>
-      <c r="D169" s="0"/>
-      <c r="E169" s="0"/>
-      <c r="F169" s="0"/>
-      <c r="G169" s="0"/>
-      <c r="H169" s="0"/>
-      <c r="I169" s="0"/>
-      <c r="J169" s="0"/>
-      <c r="K169" s="0"/>
-      <c r="L169" s="0"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="0"/>
-      <c r="O169" s="0"/>
-      <c r="P169" s="0"/>
-      <c r="Q169" s="0"/>
-      <c r="R169" s="0"/>
-      <c r="S169" s="0"/>
-      <c r="T169" s="0"/>
-      <c r="U169" s="4"/>
-      <c r="V169" s="0"/>
-      <c r="W169" s="0"/>
-      <c r="X169" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y169" s="0"/>
-      <c r="Z169" s="0"/>
-      <c r="AA169" s="0"/>
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
@@ -13952,37 +12209,16 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="0"/>
-      <c r="B178" s="0"/>
-      <c r="C178" s="0"/>
-      <c r="D178" s="0"/>
-      <c r="E178" s="0"/>
-      <c r="F178" s="0"/>
-      <c r="G178" s="0"/>
-      <c r="H178" s="0"/>
-      <c r="I178" s="0"/>
-      <c r="J178" s="0"/>
-      <c r="K178" s="0"/>
-      <c r="L178" s="0"/>
-      <c r="M178" s="4"/>
-      <c r="N178" s="0"/>
-      <c r="O178" s="0"/>
-      <c r="P178" s="0"/>
-      <c r="Q178" s="0"/>
-      <c r="R178" s="0"/>
-      <c r="S178" s="0"/>
-      <c r="T178" s="0"/>
-      <c r="U178" s="4"/>
-      <c r="V178" s="0"/>
-      <c r="W178" s="0"/>
-      <c r="X178" s="0" t="inlineStr">
-        <is>
-          <t>F/B PROPARLY NOT SEEN BADLY DUST</t>
-        </is>
-      </c>
-      <c r="Y178" s="0"/>
-      <c r="Z178" s="0"/>
-      <c r="AA178" s="0"/>
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B PROPARLY NOT SEEN BADLY DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
@@ -14097,37 +12333,16 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="0"/>
-      <c r="B180" s="0"/>
-      <c r="C180" s="0"/>
-      <c r="D180" s="0"/>
-      <c r="E180" s="0"/>
-      <c r="F180" s="0"/>
-      <c r="G180" s="0"/>
-      <c r="H180" s="0"/>
-      <c r="I180" s="0"/>
-      <c r="J180" s="0"/>
-      <c r="K180" s="0"/>
-      <c r="L180" s="0"/>
-      <c r="M180" s="4"/>
-      <c r="N180" s="0"/>
-      <c r="O180" s="0"/>
-      <c r="P180" s="0"/>
-      <c r="Q180" s="0"/>
-      <c r="R180" s="0"/>
-      <c r="S180" s="0"/>
-      <c r="T180" s="0"/>
-      <c r="U180" s="4"/>
-      <c r="V180" s="0"/>
-      <c r="W180" s="0"/>
-      <c r="X180" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY POULTRY FEED DUST &amp; BAD SMEEL.</t>
-        </is>
-      </c>
-      <c r="Y180" s="0"/>
-      <c r="Z180" s="0"/>
-      <c r="AA180" s="0"/>
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY POULTRY FEED DUST &amp; BAD SMEEL.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="n">
@@ -14242,37 +12457,16 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="0"/>
-      <c r="B182" s="0"/>
-      <c r="C182" s="0"/>
-      <c r="D182" s="0"/>
-      <c r="E182" s="0"/>
-      <c r="F182" s="0"/>
-      <c r="G182" s="0"/>
-      <c r="H182" s="0"/>
-      <c r="I182" s="0"/>
-      <c r="J182" s="0"/>
-      <c r="K182" s="0"/>
-      <c r="L182" s="0"/>
-      <c r="M182" s="4"/>
-      <c r="N182" s="0"/>
-      <c r="O182" s="0"/>
-      <c r="P182" s="0"/>
-      <c r="Q182" s="0"/>
-      <c r="R182" s="0"/>
-      <c r="S182" s="0"/>
-      <c r="T182" s="0"/>
-      <c r="U182" s="4"/>
-      <c r="V182" s="0"/>
-      <c r="W182" s="0"/>
-      <c r="X182" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY STONE DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y182" s="0"/>
-      <c r="Z182" s="0"/>
-      <c r="AA182" s="0"/>
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY STONE DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="n">
@@ -14387,37 +12581,16 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="0"/>
-      <c r="B184" s="0"/>
-      <c r="C184" s="0"/>
-      <c r="D184" s="0"/>
-      <c r="E184" s="0"/>
-      <c r="F184" s="0"/>
-      <c r="G184" s="0"/>
-      <c r="H184" s="0"/>
-      <c r="I184" s="0"/>
-      <c r="J184" s="0"/>
-      <c r="K184" s="0"/>
-      <c r="L184" s="0"/>
-      <c r="M184" s="4"/>
-      <c r="N184" s="0"/>
-      <c r="O184" s="0"/>
-      <c r="P184" s="0"/>
-      <c r="Q184" s="0"/>
-      <c r="R184" s="0"/>
-      <c r="S184" s="0"/>
-      <c r="T184" s="0"/>
-      <c r="U184" s="4"/>
-      <c r="V184" s="0"/>
-      <c r="W184" s="0"/>
-      <c r="X184" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y184" s="0"/>
-      <c r="Z184" s="0"/>
-      <c r="AA184" s="0"/>
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="n">
@@ -14644,103 +12817,40 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="0"/>
-      <c r="B187" s="0"/>
-      <c r="C187" s="0"/>
-      <c r="D187" s="0"/>
-      <c r="E187" s="0"/>
-      <c r="F187" s="0"/>
-      <c r="G187" s="0"/>
-      <c r="H187" s="0"/>
-      <c r="I187" s="0"/>
-      <c r="J187" s="0"/>
-      <c r="K187" s="0"/>
-      <c r="L187" s="0"/>
-      <c r="M187" s="4"/>
-      <c r="N187" s="0"/>
-      <c r="O187" s="0"/>
-      <c r="P187" s="0"/>
-      <c r="Q187" s="0"/>
-      <c r="R187" s="0"/>
-      <c r="S187" s="0"/>
-      <c r="T187" s="0"/>
-      <c r="U187" s="4"/>
-      <c r="V187" s="0"/>
-      <c r="W187" s="0"/>
-      <c r="X187" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR GASKET CUT 03' &amp; STRIP BENT 12'</t>
-        </is>
-      </c>
-      <c r="Y187" s="0"/>
-      <c r="Z187" s="0"/>
-      <c r="AA187" s="0"/>
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR GASKET CUT 03' &amp; STRIP BENT 12'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="0"/>
-      <c r="B188" s="0"/>
-      <c r="C188" s="0"/>
-      <c r="D188" s="0"/>
-      <c r="E188" s="0"/>
-      <c r="F188" s="0"/>
-      <c r="G188" s="0"/>
-      <c r="H188" s="0"/>
-      <c r="I188" s="0"/>
-      <c r="J188" s="0"/>
-      <c r="K188" s="0"/>
-      <c r="L188" s="0"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="0"/>
-      <c r="O188" s="0"/>
-      <c r="P188" s="0"/>
-      <c r="Q188" s="0"/>
-      <c r="R188" s="0"/>
-      <c r="S188" s="0"/>
-      <c r="T188" s="0"/>
-      <c r="U188" s="4"/>
-      <c r="V188" s="0"/>
-      <c r="W188" s="0"/>
-      <c r="X188" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y188" s="0"/>
-      <c r="Z188" s="0"/>
-      <c r="AA188" s="0"/>
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="0"/>
-      <c r="B189" s="0"/>
-      <c r="C189" s="0"/>
-      <c r="D189" s="0"/>
-      <c r="E189" s="0"/>
-      <c r="F189" s="0"/>
-      <c r="G189" s="0"/>
-      <c r="H189" s="0"/>
-      <c r="I189" s="0"/>
-      <c r="J189" s="0"/>
-      <c r="K189" s="0"/>
-      <c r="L189" s="0"/>
-      <c r="M189" s="4"/>
-      <c r="N189" s="0"/>
-      <c r="O189" s="0"/>
-      <c r="P189" s="0"/>
-      <c r="Q189" s="0"/>
-      <c r="R189" s="0"/>
-      <c r="S189" s="0"/>
-      <c r="T189" s="0"/>
-      <c r="U189" s="4"/>
-      <c r="V189" s="0"/>
-      <c r="W189" s="0"/>
-      <c r="X189" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y189" s="0"/>
-      <c r="Z189" s="0"/>
-      <c r="AA189" s="0"/>
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="n">
@@ -14855,37 +12965,16 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="0"/>
-      <c r="B191" s="0"/>
-      <c r="C191" s="0"/>
-      <c r="D191" s="0"/>
-      <c r="E191" s="0"/>
-      <c r="F191" s="0"/>
-      <c r="G191" s="0"/>
-      <c r="H191" s="0"/>
-      <c r="I191" s="0"/>
-      <c r="J191" s="0"/>
-      <c r="K191" s="0"/>
-      <c r="L191" s="0"/>
-      <c r="M191" s="4"/>
-      <c r="N191" s="0"/>
-      <c r="O191" s="0"/>
-      <c r="P191" s="0"/>
-      <c r="Q191" s="0"/>
-      <c r="R191" s="0"/>
-      <c r="S191" s="0"/>
-      <c r="T191" s="0"/>
-      <c r="U191" s="4"/>
-      <c r="V191" s="0"/>
-      <c r="W191" s="0"/>
-      <c r="X191" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y191" s="0"/>
-      <c r="Z191" s="0"/>
-      <c r="AA191" s="0"/>
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="n">
@@ -15000,37 +13089,16 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="0"/>
-      <c r="B193" s="0"/>
-      <c r="C193" s="0"/>
-      <c r="D193" s="0"/>
-      <c r="E193" s="0"/>
-      <c r="F193" s="0"/>
-      <c r="G193" s="0"/>
-      <c r="H193" s="0"/>
-      <c r="I193" s="0"/>
-      <c r="J193" s="0"/>
-      <c r="K193" s="0"/>
-      <c r="L193" s="0"/>
-      <c r="M193" s="4"/>
-      <c r="N193" s="0"/>
-      <c r="O193" s="0"/>
-      <c r="P193" s="0"/>
-      <c r="Q193" s="0"/>
-      <c r="R193" s="0"/>
-      <c r="S193" s="0"/>
-      <c r="T193" s="0"/>
-      <c r="U193" s="4"/>
-      <c r="V193" s="0"/>
-      <c r="W193" s="0"/>
-      <c r="X193" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY COTTON DUST &amp; ODOUR</t>
-        </is>
-      </c>
-      <c r="Y193" s="0"/>
-      <c r="Z193" s="0"/>
-      <c r="AA193" s="0"/>
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY COTTON DUST &amp; ODOUR", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="n">
@@ -15345,103 +13413,40 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="0"/>
-      <c r="B197" s="0"/>
-      <c r="C197" s="0"/>
-      <c r="D197" s="0"/>
-      <c r="E197" s="0"/>
-      <c r="F197" s="0"/>
-      <c r="G197" s="0"/>
-      <c r="H197" s="0"/>
-      <c r="I197" s="0"/>
-      <c r="J197" s="0"/>
-      <c r="K197" s="0"/>
-      <c r="L197" s="0"/>
-      <c r="M197" s="4"/>
-      <c r="N197" s="0"/>
-      <c r="O197" s="0"/>
-      <c r="P197" s="0"/>
-      <c r="Q197" s="0"/>
-      <c r="R197" s="0"/>
-      <c r="S197" s="0"/>
-      <c r="T197" s="0"/>
-      <c r="U197" s="4"/>
-      <c r="V197" s="0"/>
-      <c r="W197" s="0"/>
-      <c r="X197" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y197" s="0"/>
-      <c r="Z197" s="0"/>
-      <c r="AA197" s="0"/>
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" s="0"/>
-      <c r="B198" s="0"/>
-      <c r="C198" s="0"/>
-      <c r="D198" s="0"/>
-      <c r="E198" s="0"/>
-      <c r="F198" s="0"/>
-      <c r="G198" s="0"/>
-      <c r="H198" s="0"/>
-      <c r="I198" s="0"/>
-      <c r="J198" s="0"/>
-      <c r="K198" s="0"/>
-      <c r="L198" s="0"/>
-      <c r="M198" s="4"/>
-      <c r="N198" s="0"/>
-      <c r="O198" s="0"/>
-      <c r="P198" s="0"/>
-      <c r="Q198" s="0"/>
-      <c r="R198" s="0"/>
-      <c r="S198" s="0"/>
-      <c r="T198" s="0"/>
-      <c r="U198" s="4"/>
-      <c r="V198" s="0"/>
-      <c r="W198" s="0"/>
-      <c r="X198" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y198" s="0"/>
-      <c r="Z198" s="0"/>
-      <c r="AA198" s="0"/>
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" s="0"/>
-      <c r="B199" s="0"/>
-      <c r="C199" s="0"/>
-      <c r="D199" s="0"/>
-      <c r="E199" s="0"/>
-      <c r="F199" s="0"/>
-      <c r="G199" s="0"/>
-      <c r="H199" s="0"/>
-      <c r="I199" s="0"/>
-      <c r="J199" s="0"/>
-      <c r="K199" s="0"/>
-      <c r="L199" s="0"/>
-      <c r="M199" s="4"/>
-      <c r="N199" s="0"/>
-      <c r="O199" s="0"/>
-      <c r="P199" s="0"/>
-      <c r="Q199" s="0"/>
-      <c r="R199" s="0"/>
-      <c r="S199" s="0"/>
-      <c r="T199" s="0"/>
-      <c r="U199" s="4"/>
-      <c r="V199" s="0"/>
-      <c r="W199" s="0"/>
-      <c r="X199" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD POULTRY FEED DUST &amp; TYRE MARK &amp; ODOUR</t>
-        </is>
-      </c>
-      <c r="Y199" s="0"/>
-      <c r="Z199" s="0"/>
-      <c r="AA199" s="0"/>
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD POULTRY FEED DUST &amp; TYRE MARK &amp; ODOUR", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="n">
@@ -15556,103 +13561,40 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="0"/>
-      <c r="B201" s="0"/>
-      <c r="C201" s="0"/>
-      <c r="D201" s="0"/>
-      <c r="E201" s="0"/>
-      <c r="F201" s="0"/>
-      <c r="G201" s="0"/>
-      <c r="H201" s="0"/>
-      <c r="I201" s="0"/>
-      <c r="J201" s="0"/>
-      <c r="K201" s="0"/>
-      <c r="L201" s="0"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="0"/>
-      <c r="O201" s="0"/>
-      <c r="P201" s="0"/>
-      <c r="Q201" s="0"/>
-      <c r="R201" s="0"/>
-      <c r="S201" s="0"/>
-      <c r="T201" s="0"/>
-      <c r="U201" s="4"/>
-      <c r="V201" s="0"/>
-      <c r="W201" s="0"/>
-      <c r="X201" s="0" t="inlineStr">
-        <is>
-          <t>DOOR FRAME &amp; GASKET AREA BADLY RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y201" s="0"/>
-      <c r="Z201" s="0"/>
-      <c r="AA201" s="0"/>
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "DOOR FRAME &amp; GASKET AREA BADLY RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" s="0"/>
-      <c r="B202" s="0"/>
-      <c r="C202" s="0"/>
-      <c r="D202" s="0"/>
-      <c r="E202" s="0"/>
-      <c r="F202" s="0"/>
-      <c r="G202" s="0"/>
-      <c r="H202" s="0"/>
-      <c r="I202" s="0"/>
-      <c r="J202" s="0"/>
-      <c r="K202" s="0"/>
-      <c r="L202" s="0"/>
-      <c r="M202" s="4"/>
-      <c r="N202" s="0"/>
-      <c r="O202" s="0"/>
-      <c r="P202" s="0"/>
-      <c r="Q202" s="0"/>
-      <c r="R202" s="0"/>
-      <c r="S202" s="0"/>
-      <c r="T202" s="0"/>
-      <c r="U202" s="4"/>
-      <c r="V202" s="0"/>
-      <c r="W202" s="0"/>
-      <c r="X202" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION. BADLY</t>
-        </is>
-      </c>
-      <c r="Y202" s="0"/>
-      <c r="Z202" s="0"/>
-      <c r="AA202" s="0"/>
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION. BADLY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="0"/>
-      <c r="B203" s="0"/>
-      <c r="C203" s="0"/>
-      <c r="D203" s="0"/>
-      <c r="E203" s="0"/>
-      <c r="F203" s="0"/>
-      <c r="G203" s="0"/>
-      <c r="H203" s="0"/>
-      <c r="I203" s="0"/>
-      <c r="J203" s="0"/>
-      <c r="K203" s="0"/>
-      <c r="L203" s="0"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="0"/>
-      <c r="O203" s="0"/>
-      <c r="P203" s="0"/>
-      <c r="Q203" s="0"/>
-      <c r="R203" s="0"/>
-      <c r="S203" s="0"/>
-      <c r="T203" s="0"/>
-      <c r="U203" s="4"/>
-      <c r="V203" s="0"/>
-      <c r="W203" s="0"/>
-      <c r="X203" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY SODA DUST &amp; ODOUR</t>
-        </is>
-      </c>
-      <c r="Y203" s="0"/>
-      <c r="Z203" s="0"/>
-      <c r="AA203" s="0"/>
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY SODA DUST &amp; ODOUR", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="n">
@@ -15767,103 +13709,40 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="0"/>
-      <c r="B205" s="0"/>
-      <c r="C205" s="0"/>
-      <c r="D205" s="0"/>
-      <c r="E205" s="0"/>
-      <c r="F205" s="0"/>
-      <c r="G205" s="0"/>
-      <c r="H205" s="0"/>
-      <c r="I205" s="0"/>
-      <c r="J205" s="0"/>
-      <c r="K205" s="0"/>
-      <c r="L205" s="0"/>
-      <c r="M205" s="4"/>
-      <c r="N205" s="0"/>
-      <c r="O205" s="0"/>
-      <c r="P205" s="0"/>
-      <c r="Q205" s="0"/>
-      <c r="R205" s="0"/>
-      <c r="S205" s="0"/>
-      <c r="T205" s="0"/>
-      <c r="U205" s="4"/>
-      <c r="V205" s="0"/>
-      <c r="W205" s="0"/>
-      <c r="X205" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y205" s="0"/>
-      <c r="Z205" s="0"/>
-      <c r="AA205" s="0"/>
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="0"/>
-      <c r="B206" s="0"/>
-      <c r="C206" s="0"/>
-      <c r="D206" s="0"/>
-      <c r="E206" s="0"/>
-      <c r="F206" s="0"/>
-      <c r="G206" s="0"/>
-      <c r="H206" s="0"/>
-      <c r="I206" s="0"/>
-      <c r="J206" s="0"/>
-      <c r="K206" s="0"/>
-      <c r="L206" s="0"/>
-      <c r="M206" s="4"/>
-      <c r="N206" s="0"/>
-      <c r="O206" s="0"/>
-      <c r="P206" s="0"/>
-      <c r="Q206" s="0"/>
-      <c r="R206" s="0"/>
-      <c r="S206" s="0"/>
-      <c r="T206" s="0"/>
-      <c r="U206" s="4"/>
-      <c r="V206" s="0"/>
-      <c r="W206" s="0"/>
-      <c r="X206" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR BOTTOM GASKET WITH STRIP LOOSE 12'</t>
-        </is>
-      </c>
-      <c r="Y206" s="0"/>
-      <c r="Z206" s="0"/>
-      <c r="AA206" s="0"/>
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET WITH STRIP LOOSE 12'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" s="0"/>
-      <c r="B207" s="0"/>
-      <c r="C207" s="0"/>
-      <c r="D207" s="0"/>
-      <c r="E207" s="0"/>
-      <c r="F207" s="0"/>
-      <c r="G207" s="0"/>
-      <c r="H207" s="0"/>
-      <c r="I207" s="0"/>
-      <c r="J207" s="0"/>
-      <c r="K207" s="0"/>
-      <c r="L207" s="0"/>
-      <c r="M207" s="4"/>
-      <c r="N207" s="0"/>
-      <c r="O207" s="0"/>
-      <c r="P207" s="0"/>
-      <c r="Q207" s="0"/>
-      <c r="R207" s="0"/>
-      <c r="S207" s="0"/>
-      <c r="T207" s="0"/>
-      <c r="U207" s="4"/>
-      <c r="V207" s="0"/>
-      <c r="W207" s="0"/>
-      <c r="X207" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST</t>
-        </is>
-      </c>
-      <c r="Y207" s="0"/>
-      <c r="Z207" s="0"/>
-      <c r="AA207" s="0"/>
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="n">
@@ -15978,37 +13857,16 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="0"/>
-      <c r="B209" s="0"/>
-      <c r="C209" s="0"/>
-      <c r="D209" s="0"/>
-      <c r="E209" s="0"/>
-      <c r="F209" s="0"/>
-      <c r="G209" s="0"/>
-      <c r="H209" s="0"/>
-      <c r="I209" s="0"/>
-      <c r="J209" s="0"/>
-      <c r="K209" s="0"/>
-      <c r="L209" s="0"/>
-      <c r="M209" s="4"/>
-      <c r="N209" s="0"/>
-      <c r="O209" s="0"/>
-      <c r="P209" s="0"/>
-      <c r="Q209" s="0"/>
-      <c r="R209" s="0"/>
-      <c r="S209" s="0"/>
-      <c r="T209" s="0"/>
-      <c r="U209" s="4"/>
-      <c r="V209" s="0"/>
-      <c r="W209" s="0"/>
-      <c r="X209" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD OIL SPOT &amp; MUD DUST &amp; POWDER</t>
-        </is>
-      </c>
-      <c r="Y209" s="0"/>
-      <c r="Z209" s="0"/>
-      <c r="AA209" s="0"/>
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; MUD DUST &amp; POWDER", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="n">
@@ -16235,37 +14093,16 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="0"/>
-      <c r="B212" s="0"/>
-      <c r="C212" s="0"/>
-      <c r="D212" s="0"/>
-      <c r="E212" s="0"/>
-      <c r="F212" s="0"/>
-      <c r="G212" s="0"/>
-      <c r="H212" s="0"/>
-      <c r="I212" s="0"/>
-      <c r="J212" s="0"/>
-      <c r="K212" s="0"/>
-      <c r="L212" s="0"/>
-      <c r="M212" s="4"/>
-      <c r="N212" s="0"/>
-      <c r="O212" s="0"/>
-      <c r="P212" s="0"/>
-      <c r="Q212" s="0"/>
-      <c r="R212" s="0"/>
-      <c r="S212" s="0"/>
-      <c r="T212" s="0"/>
-      <c r="U212" s="4"/>
-      <c r="V212" s="0"/>
-      <c r="W212" s="0"/>
-      <c r="X212" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y212" s="0"/>
-      <c r="Z212" s="0"/>
-      <c r="AA212" s="0"/>
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="n">
@@ -16380,70 +14217,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="0"/>
-      <c r="B214" s="0"/>
-      <c r="C214" s="0"/>
-      <c r="D214" s="0"/>
-      <c r="E214" s="0"/>
-      <c r="F214" s="0"/>
-      <c r="G214" s="0"/>
-      <c r="H214" s="0"/>
-      <c r="I214" s="0"/>
-      <c r="J214" s="0"/>
-      <c r="K214" s="0"/>
-      <c r="L214" s="0"/>
-      <c r="M214" s="4"/>
-      <c r="N214" s="0"/>
-      <c r="O214" s="0"/>
-      <c r="P214" s="0"/>
-      <c r="Q214" s="0"/>
-      <c r="R214" s="0"/>
-      <c r="S214" s="0"/>
-      <c r="T214" s="0"/>
-      <c r="U214" s="4"/>
-      <c r="V214" s="0"/>
-      <c r="W214" s="0"/>
-      <c r="X214" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD NAILS FITTING 06 PCS</t>
-        </is>
-      </c>
-      <c r="Y214" s="0"/>
-      <c r="Z214" s="0"/>
-      <c r="AA214" s="0"/>
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS FITTING 06 PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" s="0"/>
-      <c r="B215" s="0"/>
-      <c r="C215" s="0"/>
-      <c r="D215" s="0"/>
-      <c r="E215" s="0"/>
-      <c r="F215" s="0"/>
-      <c r="G215" s="0"/>
-      <c r="H215" s="0"/>
-      <c r="I215" s="0"/>
-      <c r="J215" s="0"/>
-      <c r="K215" s="0"/>
-      <c r="L215" s="0"/>
-      <c r="M215" s="4"/>
-      <c r="N215" s="0"/>
-      <c r="O215" s="0"/>
-      <c r="P215" s="0"/>
-      <c r="Q215" s="0"/>
-      <c r="R215" s="0"/>
-      <c r="S215" s="0"/>
-      <c r="T215" s="0"/>
-      <c r="U215" s="4"/>
-      <c r="V215" s="0"/>
-      <c r="W215" s="0"/>
-      <c r="X215" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD OIL SPOT &amp; DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y215" s="0"/>
-      <c r="Z215" s="0"/>
-      <c r="AA215" s="0"/>
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="n">
@@ -16558,37 +14353,16 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="0"/>
-      <c r="B217" s="0"/>
-      <c r="C217" s="0"/>
-      <c r="D217" s="0"/>
-      <c r="E217" s="0"/>
-      <c r="F217" s="0"/>
-      <c r="G217" s="0"/>
-      <c r="H217" s="0"/>
-      <c r="I217" s="0"/>
-      <c r="J217" s="0"/>
-      <c r="K217" s="0"/>
-      <c r="L217" s="0"/>
-      <c r="M217" s="4"/>
-      <c r="N217" s="0"/>
-      <c r="O217" s="0"/>
-      <c r="P217" s="0"/>
-      <c r="Q217" s="0"/>
-      <c r="R217" s="0"/>
-      <c r="S217" s="0"/>
-      <c r="T217" s="0"/>
-      <c r="U217" s="4"/>
-      <c r="V217" s="0"/>
-      <c r="W217" s="0"/>
-      <c r="X217" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST </t>
-        </is>
-      </c>
-      <c r="Y217" s="0"/>
-      <c r="Z217" s="0"/>
-      <c r="AA217" s="0"/>
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="n">
@@ -16815,37 +14589,16 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="0"/>
-      <c r="B220" s="0"/>
-      <c r="C220" s="0"/>
-      <c r="D220" s="0"/>
-      <c r="E220" s="0"/>
-      <c r="F220" s="0"/>
-      <c r="G220" s="0"/>
-      <c r="H220" s="0"/>
-      <c r="I220" s="0"/>
-      <c r="J220" s="0"/>
-      <c r="K220" s="0"/>
-      <c r="L220" s="0"/>
-      <c r="M220" s="4"/>
-      <c r="N220" s="0"/>
-      <c r="O220" s="0"/>
-      <c r="P220" s="0"/>
-      <c r="Q220" s="0"/>
-      <c r="R220" s="0"/>
-      <c r="S220" s="0"/>
-      <c r="T220" s="0"/>
-      <c r="U220" s="4"/>
-      <c r="V220" s="0"/>
-      <c r="W220" s="0"/>
-      <c r="X220" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY OIL SPOT,BLACK STAIN &amp; DUST.</t>
-        </is>
-      </c>
-      <c r="Y220" s="0"/>
-      <c r="Z220" s="0"/>
-      <c r="AA220" s="0"/>
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY OIL SPOT,BLACK STAIN &amp; DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="n">
@@ -16960,37 +14713,16 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="0"/>
-      <c r="B222" s="0"/>
-      <c r="C222" s="0"/>
-      <c r="D222" s="0"/>
-      <c r="E222" s="0"/>
-      <c r="F222" s="0"/>
-      <c r="G222" s="0"/>
-      <c r="H222" s="0"/>
-      <c r="I222" s="0"/>
-      <c r="J222" s="0"/>
-      <c r="K222" s="0"/>
-      <c r="L222" s="0"/>
-      <c r="M222" s="4"/>
-      <c r="N222" s="0"/>
-      <c r="O222" s="0"/>
-      <c r="P222" s="0"/>
-      <c r="Q222" s="0"/>
-      <c r="R222" s="0"/>
-      <c r="S222" s="0"/>
-      <c r="T222" s="0"/>
-      <c r="U222" s="4"/>
-      <c r="V222" s="0"/>
-      <c r="W222" s="0"/>
-      <c r="X222" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST .</t>
-        </is>
-      </c>
-      <c r="Y222" s="0"/>
-      <c r="Z222" s="0"/>
-      <c r="AA222" s="0"/>
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="n">
@@ -17105,37 +14837,16 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="0"/>
-      <c r="B224" s="0"/>
-      <c r="C224" s="0"/>
-      <c r="D224" s="0"/>
-      <c r="E224" s="0"/>
-      <c r="F224" s="0"/>
-      <c r="G224" s="0"/>
-      <c r="H224" s="0"/>
-      <c r="I224" s="0"/>
-      <c r="J224" s="0"/>
-      <c r="K224" s="0"/>
-      <c r="L224" s="0"/>
-      <c r="M224" s="4"/>
-      <c r="N224" s="0"/>
-      <c r="O224" s="0"/>
-      <c r="P224" s="0"/>
-      <c r="Q224" s="0"/>
-      <c r="R224" s="0"/>
-      <c r="S224" s="0"/>
-      <c r="T224" s="0"/>
-      <c r="U224" s="4"/>
-      <c r="V224" s="0"/>
-      <c r="W224" s="0"/>
-      <c r="X224" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y224" s="0"/>
-      <c r="Z224" s="0"/>
-      <c r="AA224" s="0"/>
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="n">
@@ -17250,70 +14961,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="0"/>
-      <c r="B226" s="0"/>
-      <c r="C226" s="0"/>
-      <c r="D226" s="0"/>
-      <c r="E226" s="0"/>
-      <c r="F226" s="0"/>
-      <c r="G226" s="0"/>
-      <c r="H226" s="0"/>
-      <c r="I226" s="0"/>
-      <c r="J226" s="0"/>
-      <c r="K226" s="0"/>
-      <c r="L226" s="0"/>
-      <c r="M226" s="4"/>
-      <c r="N226" s="0"/>
-      <c r="O226" s="0"/>
-      <c r="P226" s="0"/>
-      <c r="Q226" s="0"/>
-      <c r="R226" s="0"/>
-      <c r="S226" s="0"/>
-      <c r="T226" s="0"/>
-      <c r="U226" s="4"/>
-      <c r="V226" s="0"/>
-      <c r="W226" s="0"/>
-      <c r="X226" s="0" t="inlineStr">
-        <is>
-          <t>R/DOOR LOCKBAR  BENT 01 PC.</t>
-        </is>
-      </c>
-      <c r="Y226" s="0"/>
-      <c r="Z226" s="0"/>
-      <c r="AA226" s="0"/>
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "R/DOOR LOCKBAR  BENT 01 PC.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" s="0"/>
-      <c r="B227" s="0"/>
-      <c r="C227" s="0"/>
-      <c r="D227" s="0"/>
-      <c r="E227" s="0"/>
-      <c r="F227" s="0"/>
-      <c r="G227" s="0"/>
-      <c r="H227" s="0"/>
-      <c r="I227" s="0"/>
-      <c r="J227" s="0"/>
-      <c r="K227" s="0"/>
-      <c r="L227" s="0"/>
-      <c r="M227" s="4"/>
-      <c r="N227" s="0"/>
-      <c r="O227" s="0"/>
-      <c r="P227" s="0"/>
-      <c r="Q227" s="0"/>
-      <c r="R227" s="0"/>
-      <c r="S227" s="0"/>
-      <c r="T227" s="0"/>
-      <c r="U227" s="4"/>
-      <c r="V227" s="0"/>
-      <c r="W227" s="0"/>
-      <c r="X227" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  WHITE POWDER DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y227" s="0"/>
-      <c r="Z227" s="0"/>
-      <c r="AA227" s="0"/>
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  WHITE POWDER DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="n">
@@ -17428,70 +15097,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="0"/>
-      <c r="B229" s="0"/>
-      <c r="C229" s="0"/>
-      <c r="D229" s="0"/>
-      <c r="E229" s="0"/>
-      <c r="F229" s="0"/>
-      <c r="G229" s="0"/>
-      <c r="H229" s="0"/>
-      <c r="I229" s="0"/>
-      <c r="J229" s="0"/>
-      <c r="K229" s="0"/>
-      <c r="L229" s="0"/>
-      <c r="M229" s="4"/>
-      <c r="N229" s="0"/>
-      <c r="O229" s="0"/>
-      <c r="P229" s="0"/>
-      <c r="Q229" s="0"/>
-      <c r="R229" s="0"/>
-      <c r="S229" s="0"/>
-      <c r="T229" s="0"/>
-      <c r="U229" s="4"/>
-      <c r="V229" s="0"/>
-      <c r="W229" s="0"/>
-      <c r="X229" s="0" t="inlineStr">
-        <is>
-          <t>FRONT SIDE F/B CRACKED &amp; UP 14'X10'.</t>
-        </is>
-      </c>
-      <c r="Y229" s="0"/>
-      <c r="Z229" s="0"/>
-      <c r="AA229" s="0"/>
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FRONT SIDE F/B CRACKED &amp; UP 14'X10'.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" s="0"/>
-      <c r="B230" s="0"/>
-      <c r="C230" s="0"/>
-      <c r="D230" s="0"/>
-      <c r="E230" s="0"/>
-      <c r="F230" s="0"/>
-      <c r="G230" s="0"/>
-      <c r="H230" s="0"/>
-      <c r="I230" s="0"/>
-      <c r="J230" s="0"/>
-      <c r="K230" s="0"/>
-      <c r="L230" s="0"/>
-      <c r="M230" s="4"/>
-      <c r="N230" s="0"/>
-      <c r="O230" s="0"/>
-      <c r="P230" s="0"/>
-      <c r="Q230" s="0"/>
-      <c r="R230" s="0"/>
-      <c r="S230" s="0"/>
-      <c r="T230" s="0"/>
-      <c r="U230" s="4"/>
-      <c r="V230" s="0"/>
-      <c r="W230" s="0"/>
-      <c r="X230" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y230" s="0"/>
-      <c r="Z230" s="0"/>
-      <c r="AA230" s="0"/>
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="n">
@@ -17606,70 +15233,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="0"/>
-      <c r="B232" s="0"/>
-      <c r="C232" s="0"/>
-      <c r="D232" s="0"/>
-      <c r="E232" s="0"/>
-      <c r="F232" s="0"/>
-      <c r="G232" s="0"/>
-      <c r="H232" s="0"/>
-      <c r="I232" s="0"/>
-      <c r="J232" s="0"/>
-      <c r="K232" s="0"/>
-      <c r="L232" s="0"/>
-      <c r="M232" s="4"/>
-      <c r="N232" s="0"/>
-      <c r="O232" s="0"/>
-      <c r="P232" s="0"/>
-      <c r="Q232" s="0"/>
-      <c r="R232" s="0"/>
-      <c r="S232" s="0"/>
-      <c r="T232" s="0"/>
-      <c r="U232" s="4"/>
-      <c r="V232" s="0"/>
-      <c r="W232" s="0"/>
-      <c r="X232" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL NO-11 RUSTED CORROSION .</t>
-        </is>
-      </c>
-      <c r="Y232" s="0"/>
-      <c r="Z232" s="0"/>
-      <c r="AA232" s="0"/>
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL NO-11 RUSTED CORROSION .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" s="0"/>
-      <c r="B233" s="0"/>
-      <c r="C233" s="0"/>
-      <c r="D233" s="0"/>
-      <c r="E233" s="0"/>
-      <c r="F233" s="0"/>
-      <c r="G233" s="0"/>
-      <c r="H233" s="0"/>
-      <c r="I233" s="0"/>
-      <c r="J233" s="0"/>
-      <c r="K233" s="0"/>
-      <c r="L233" s="0"/>
-      <c r="M233" s="4"/>
-      <c r="N233" s="0"/>
-      <c r="O233" s="0"/>
-      <c r="P233" s="0"/>
-      <c r="Q233" s="0"/>
-      <c r="R233" s="0"/>
-      <c r="S233" s="0"/>
-      <c r="T233" s="0"/>
-      <c r="U233" s="4"/>
-      <c r="V233" s="0"/>
-      <c r="W233" s="0"/>
-      <c r="X233" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y233" s="0"/>
-      <c r="Z233" s="0"/>
-      <c r="AA233" s="0"/>
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="n">
@@ -17784,37 +15369,16 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="0"/>
-      <c r="B235" s="0"/>
-      <c r="C235" s="0"/>
-      <c r="D235" s="0"/>
-      <c r="E235" s="0"/>
-      <c r="F235" s="0"/>
-      <c r="G235" s="0"/>
-      <c r="H235" s="0"/>
-      <c r="I235" s="0"/>
-      <c r="J235" s="0"/>
-      <c r="K235" s="0"/>
-      <c r="L235" s="0"/>
-      <c r="M235" s="4"/>
-      <c r="N235" s="0"/>
-      <c r="O235" s="0"/>
-      <c r="P235" s="0"/>
-      <c r="Q235" s="0"/>
-      <c r="R235" s="0"/>
-      <c r="S235" s="0"/>
-      <c r="T235" s="0"/>
-      <c r="U235" s="4"/>
-      <c r="V235" s="0"/>
-      <c r="W235" s="0"/>
-      <c r="X235" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y235" s="0"/>
-      <c r="Z235" s="0"/>
-      <c r="AA235" s="0"/>
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="n">
@@ -17929,70 +15493,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="0"/>
-      <c r="B237" s="0"/>
-      <c r="C237" s="0"/>
-      <c r="D237" s="0"/>
-      <c r="E237" s="0"/>
-      <c r="F237" s="0"/>
-      <c r="G237" s="0"/>
-      <c r="H237" s="0"/>
-      <c r="I237" s="0"/>
-      <c r="J237" s="0"/>
-      <c r="K237" s="0"/>
-      <c r="L237" s="0"/>
-      <c r="M237" s="4"/>
-      <c r="N237" s="0"/>
-      <c r="O237" s="0"/>
-      <c r="P237" s="0"/>
-      <c r="Q237" s="0"/>
-      <c r="R237" s="0"/>
-      <c r="S237" s="0"/>
-      <c r="T237" s="0"/>
-      <c r="U237" s="4"/>
-      <c r="V237" s="0"/>
-      <c r="W237" s="0"/>
-      <c r="X237" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y237" s="0"/>
-      <c r="Z237" s="0"/>
-      <c r="AA237" s="0"/>
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" s="0"/>
-      <c r="B238" s="0"/>
-      <c r="C238" s="0"/>
-      <c r="D238" s="0"/>
-      <c r="E238" s="0"/>
-      <c r="F238" s="0"/>
-      <c r="G238" s="0"/>
-      <c r="H238" s="0"/>
-      <c r="I238" s="0"/>
-      <c r="J238" s="0"/>
-      <c r="K238" s="0"/>
-      <c r="L238" s="0"/>
-      <c r="M238" s="4"/>
-      <c r="N238" s="0"/>
-      <c r="O238" s="0"/>
-      <c r="P238" s="0"/>
-      <c r="Q238" s="0"/>
-      <c r="R238" s="0"/>
-      <c r="S238" s="0"/>
-      <c r="T238" s="0"/>
-      <c r="U238" s="4"/>
-      <c r="V238" s="0"/>
-      <c r="W238" s="0"/>
-      <c r="X238" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY CANOLA SEED DUST &amp; ODOUR </t>
-        </is>
-      </c>
-      <c r="Y238" s="0"/>
-      <c r="Z238" s="0"/>
-      <c r="AA238" s="0"/>
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY CANOLA SEED DUST &amp; ODOUR ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="n">
@@ -18107,70 +15629,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="0"/>
-      <c r="B240" s="0"/>
-      <c r="C240" s="0"/>
-      <c r="D240" s="0"/>
-      <c r="E240" s="0"/>
-      <c r="F240" s="0"/>
-      <c r="G240" s="0"/>
-      <c r="H240" s="0"/>
-      <c r="I240" s="0"/>
-      <c r="J240" s="0"/>
-      <c r="K240" s="0"/>
-      <c r="L240" s="0"/>
-      <c r="M240" s="4"/>
-      <c r="N240" s="0"/>
-      <c r="O240" s="0"/>
-      <c r="P240" s="0"/>
-      <c r="Q240" s="0"/>
-      <c r="R240" s="0"/>
-      <c r="S240" s="0"/>
-      <c r="T240" s="0"/>
-      <c r="U240" s="4"/>
-      <c r="V240" s="0"/>
-      <c r="W240" s="0"/>
-      <c r="X240" s="0" t="inlineStr">
-        <is>
-          <t>R/DOOR TOP GASKET CUT 02'</t>
-        </is>
-      </c>
-      <c r="Y240" s="0"/>
-      <c r="Z240" s="0"/>
-      <c r="AA240" s="0"/>
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "R/DOOR TOP GASKET CUT 02'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" s="0"/>
-      <c r="B241" s="0"/>
-      <c r="C241" s="0"/>
-      <c r="D241" s="0"/>
-      <c r="E241" s="0"/>
-      <c r="F241" s="0"/>
-      <c r="G241" s="0"/>
-      <c r="H241" s="0"/>
-      <c r="I241" s="0"/>
-      <c r="J241" s="0"/>
-      <c r="K241" s="0"/>
-      <c r="L241" s="0"/>
-      <c r="M241" s="4"/>
-      <c r="N241" s="0"/>
-      <c r="O241" s="0"/>
-      <c r="P241" s="0"/>
-      <c r="Q241" s="0"/>
-      <c r="R241" s="0"/>
-      <c r="S241" s="0"/>
-      <c r="T241" s="0"/>
-      <c r="U241" s="4"/>
-      <c r="V241" s="0"/>
-      <c r="W241" s="0"/>
-      <c r="X241" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y241" s="0"/>
-      <c r="Z241" s="0"/>
-      <c r="AA241" s="0"/>
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="n">
@@ -18397,136 +15877,52 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="0"/>
-      <c r="B244" s="0"/>
-      <c r="C244" s="0"/>
-      <c r="D244" s="0"/>
-      <c r="E244" s="0"/>
-      <c r="F244" s="0"/>
-      <c r="G244" s="0"/>
-      <c r="H244" s="0"/>
-      <c r="I244" s="0"/>
-      <c r="J244" s="0"/>
-      <c r="K244" s="0"/>
-      <c r="L244" s="0"/>
-      <c r="M244" s="4"/>
-      <c r="N244" s="0"/>
-      <c r="O244" s="0"/>
-      <c r="P244" s="0"/>
-      <c r="Q244" s="0"/>
-      <c r="R244" s="0"/>
-      <c r="S244" s="0"/>
-      <c r="T244" s="0"/>
-      <c r="U244" s="4"/>
-      <c r="V244" s="0"/>
-      <c r="W244" s="0"/>
-      <c r="X244" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCKING BAR BENT 01 PC</t>
-        </is>
-      </c>
-      <c r="Y244" s="0"/>
-      <c r="Z244" s="0"/>
-      <c r="AA244" s="0"/>
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKING BAR BENT 01 PC", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="245">
-      <c r="A245" s="0"/>
-      <c r="B245" s="0"/>
-      <c r="C245" s="0"/>
-      <c r="D245" s="0"/>
-      <c r="E245" s="0"/>
-      <c r="F245" s="0"/>
-      <c r="G245" s="0"/>
-      <c r="H245" s="0"/>
-      <c r="I245" s="0"/>
-      <c r="J245" s="0"/>
-      <c r="K245" s="0"/>
-      <c r="L245" s="0"/>
-      <c r="M245" s="4"/>
-      <c r="N245" s="0"/>
-      <c r="O245" s="0"/>
-      <c r="P245" s="0"/>
-      <c r="Q245" s="0"/>
-      <c r="R245" s="0"/>
-      <c r="S245" s="0"/>
-      <c r="T245" s="0"/>
-      <c r="U245" s="4"/>
-      <c r="V245" s="0"/>
-      <c r="W245" s="0"/>
-      <c r="X245" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y245" s="0"/>
-      <c r="Z245" s="0"/>
-      <c r="AA245" s="0"/>
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="246">
-      <c r="A246" s="0"/>
-      <c r="B246" s="0"/>
-      <c r="C246" s="0"/>
-      <c r="D246" s="0"/>
-      <c r="E246" s="0"/>
-      <c r="F246" s="0"/>
-      <c r="G246" s="0"/>
-      <c r="H246" s="0"/>
-      <c r="I246" s="0"/>
-      <c r="J246" s="0"/>
-      <c r="K246" s="0"/>
-      <c r="L246" s="0"/>
-      <c r="M246" s="4"/>
-      <c r="N246" s="0"/>
-      <c r="O246" s="0"/>
-      <c r="P246" s="0"/>
-      <c r="Q246" s="0"/>
-      <c r="R246" s="0"/>
-      <c r="S246" s="0"/>
-      <c r="T246" s="0"/>
-      <c r="U246" s="4"/>
-      <c r="V246" s="0"/>
-      <c r="W246" s="0"/>
-      <c r="X246" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y246" s="0"/>
-      <c r="Z246" s="0"/>
-      <c r="AA246" s="0"/>
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" s="0"/>
-      <c r="B247" s="0"/>
-      <c r="C247" s="0"/>
-      <c r="D247" s="0"/>
-      <c r="E247" s="0"/>
-      <c r="F247" s="0"/>
-      <c r="G247" s="0"/>
-      <c r="H247" s="0"/>
-      <c r="I247" s="0"/>
-      <c r="J247" s="0"/>
-      <c r="K247" s="0"/>
-      <c r="L247" s="0"/>
-      <c r="M247" s="4"/>
-      <c r="N247" s="0"/>
-      <c r="O247" s="0"/>
-      <c r="P247" s="0"/>
-      <c r="Q247" s="0"/>
-      <c r="R247" s="0"/>
-      <c r="S247" s="0"/>
-      <c r="T247" s="0"/>
-      <c r="U247" s="4"/>
-      <c r="V247" s="0"/>
-      <c r="W247" s="0"/>
-      <c r="X247" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y247" s="0"/>
-      <c r="Z247" s="0"/>
-      <c r="AA247" s="0"/>
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="n">
@@ -18641,37 +16037,16 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="0"/>
-      <c r="B249" s="0"/>
-      <c r="C249" s="0"/>
-      <c r="D249" s="0"/>
-      <c r="E249" s="0"/>
-      <c r="F249" s="0"/>
-      <c r="G249" s="0"/>
-      <c r="H249" s="0"/>
-      <c r="I249" s="0"/>
-      <c r="J249" s="0"/>
-      <c r="K249" s="0"/>
-      <c r="L249" s="0"/>
-      <c r="M249" s="4"/>
-      <c r="N249" s="0"/>
-      <c r="O249" s="0"/>
-      <c r="P249" s="0"/>
-      <c r="Q249" s="0"/>
-      <c r="R249" s="0"/>
-      <c r="S249" s="0"/>
-      <c r="T249" s="0"/>
-      <c r="U249" s="4"/>
-      <c r="V249" s="0"/>
-      <c r="W249" s="0"/>
-      <c r="X249" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST .</t>
-        </is>
-      </c>
-      <c r="Y249" s="0"/>
-      <c r="Z249" s="0"/>
-      <c r="AA249" s="0"/>
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="n">
@@ -18786,103 +16161,40 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="0"/>
-      <c r="B251" s="0"/>
-      <c r="C251" s="0"/>
-      <c r="D251" s="0"/>
-      <c r="E251" s="0"/>
-      <c r="F251" s="0"/>
-      <c r="G251" s="0"/>
-      <c r="H251" s="0"/>
-      <c r="I251" s="0"/>
-      <c r="J251" s="0"/>
-      <c r="K251" s="0"/>
-      <c r="L251" s="0"/>
-      <c r="M251" s="4"/>
-      <c r="N251" s="0"/>
-      <c r="O251" s="0"/>
-      <c r="P251" s="0"/>
-      <c r="Q251" s="0"/>
-      <c r="R251" s="0"/>
-      <c r="S251" s="0"/>
-      <c r="T251" s="0"/>
-      <c r="U251" s="4"/>
-      <c r="V251" s="0"/>
-      <c r="W251" s="0"/>
-      <c r="X251" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y251" s="0"/>
-      <c r="Z251" s="0"/>
-      <c r="AA251" s="0"/>
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="252">
-      <c r="A252" s="0"/>
-      <c r="B252" s="0"/>
-      <c r="C252" s="0"/>
-      <c r="D252" s="0"/>
-      <c r="E252" s="0"/>
-      <c r="F252" s="0"/>
-      <c r="G252" s="0"/>
-      <c r="H252" s="0"/>
-      <c r="I252" s="0"/>
-      <c r="J252" s="0"/>
-      <c r="K252" s="0"/>
-      <c r="L252" s="0"/>
-      <c r="M252" s="4"/>
-      <c r="N252" s="0"/>
-      <c r="O252" s="0"/>
-      <c r="P252" s="0"/>
-      <c r="Q252" s="0"/>
-      <c r="R252" s="0"/>
-      <c r="S252" s="0"/>
-      <c r="T252" s="0"/>
-      <c r="U252" s="4"/>
-      <c r="V252" s="0"/>
-      <c r="W252" s="0"/>
-      <c r="X252" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR GASKET BENT 30'</t>
-        </is>
-      </c>
-      <c r="Y252" s="0"/>
-      <c r="Z252" s="0"/>
-      <c r="AA252" s="0"/>
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR GASKET BENT 30'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="253">
-      <c r="A253" s="0"/>
-      <c r="B253" s="0"/>
-      <c r="C253" s="0"/>
-      <c r="D253" s="0"/>
-      <c r="E253" s="0"/>
-      <c r="F253" s="0"/>
-      <c r="G253" s="0"/>
-      <c r="H253" s="0"/>
-      <c r="I253" s="0"/>
-      <c r="J253" s="0"/>
-      <c r="K253" s="0"/>
-      <c r="L253" s="0"/>
-      <c r="M253" s="4"/>
-      <c r="N253" s="0"/>
-      <c r="O253" s="0"/>
-      <c r="P253" s="0"/>
-      <c r="Q253" s="0"/>
-      <c r="R253" s="0"/>
-      <c r="S253" s="0"/>
-      <c r="T253" s="0"/>
-      <c r="U253" s="4"/>
-      <c r="V253" s="0"/>
-      <c r="W253" s="0"/>
-      <c r="X253" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y253" s="0"/>
-      <c r="Z253" s="0"/>
-      <c r="AA253" s="0"/>
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="n">
@@ -18997,37 +16309,16 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="0"/>
-      <c r="B255" s="0"/>
-      <c r="C255" s="0"/>
-      <c r="D255" s="0"/>
-      <c r="E255" s="0"/>
-      <c r="F255" s="0"/>
-      <c r="G255" s="0"/>
-      <c r="H255" s="0"/>
-      <c r="I255" s="0"/>
-      <c r="J255" s="0"/>
-      <c r="K255" s="0"/>
-      <c r="L255" s="0"/>
-      <c r="M255" s="4"/>
-      <c r="N255" s="0"/>
-      <c r="O255" s="0"/>
-      <c r="P255" s="0"/>
-      <c r="Q255" s="0"/>
-      <c r="R255" s="0"/>
-      <c r="S255" s="0"/>
-      <c r="T255" s="0"/>
-      <c r="U255" s="4"/>
-      <c r="V255" s="0"/>
-      <c r="W255" s="0"/>
-      <c r="X255" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY .</t>
-        </is>
-      </c>
-      <c r="Y255" s="0"/>
-      <c r="Z255" s="0"/>
-      <c r="AA255" s="0"/>
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="n">
@@ -19142,37 +16433,16 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="0"/>
-      <c r="B257" s="0"/>
-      <c r="C257" s="0"/>
-      <c r="D257" s="0"/>
-      <c r="E257" s="0"/>
-      <c r="F257" s="0"/>
-      <c r="G257" s="0"/>
-      <c r="H257" s="0"/>
-      <c r="I257" s="0"/>
-      <c r="J257" s="0"/>
-      <c r="K257" s="0"/>
-      <c r="L257" s="0"/>
-      <c r="M257" s="4"/>
-      <c r="N257" s="0"/>
-      <c r="O257" s="0"/>
-      <c r="P257" s="0"/>
-      <c r="Q257" s="0"/>
-      <c r="R257" s="0"/>
-      <c r="S257" s="0"/>
-      <c r="T257" s="0"/>
-      <c r="U257" s="4"/>
-      <c r="V257" s="0"/>
-      <c r="W257" s="0"/>
-      <c r="X257" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY CANOLA SEEDS DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y257" s="0"/>
-      <c r="Z257" s="0"/>
-      <c r="AA257" s="0"/>
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY CANOLA SEEDS DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="n">
@@ -19287,37 +16557,16 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="0"/>
-      <c r="B259" s="0"/>
-      <c r="C259" s="0"/>
-      <c r="D259" s="0"/>
-      <c r="E259" s="0"/>
-      <c r="F259" s="0"/>
-      <c r="G259" s="0"/>
-      <c r="H259" s="0"/>
-      <c r="I259" s="0"/>
-      <c r="J259" s="0"/>
-      <c r="K259" s="0"/>
-      <c r="L259" s="0"/>
-      <c r="M259" s="4"/>
-      <c r="N259" s="0"/>
-      <c r="O259" s="0"/>
-      <c r="P259" s="0"/>
-      <c r="Q259" s="0"/>
-      <c r="R259" s="0"/>
-      <c r="S259" s="0"/>
-      <c r="T259" s="0"/>
-      <c r="U259" s="4"/>
-      <c r="V259" s="0"/>
-      <c r="W259" s="0"/>
-      <c r="X259" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y259" s="0"/>
-      <c r="Z259" s="0"/>
-      <c r="AA259" s="0"/>
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="n">
@@ -19432,37 +16681,16 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="0"/>
-      <c r="B261" s="0"/>
-      <c r="C261" s="0"/>
-      <c r="D261" s="0"/>
-      <c r="E261" s="0"/>
-      <c r="F261" s="0"/>
-      <c r="G261" s="0"/>
-      <c r="H261" s="0"/>
-      <c r="I261" s="0"/>
-      <c r="J261" s="0"/>
-      <c r="K261" s="0"/>
-      <c r="L261" s="0"/>
-      <c r="M261" s="4"/>
-      <c r="N261" s="0"/>
-      <c r="O261" s="0"/>
-      <c r="P261" s="0"/>
-      <c r="Q261" s="0"/>
-      <c r="R261" s="0"/>
-      <c r="S261" s="0"/>
-      <c r="T261" s="0"/>
-      <c r="U261" s="4"/>
-      <c r="V261" s="0"/>
-      <c r="W261" s="0"/>
-      <c r="X261" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST</t>
-        </is>
-      </c>
-      <c r="Y261" s="0"/>
-      <c r="Z261" s="0"/>
-      <c r="AA261" s="0"/>
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="n">
@@ -19577,37 +16805,16 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="0"/>
-      <c r="B263" s="0"/>
-      <c r="C263" s="0"/>
-      <c r="D263" s="0"/>
-      <c r="E263" s="0"/>
-      <c r="F263" s="0"/>
-      <c r="G263" s="0"/>
-      <c r="H263" s="0"/>
-      <c r="I263" s="0"/>
-      <c r="J263" s="0"/>
-      <c r="K263" s="0"/>
-      <c r="L263" s="0"/>
-      <c r="M263" s="4"/>
-      <c r="N263" s="0"/>
-      <c r="O263" s="0"/>
-      <c r="P263" s="0"/>
-      <c r="Q263" s="0"/>
-      <c r="R263" s="0"/>
-      <c r="S263" s="0"/>
-      <c r="T263" s="0"/>
-      <c r="U263" s="4"/>
-      <c r="V263" s="0"/>
-      <c r="W263" s="0"/>
-      <c r="X263" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y263" s="0"/>
-      <c r="Z263" s="0"/>
-      <c r="AA263" s="0"/>
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="n">
@@ -19722,37 +16929,16 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="0"/>
-      <c r="B265" s="0"/>
-      <c r="C265" s="0"/>
-      <c r="D265" s="0"/>
-      <c r="E265" s="0"/>
-      <c r="F265" s="0"/>
-      <c r="G265" s="0"/>
-      <c r="H265" s="0"/>
-      <c r="I265" s="0"/>
-      <c r="J265" s="0"/>
-      <c r="K265" s="0"/>
-      <c r="L265" s="0"/>
-      <c r="M265" s="4"/>
-      <c r="N265" s="0"/>
-      <c r="O265" s="0"/>
-      <c r="P265" s="0"/>
-      <c r="Q265" s="0"/>
-      <c r="R265" s="0"/>
-      <c r="S265" s="0"/>
-      <c r="T265" s="0"/>
-      <c r="U265" s="4"/>
-      <c r="V265" s="0"/>
-      <c r="W265" s="0"/>
-      <c r="X265" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y265" s="0"/>
-      <c r="Z265" s="0"/>
-      <c r="AA265" s="0"/>
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="n">
@@ -19867,37 +17053,16 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="0"/>
-      <c r="B267" s="0"/>
-      <c r="C267" s="0"/>
-      <c r="D267" s="0"/>
-      <c r="E267" s="0"/>
-      <c r="F267" s="0"/>
-      <c r="G267" s="0"/>
-      <c r="H267" s="0"/>
-      <c r="I267" s="0"/>
-      <c r="J267" s="0"/>
-      <c r="K267" s="0"/>
-      <c r="L267" s="0"/>
-      <c r="M267" s="4"/>
-      <c r="N267" s="0"/>
-      <c r="O267" s="0"/>
-      <c r="P267" s="0"/>
-      <c r="Q267" s="0"/>
-      <c r="R267" s="0"/>
-      <c r="S267" s="0"/>
-      <c r="T267" s="0"/>
-      <c r="U267" s="4"/>
-      <c r="V267" s="0"/>
-      <c r="W267" s="0"/>
-      <c r="X267" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y267" s="0"/>
-      <c r="Z267" s="0"/>
-      <c r="AA267" s="0"/>
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="n">
@@ -20012,37 +17177,16 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="0"/>
-      <c r="B269" s="0"/>
-      <c r="C269" s="0"/>
-      <c r="D269" s="0"/>
-      <c r="E269" s="0"/>
-      <c r="F269" s="0"/>
-      <c r="G269" s="0"/>
-      <c r="H269" s="0"/>
-      <c r="I269" s="0"/>
-      <c r="J269" s="0"/>
-      <c r="K269" s="0"/>
-      <c r="L269" s="0"/>
-      <c r="M269" s="4"/>
-      <c r="N269" s="0"/>
-      <c r="O269" s="0"/>
-      <c r="P269" s="0"/>
-      <c r="Q269" s="0"/>
-      <c r="R269" s="0"/>
-      <c r="S269" s="0"/>
-      <c r="T269" s="0"/>
-      <c r="U269" s="4"/>
-      <c r="V269" s="0"/>
-      <c r="W269" s="0"/>
-      <c r="X269" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY COTTON DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y269" s="0"/>
-      <c r="Z269" s="0"/>
-      <c r="AA269" s="0"/>
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY COTTON DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="n">
@@ -20157,70 +17301,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="0"/>
-      <c r="B271" s="0"/>
-      <c r="C271" s="0"/>
-      <c r="D271" s="0"/>
-      <c r="E271" s="0"/>
-      <c r="F271" s="0"/>
-      <c r="G271" s="0"/>
-      <c r="H271" s="0"/>
-      <c r="I271" s="0"/>
-      <c r="J271" s="0"/>
-      <c r="K271" s="0"/>
-      <c r="L271" s="0"/>
-      <c r="M271" s="4"/>
-      <c r="N271" s="0"/>
-      <c r="O271" s="0"/>
-      <c r="P271" s="0"/>
-      <c r="Q271" s="0"/>
-      <c r="R271" s="0"/>
-      <c r="S271" s="0"/>
-      <c r="T271" s="0"/>
-      <c r="U271" s="4"/>
-      <c r="V271" s="0"/>
-      <c r="W271" s="0"/>
-      <c r="X271" s="0" t="inlineStr">
-        <is>
-          <t>F/B BROKEN HOLE 24'X16' .</t>
-        </is>
-      </c>
-      <c r="Y271" s="0"/>
-      <c r="Z271" s="0"/>
-      <c r="AA271" s="0"/>
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B BROKEN HOLE 24'X16' .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="272">
-      <c r="A272" s="0"/>
-      <c r="B272" s="0"/>
-      <c r="C272" s="0"/>
-      <c r="D272" s="0"/>
-      <c r="E272" s="0"/>
-      <c r="F272" s="0"/>
-      <c r="G272" s="0"/>
-      <c r="H272" s="0"/>
-      <c r="I272" s="0"/>
-      <c r="J272" s="0"/>
-      <c r="K272" s="0"/>
-      <c r="L272" s="0"/>
-      <c r="M272" s="4"/>
-      <c r="N272" s="0"/>
-      <c r="O272" s="0"/>
-      <c r="P272" s="0"/>
-      <c r="Q272" s="0"/>
-      <c r="R272" s="0"/>
-      <c r="S272" s="0"/>
-      <c r="T272" s="0"/>
-      <c r="U272" s="4"/>
-      <c r="V272" s="0"/>
-      <c r="W272" s="0"/>
-      <c r="X272" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY COTTON DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y272" s="0"/>
-      <c r="Z272" s="0"/>
-      <c r="AA272" s="0"/>
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY COTTON DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="n">
@@ -20335,37 +17437,16 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="0"/>
-      <c r="B274" s="0"/>
-      <c r="C274" s="0"/>
-      <c r="D274" s="0"/>
-      <c r="E274" s="0"/>
-      <c r="F274" s="0"/>
-      <c r="G274" s="0"/>
-      <c r="H274" s="0"/>
-      <c r="I274" s="0"/>
-      <c r="J274" s="0"/>
-      <c r="K274" s="0"/>
-      <c r="L274" s="0"/>
-      <c r="M274" s="4"/>
-      <c r="N274" s="0"/>
-      <c r="O274" s="0"/>
-      <c r="P274" s="0"/>
-      <c r="Q274" s="0"/>
-      <c r="R274" s="0"/>
-      <c r="S274" s="0"/>
-      <c r="T274" s="0"/>
-      <c r="U274" s="4"/>
-      <c r="V274" s="0"/>
-      <c r="W274" s="0"/>
-      <c r="X274" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y274" s="0"/>
-      <c r="Z274" s="0"/>
-      <c r="AA274" s="0"/>
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY COTTON DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="n">
@@ -20480,37 +17561,16 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="0"/>
-      <c r="B276" s="0"/>
-      <c r="C276" s="0"/>
-      <c r="D276" s="0"/>
-      <c r="E276" s="0"/>
-      <c r="F276" s="0"/>
-      <c r="G276" s="0"/>
-      <c r="H276" s="0"/>
-      <c r="I276" s="0"/>
-      <c r="J276" s="0"/>
-      <c r="K276" s="0"/>
-      <c r="L276" s="0"/>
-      <c r="M276" s="4"/>
-      <c r="N276" s="0"/>
-      <c r="O276" s="0"/>
-      <c r="P276" s="0"/>
-      <c r="Q276" s="0"/>
-      <c r="R276" s="0"/>
-      <c r="S276" s="0"/>
-      <c r="T276" s="0"/>
-      <c r="U276" s="4"/>
-      <c r="V276" s="0"/>
-      <c r="W276" s="0"/>
-      <c r="X276" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y276" s="0"/>
-      <c r="Z276" s="0"/>
-      <c r="AA276" s="0"/>
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="n">
@@ -21073,70 +18133,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="0"/>
-      <c r="B282" s="0"/>
-      <c r="C282" s="0"/>
-      <c r="D282" s="0"/>
-      <c r="E282" s="0"/>
-      <c r="F282" s="0"/>
-      <c r="G282" s="0"/>
-      <c r="H282" s="0"/>
-      <c r="I282" s="0"/>
-      <c r="J282" s="0"/>
-      <c r="K282" s="0"/>
-      <c r="L282" s="0"/>
-      <c r="M282" s="4"/>
-      <c r="N282" s="0"/>
-      <c r="O282" s="0"/>
-      <c r="P282" s="0"/>
-      <c r="Q282" s="0"/>
-      <c r="R282" s="0"/>
-      <c r="S282" s="0"/>
-      <c r="T282" s="0"/>
-      <c r="U282" s="4"/>
-      <c r="V282" s="0"/>
-      <c r="W282" s="0"/>
-      <c r="X282" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY POULTRY FEED DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y282" s="0"/>
-      <c r="Z282" s="0"/>
-      <c r="AA282" s="0"/>
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B282" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY POULTRY FEED DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="283">
-      <c r="A283" s="0"/>
-      <c r="B283" s="0"/>
-      <c r="C283" s="0"/>
-      <c r="D283" s="0"/>
-      <c r="E283" s="0"/>
-      <c r="F283" s="0"/>
-      <c r="G283" s="0"/>
-      <c r="H283" s="0"/>
-      <c r="I283" s="0"/>
-      <c r="J283" s="0"/>
-      <c r="K283" s="0"/>
-      <c r="L283" s="0"/>
-      <c r="M283" s="4"/>
-      <c r="N283" s="0"/>
-      <c r="O283" s="0"/>
-      <c r="P283" s="0"/>
-      <c r="Q283" s="0"/>
-      <c r="R283" s="0"/>
-      <c r="S283" s="0"/>
-      <c r="T283" s="0"/>
-      <c r="U283" s="4"/>
-      <c r="V283" s="0"/>
-      <c r="W283" s="0"/>
-      <c r="X283" s="0" t="inlineStr">
-        <is>
-          <t>FRONT SIDE PANEL CUT 06"</t>
-        </is>
-      </c>
-      <c r="Y283" s="0"/>
-      <c r="Z283" s="0"/>
-      <c r="AA283" s="0"/>
+      <c r="A283" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B283" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "FRONT SIDE PANEL CUT 06\"", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="n">
@@ -21251,37 +18269,16 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="0"/>
-      <c r="B285" s="0"/>
-      <c r="C285" s="0"/>
-      <c r="D285" s="0"/>
-      <c r="E285" s="0"/>
-      <c r="F285" s="0"/>
-      <c r="G285" s="0"/>
-      <c r="H285" s="0"/>
-      <c r="I285" s="0"/>
-      <c r="J285" s="0"/>
-      <c r="K285" s="0"/>
-      <c r="L285" s="0"/>
-      <c r="M285" s="4"/>
-      <c r="N285" s="0"/>
-      <c r="O285" s="0"/>
-      <c r="P285" s="0"/>
-      <c r="Q285" s="0"/>
-      <c r="R285" s="0"/>
-      <c r="S285" s="0"/>
-      <c r="T285" s="0"/>
-      <c r="U285" s="4"/>
-      <c r="V285" s="0"/>
-      <c r="W285" s="0"/>
-      <c r="X285" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y285" s="0"/>
-      <c r="Z285" s="0"/>
-      <c r="AA285" s="0"/>
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B285" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="n">
@@ -21396,37 +18393,16 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="0"/>
-      <c r="B287" s="0"/>
-      <c r="C287" s="0"/>
-      <c r="D287" s="0"/>
-      <c r="E287" s="0"/>
-      <c r="F287" s="0"/>
-      <c r="G287" s="0"/>
-      <c r="H287" s="0"/>
-      <c r="I287" s="0"/>
-      <c r="J287" s="0"/>
-      <c r="K287" s="0"/>
-      <c r="L287" s="0"/>
-      <c r="M287" s="4"/>
-      <c r="N287" s="0"/>
-      <c r="O287" s="0"/>
-      <c r="P287" s="0"/>
-      <c r="Q287" s="0"/>
-      <c r="R287" s="0"/>
-      <c r="S287" s="0"/>
-      <c r="T287" s="0"/>
-      <c r="U287" s="4"/>
-      <c r="V287" s="0"/>
-      <c r="W287" s="0"/>
-      <c r="X287" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST + SCRATCHED &amp; SCRAP DUST &amp; ODOUR </t>
-        </is>
-      </c>
-      <c r="Y287" s="0"/>
-      <c r="Z287" s="0"/>
-      <c r="AA287" s="0"/>
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B287" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY MUD DUST + SCRATCHED &amp; SCRAP DUST &amp; ODOUR ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="n">
@@ -21653,37 +18629,16 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="0"/>
-      <c r="B290" s="0"/>
-      <c r="C290" s="0"/>
-      <c r="D290" s="0"/>
-      <c r="E290" s="0"/>
-      <c r="F290" s="0"/>
-      <c r="G290" s="0"/>
-      <c r="H290" s="0"/>
-      <c r="I290" s="0"/>
-      <c r="J290" s="0"/>
-      <c r="K290" s="0"/>
-      <c r="L290" s="0"/>
-      <c r="M290" s="4"/>
-      <c r="N290" s="0"/>
-      <c r="O290" s="0"/>
-      <c r="P290" s="0"/>
-      <c r="Q290" s="0"/>
-      <c r="R290" s="0"/>
-      <c r="S290" s="0"/>
-      <c r="T290" s="0"/>
-      <c r="U290" s="4"/>
-      <c r="V290" s="0"/>
-      <c r="W290" s="0"/>
-      <c r="X290" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y290" s="0"/>
-      <c r="Z290" s="0"/>
-      <c r="AA290" s="0"/>
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B290" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="n">
@@ -21798,37 +18753,16 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="0"/>
-      <c r="B292" s="0"/>
-      <c r="C292" s="0"/>
-      <c r="D292" s="0"/>
-      <c r="E292" s="0"/>
-      <c r="F292" s="0"/>
-      <c r="G292" s="0"/>
-      <c r="H292" s="0"/>
-      <c r="I292" s="0"/>
-      <c r="J292" s="0"/>
-      <c r="K292" s="0"/>
-      <c r="L292" s="0"/>
-      <c r="M292" s="4"/>
-      <c r="N292" s="0"/>
-      <c r="O292" s="0"/>
-      <c r="P292" s="0"/>
-      <c r="Q292" s="0"/>
-      <c r="R292" s="0"/>
-      <c r="S292" s="0"/>
-      <c r="T292" s="0"/>
-      <c r="U292" s="4"/>
-      <c r="V292" s="0"/>
-      <c r="W292" s="0"/>
-      <c r="X292" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y292" s="0"/>
-      <c r="Z292" s="0"/>
-      <c r="AA292" s="0"/>
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B292" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="n">
@@ -22231,37 +19165,16 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="0"/>
-      <c r="B297" s="0"/>
-      <c r="C297" s="0"/>
-      <c r="D297" s="0"/>
-      <c r="E297" s="0"/>
-      <c r="F297" s="0"/>
-      <c r="G297" s="0"/>
-      <c r="H297" s="0"/>
-      <c r="I297" s="0"/>
-      <c r="J297" s="0"/>
-      <c r="K297" s="0"/>
-      <c r="L297" s="0"/>
-      <c r="M297" s="4"/>
-      <c r="N297" s="0"/>
-      <c r="O297" s="0"/>
-      <c r="P297" s="0"/>
-      <c r="Q297" s="0"/>
-      <c r="R297" s="0"/>
-      <c r="S297" s="0"/>
-      <c r="T297" s="0"/>
-      <c r="U297" s="4"/>
-      <c r="V297" s="0"/>
-      <c r="W297" s="0"/>
-      <c r="X297" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY.</t>
-        </is>
-      </c>
-      <c r="Y297" s="0"/>
-      <c r="Z297" s="0"/>
-      <c r="AA297" s="0"/>
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B297" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_53_.xlsx
+++ b/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_53_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:AB297"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="258.2898876404494" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1332,7 +1332,7 @@
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="64.68988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="80.08988764044946"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1802,9 +1802,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1814,9 +1860,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BROKEN DOWN 36'X36' &amp; SCREW MISSING 02 PCS", "", "", ""]</t>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BROKEN DOWN 36'X36' &amp; SCREW MISSING 02 PCS</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB10" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1826,9 +1918,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1950,9 +2088,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "R/SIDE RAIL BENT &amp; CUT 10'", "", "", ""]</t>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>RAILS-(RAILS)</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>R/SIDE RAIL BENT &amp; CUT 10'</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1962,9 +2146,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "L/SIDE RAIL BENT &amp; CUT 10'", "", "", ""]</t>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>RAILS-(RAILS)</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>L/SIDE RAIL BENT &amp; CUT 10'</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1974,9 +2204,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2098,9 +2374,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY CANOLA SEEDS DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY CANOLA SEEDS DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2222,9 +2544,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "L/DOOR TOP GASKET CUT 02'", "", "", ""]</t>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>L/DOOR TOP GASKET CUT 02'</t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2234,9 +2602,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X20" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y20" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST .</t>
+        </is>
+      </c>
+      <c r="Z20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB20" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2358,9 +2772,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y22" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST .</t>
+        </is>
+      </c>
+      <c r="Z22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2706,9 +3166,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X26" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y26" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB26" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2830,9 +3336,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X28" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y28" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB28" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3178,9 +3730,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY PLASTIC DUST", "", "", ""]</t>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X32" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y32" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY PLASTIC DUST</t>
+        </is>
+      </c>
+      <c r="Z32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB32" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3414,9 +4012,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X35" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y35" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB35" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3426,9 +4070,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="T36" s="0"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X36" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y36" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB36" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3550,9 +4240,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X38" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y38" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB38" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3674,9 +4410,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY MUD &amp; COTTON DUST", "", "", ""]</t>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="0"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
+      <c r="R40" s="0"/>
+      <c r="S40" s="0"/>
+      <c r="T40" s="0"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="0"/>
+      <c r="W40" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X40" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y40" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD &amp; COTTON DUST</t>
+        </is>
+      </c>
+      <c r="Z40" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA40" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB40" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3886,9 +4668,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST", "", "", ""]</t>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X43" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y43" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST</t>
+        </is>
+      </c>
+      <c r="Z43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB43" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4010,9 +4838,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X45" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y45" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB45" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4134,9 +5008,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY OIL STAIN DUST", "", "", ""]</t>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X47" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y47" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY OIL STAIN DUST</t>
+        </is>
+      </c>
+      <c r="Z47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB47" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4258,9 +5178,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL CUT 03'", "", "", ""]</t>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X49" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y49" s="0" t="inlineStr">
+        <is>
+          <t>R/SIDE PANEL CUT 03'</t>
+        </is>
+      </c>
+      <c r="Z49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB49" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4270,9 +5236,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD STEEL PLATS FITTING 10'X10'+ HOLE 04'", "", "", ""]</t>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0"/>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="0"/>
+      <c r="O50" s="0"/>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="0"/>
+      <c r="S50" s="0"/>
+      <c r="T50" s="0"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="0"/>
+      <c r="W50" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X50" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y50" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD STEEL PLATS FITTING 10'X10'+ HOLE 04'</t>
+        </is>
+      </c>
+      <c r="Z50" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA50" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB50" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4282,9 +5294,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B51" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL STAIN+SCRAP DUST &amp; SCRATECHED", "", "", ""]</t>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
+      <c r="S51" s="0"/>
+      <c r="T51" s="0"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X51" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y51" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN+SCRAP DUST &amp; SCRATECHED</t>
+        </is>
+      </c>
+      <c r="Z51" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA51" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB51" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4406,9 +5464,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL  DIRTY.", "", "", ""]</t>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
+      <c r="S53" s="0"/>
+      <c r="T53" s="0"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="0"/>
+      <c r="W53" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X53" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y53" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL  DIRTY.</t>
+        </is>
+      </c>
+      <c r="Z53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB53" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4418,9 +5522,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B54" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL CUT 02'", "", "", ""]</t>
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="0"/>
+      <c r="O54" s="0"/>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="0"/>
+      <c r="S54" s="0"/>
+      <c r="T54" s="0"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="0"/>
+      <c r="W54" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X54" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y54" s="0" t="inlineStr">
+        <is>
+          <t>R/SIDE PANEL CUT 02'</t>
+        </is>
+      </c>
+      <c r="Z54" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA54" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB54" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4430,9 +5580,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B55" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL STAIN+SCRAP DUST &amp; SCRATECHED", "", "", ""]</t>
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="0"/>
+      <c r="L55" s="0"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="0"/>
+      <c r="O55" s="0"/>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="0"/>
+      <c r="S55" s="0"/>
+      <c r="T55" s="0"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="0"/>
+      <c r="W55" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X55" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y55" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN+SCRAP DUST &amp; SCRATECHED</t>
+        </is>
+      </c>
+      <c r="Z55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB55" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4666,9 +5862,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X58" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y58" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB58" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4790,9 +6032,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B60" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY OIL STAIN &amp; MUD DUST.", "", "", ""]</t>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="0"/>
+      <c r="O60" s="0"/>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+      <c r="R60" s="0"/>
+      <c r="S60" s="0"/>
+      <c r="T60" s="0"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="0"/>
+      <c r="W60" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X60" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y60" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY OIL STAIN &amp; MUD DUST.</t>
+        </is>
+      </c>
+      <c r="Z60" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA60" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB60" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4914,9 +6202,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B62" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY TYER MARK,BLACK STAIN,DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="0"/>
+      <c r="O62" s="0"/>
+      <c r="P62" s="0"/>
+      <c r="Q62" s="0"/>
+      <c r="R62" s="0"/>
+      <c r="S62" s="0"/>
+      <c r="T62" s="0"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="0"/>
+      <c r="W62" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X62" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y62" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY TYER MARK,BLACK STAIN,DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z62" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA62" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB62" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5038,9 +6372,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B64" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
+      <c r="S64" s="0"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X64" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y64" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST .</t>
+        </is>
+      </c>
+      <c r="Z64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB64" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5274,9 +6654,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B67" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD DUST &amp; SCRAP + SCRATCHED", "", "", ""]</t>
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+      <c r="L67" s="0"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="0"/>
+      <c r="O67" s="0"/>
+      <c r="P67" s="0"/>
+      <c r="Q67" s="0"/>
+      <c r="R67" s="0"/>
+      <c r="S67" s="0"/>
+      <c r="T67" s="0"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="0"/>
+      <c r="W67" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X67" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y67" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD DUST &amp; SCRAP + SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z67" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA67" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB67" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5398,9 +6824,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY CANOLA SEEDS DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="0"/>
+      <c r="O69" s="0"/>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
+      <c r="S69" s="0"/>
+      <c r="T69" s="0"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X69" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y69" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY CANOLA SEEDS DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB69" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5522,9 +6994,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B71" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL NO-10 CUT &amp; HOLE 10'X02'.", "", "", ""]</t>
+      <c r="B71" s="0"/>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+      <c r="G71" s="0"/>
+      <c r="H71" s="0"/>
+      <c r="I71" s="0"/>
+      <c r="J71" s="0"/>
+      <c r="K71" s="0"/>
+      <c r="L71" s="0"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
+      <c r="P71" s="0"/>
+      <c r="Q71" s="0"/>
+      <c r="R71" s="0"/>
+      <c r="S71" s="0"/>
+      <c r="T71" s="0"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="0"/>
+      <c r="W71" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X71" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y71" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL NO-10 CUT &amp; HOLE 10'X02'.</t>
+        </is>
+      </c>
+      <c r="Z71" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA71" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB71" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5534,9 +7052,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B72" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SCRATCHED,BADLY SCRAP DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
+      <c r="I72" s="0"/>
+      <c r="J72" s="0"/>
+      <c r="K72" s="0"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="0"/>
+      <c r="O72" s="0"/>
+      <c r="P72" s="0"/>
+      <c r="Q72" s="0"/>
+      <c r="R72" s="0"/>
+      <c r="S72" s="0"/>
+      <c r="T72" s="0"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="0"/>
+      <c r="W72" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X72" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y72" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY SCRATCHED,BADLY SCRAP DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB72" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5658,9 +7222,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B74" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SCRACHED &amp; SCRAP  DUST .", "", "", ""]</t>
+      <c r="B74" s="0"/>
+      <c r="C74" s="0"/>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
+      <c r="F74" s="0"/>
+      <c r="G74" s="0"/>
+      <c r="H74" s="0"/>
+      <c r="I74" s="0"/>
+      <c r="J74" s="0"/>
+      <c r="K74" s="0"/>
+      <c r="L74" s="0"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="0"/>
+      <c r="O74" s="0"/>
+      <c r="P74" s="0"/>
+      <c r="Q74" s="0"/>
+      <c r="R74" s="0"/>
+      <c r="S74" s="0"/>
+      <c r="T74" s="0"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="0"/>
+      <c r="W74" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X74" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y74" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY SCRACHED &amp; SCRAP  DUST .</t>
+        </is>
+      </c>
+      <c r="Z74" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA74" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB74" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5782,9 +7392,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCK BAR BENT 02 PCS.(DOOR NOT CLOSE)", "", "", ""]</t>
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0"/>
+      <c r="H76" s="0"/>
+      <c r="I76" s="0"/>
+      <c r="J76" s="0"/>
+      <c r="K76" s="0"/>
+      <c r="L76" s="0"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="0"/>
+      <c r="O76" s="0"/>
+      <c r="P76" s="0"/>
+      <c r="Q76" s="0"/>
+      <c r="R76" s="0"/>
+      <c r="S76" s="0"/>
+      <c r="T76" s="0"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="0"/>
+      <c r="W76" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X76" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y76" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCK BAR BENT 02 PCS.(DOOR NOT CLOSE)</t>
+        </is>
+      </c>
+      <c r="Z76" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA76" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB76" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5794,9 +7450,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SCRATCHGED &amp; SCRAP DUST .", "", "", ""]</t>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0"/>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
+      <c r="S77" s="0"/>
+      <c r="T77" s="0"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="0"/>
+      <c r="W77" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X77" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y77" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SCRATCHGED &amp; SCRAP DUST .</t>
+        </is>
+      </c>
+      <c r="Z77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB77" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5918,9 +7620,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY MUD DUST ", "", "", ""]</t>
+      <c r="B79" s="0"/>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
+      <c r="H79" s="0"/>
+      <c r="I79" s="0"/>
+      <c r="J79" s="0"/>
+      <c r="K79" s="0"/>
+      <c r="L79" s="0"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="0"/>
+      <c r="O79" s="0"/>
+      <c r="P79" s="0"/>
+      <c r="Q79" s="0"/>
+      <c r="R79" s="0"/>
+      <c r="S79" s="0"/>
+      <c r="T79" s="0"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="0"/>
+      <c r="W79" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X79" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y79" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY MUD DUST </t>
+        </is>
+      </c>
+      <c r="Z79" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA79" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB79" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6154,9 +7902,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B82" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "BOTH DOOR GASKET AREA BADLY RUSTED CORROSION", "", "", ""]</t>
+      <c r="B82" s="0"/>
+      <c r="C82" s="0"/>
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
+      <c r="F82" s="0"/>
+      <c r="G82" s="0"/>
+      <c r="H82" s="0"/>
+      <c r="I82" s="0"/>
+      <c r="J82" s="0"/>
+      <c r="K82" s="0"/>
+      <c r="L82" s="0"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="0"/>
+      <c r="O82" s="0"/>
+      <c r="P82" s="0"/>
+      <c r="Q82" s="0"/>
+      <c r="R82" s="0"/>
+      <c r="S82" s="0"/>
+      <c r="T82" s="0"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="0"/>
+      <c r="W82" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X82" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y82" s="0" t="inlineStr">
+        <is>
+          <t>BOTH DOOR GASKET AREA BADLY RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z82" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA82" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB82" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6166,9 +7960,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B83" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; BADLY RUSTED CORROSION", "", "", ""]</t>
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
+      <c r="S83" s="0"/>
+      <c r="T83" s="0"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="0"/>
+      <c r="W83" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X83" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y83" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; BADLY RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB83" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6178,9 +8018,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B84" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION BADLY.", "", "", ""]</t>
+      <c r="B84" s="0"/>
+      <c r="C84" s="0"/>
+      <c r="D84" s="0"/>
+      <c r="E84" s="0"/>
+      <c r="F84" s="0"/>
+      <c r="G84" s="0"/>
+      <c r="H84" s="0"/>
+      <c r="I84" s="0"/>
+      <c r="J84" s="0"/>
+      <c r="K84" s="0"/>
+      <c r="L84" s="0"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="0"/>
+      <c r="O84" s="0"/>
+      <c r="P84" s="0"/>
+      <c r="Q84" s="0"/>
+      <c r="R84" s="0"/>
+      <c r="S84" s="0"/>
+      <c r="T84" s="0"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="0"/>
+      <c r="W84" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X84" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y84" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION BADLY.</t>
+        </is>
+      </c>
+      <c r="Z84" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA84" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB84" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6190,9 +8076,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B85" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD SCREW MISSING 04 PCS &amp; SCRATCHED AT V/P", "", "", ""]</t>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="0"/>
+      <c r="J85" s="0"/>
+      <c r="K85" s="0"/>
+      <c r="L85" s="0"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+      <c r="R85" s="0"/>
+      <c r="S85" s="0"/>
+      <c r="T85" s="0"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="0"/>
+      <c r="W85" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X85" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y85" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD SCREW MISSING 04 PCS &amp; SCRATCHED AT V/P</t>
+        </is>
+      </c>
+      <c r="Z85" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA85" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB85" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6202,9 +8134,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B86" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY OIL STAIN &amp; BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B86" s="0"/>
+      <c r="C86" s="0"/>
+      <c r="D86" s="0"/>
+      <c r="E86" s="0"/>
+      <c r="F86" s="0"/>
+      <c r="G86" s="0"/>
+      <c r="H86" s="0"/>
+      <c r="I86" s="0"/>
+      <c r="J86" s="0"/>
+      <c r="K86" s="0"/>
+      <c r="L86" s="0"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="0"/>
+      <c r="O86" s="0"/>
+      <c r="P86" s="0"/>
+      <c r="Q86" s="0"/>
+      <c r="R86" s="0"/>
+      <c r="S86" s="0"/>
+      <c r="T86" s="0"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="0"/>
+      <c r="W86" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X86" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y86" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN &amp; BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z86" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA86" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB86" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6438,9 +8416,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B89" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; DUST", "", "", ""]</t>
+      <c r="B89" s="0"/>
+      <c r="C89" s="0"/>
+      <c r="D89" s="0"/>
+      <c r="E89" s="0"/>
+      <c r="F89" s="0"/>
+      <c r="G89" s="0"/>
+      <c r="H89" s="0"/>
+      <c r="I89" s="0"/>
+      <c r="J89" s="0"/>
+      <c r="K89" s="0"/>
+      <c r="L89" s="0"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="0"/>
+      <c r="O89" s="0"/>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="0"/>
+      <c r="R89" s="0"/>
+      <c r="S89" s="0"/>
+      <c r="T89" s="0"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="0"/>
+      <c r="W89" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X89" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y89" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BLACK STAIN &amp; DUST</t>
+        </is>
+      </c>
+      <c r="Z89" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA89" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB89" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6674,9 +8698,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B92" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY OIL STAIN &amp; BADLY SCRATCHED.", "", "", ""]</t>
+      <c r="B92" s="0"/>
+      <c r="C92" s="0"/>
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="0"/>
+      <c r="O92" s="0"/>
+      <c r="P92" s="0"/>
+      <c r="Q92" s="0"/>
+      <c r="R92" s="0"/>
+      <c r="S92" s="0"/>
+      <c r="T92" s="0"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="0"/>
+      <c r="W92" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X92" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y92" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY OIL STAIN &amp; BADLY SCRATCHED.</t>
+        </is>
+      </c>
+      <c r="Z92" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA92" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB92" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7022,9 +9092,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B96" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; MUD DUST &amp; TYRE MARK", "", "", ""]</t>
+      <c r="B96" s="0"/>
+      <c r="C96" s="0"/>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="0"/>
+      <c r="H96" s="0"/>
+      <c r="I96" s="0"/>
+      <c r="J96" s="0"/>
+      <c r="K96" s="0"/>
+      <c r="L96" s="0"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="0"/>
+      <c r="O96" s="0"/>
+      <c r="P96" s="0"/>
+      <c r="Q96" s="0"/>
+      <c r="R96" s="0"/>
+      <c r="S96" s="0"/>
+      <c r="T96" s="0"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="0"/>
+      <c r="W96" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X96" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y96" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD OIL SPOT &amp; MUD DUST &amp; TYRE MARK</t>
+        </is>
+      </c>
+      <c r="Z96" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA96" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB96" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7146,9 +9262,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B98" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  BLACK STAIN, DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B98" s="0"/>
+      <c r="C98" s="0"/>
+      <c r="D98" s="0"/>
+      <c r="E98" s="0"/>
+      <c r="F98" s="0"/>
+      <c r="G98" s="0"/>
+      <c r="H98" s="0"/>
+      <c r="I98" s="0"/>
+      <c r="J98" s="0"/>
+      <c r="K98" s="0"/>
+      <c r="L98" s="0"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="0"/>
+      <c r="O98" s="0"/>
+      <c r="P98" s="0"/>
+      <c r="Q98" s="0"/>
+      <c r="R98" s="0"/>
+      <c r="S98" s="0"/>
+      <c r="T98" s="0"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="0"/>
+      <c r="W98" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X98" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y98" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY  BLACK STAIN, DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z98" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA98" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB98" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7382,9 +9544,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B101" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "L/DOOR  ( D/NOT CLOOSED).", "", "", ""]</t>
+      <c r="B101" s="0"/>
+      <c r="C101" s="0"/>
+      <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
+      <c r="F101" s="0"/>
+      <c r="G101" s="0"/>
+      <c r="H101" s="0"/>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
+      <c r="K101" s="0"/>
+      <c r="L101" s="0"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="0"/>
+      <c r="O101" s="0"/>
+      <c r="P101" s="0"/>
+      <c r="Q101" s="0"/>
+      <c r="R101" s="0"/>
+      <c r="S101" s="0"/>
+      <c r="T101" s="0"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="0"/>
+      <c r="W101" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X101" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y101" s="0" t="inlineStr">
+        <is>
+          <t>L/DOOR  ( D/NOT CLOOSED).</t>
+        </is>
+      </c>
+      <c r="Z101" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA101" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB101" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7394,9 +9602,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B102" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B SCREW DOWN 02 PCS &amp; F/B DOWN 08'X06'.", "", "", ""]</t>
+      <c r="B102" s="0"/>
+      <c r="C102" s="0"/>
+      <c r="D102" s="0"/>
+      <c r="E102" s="0"/>
+      <c r="F102" s="0"/>
+      <c r="G102" s="0"/>
+      <c r="H102" s="0"/>
+      <c r="I102" s="0"/>
+      <c r="J102" s="0"/>
+      <c r="K102" s="0"/>
+      <c r="L102" s="0"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="0"/>
+      <c r="O102" s="0"/>
+      <c r="P102" s="0"/>
+      <c r="Q102" s="0"/>
+      <c r="R102" s="0"/>
+      <c r="S102" s="0"/>
+      <c r="T102" s="0"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="0"/>
+      <c r="W102" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X102" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y102" s="0" t="inlineStr">
+        <is>
+          <t>F/B SCREW DOWN 02 PCS &amp; F/B DOWN 08'X06'.</t>
+        </is>
+      </c>
+      <c r="Z102" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA102" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB102" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7406,9 +9660,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B103" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "RAILS-(RAILS)", "Rear top rail cam keeper-(Rear top rail cam keeper)", "L/DOOR BTM RAIL BENT &amp; UP WARD 08' .", "", "", ""]</t>
+      <c r="B103" s="0"/>
+      <c r="C103" s="0"/>
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="0"/>
+      <c r="H103" s="0"/>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="0"/>
+      <c r="L103" s="0"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="0"/>
+      <c r="O103" s="0"/>
+      <c r="P103" s="0"/>
+      <c r="Q103" s="0"/>
+      <c r="R103" s="0"/>
+      <c r="S103" s="0"/>
+      <c r="T103" s="0"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="0"/>
+      <c r="W103" s="0" t="inlineStr">
+        <is>
+          <t>RAILS-(RAILS)</t>
+        </is>
+      </c>
+      <c r="X103" s="0" t="inlineStr">
+        <is>
+          <t>Rear top rail cam keeper-(Rear top rail cam keeper)</t>
+        </is>
+      </c>
+      <c r="Y103" s="0" t="inlineStr">
+        <is>
+          <t>L/DOOR BTM RAIL BENT &amp; UP WARD 08' .</t>
+        </is>
+      </c>
+      <c r="Z103" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA103" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB103" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7418,9 +9718,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B104" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B104" s="0"/>
+      <c r="C104" s="0"/>
+      <c r="D104" s="0"/>
+      <c r="E104" s="0"/>
+      <c r="F104" s="0"/>
+      <c r="G104" s="0"/>
+      <c r="H104" s="0"/>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
+      <c r="K104" s="0"/>
+      <c r="L104" s="0"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="0"/>
+      <c r="O104" s="0"/>
+      <c r="P104" s="0"/>
+      <c r="Q104" s="0"/>
+      <c r="R104" s="0"/>
+      <c r="S104" s="0"/>
+      <c r="T104" s="0"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="0"/>
+      <c r="W104" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X104" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y104" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z104" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA104" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB104" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7542,9 +9888,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B106" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BADLY OIL STAIN ,BLACK STAIN &amp; DUST.", "", "", ""]</t>
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="0"/>
+      <c r="G106" s="0"/>
+      <c r="H106" s="0"/>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
+      <c r="K106" s="0"/>
+      <c r="L106" s="0"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="0"/>
+      <c r="O106" s="0"/>
+      <c r="P106" s="0"/>
+      <c r="Q106" s="0"/>
+      <c r="R106" s="0"/>
+      <c r="S106" s="0"/>
+      <c r="T106" s="0"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="0"/>
+      <c r="W106" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X106" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y106" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BADLY OIL STAIN ,BLACK STAIN &amp; DUST.</t>
+        </is>
+      </c>
+      <c r="Z106" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA106" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB106" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7778,9 +10170,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B109" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "L/DOOR BTM GASKET INNER SIDE STRIP BENT 08' .", "", "", ""]</t>
+      <c r="B109" s="0"/>
+      <c r="C109" s="0"/>
+      <c r="D109" s="0"/>
+      <c r="E109" s="0"/>
+      <c r="F109" s="0"/>
+      <c r="G109" s="0"/>
+      <c r="H109" s="0"/>
+      <c r="I109" s="0"/>
+      <c r="J109" s="0"/>
+      <c r="K109" s="0"/>
+      <c r="L109" s="0"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="0"/>
+      <c r="O109" s="0"/>
+      <c r="P109" s="0"/>
+      <c r="Q109" s="0"/>
+      <c r="R109" s="0"/>
+      <c r="S109" s="0"/>
+      <c r="T109" s="0"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="0"/>
+      <c r="W109" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X109" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y109" s="0" t="inlineStr">
+        <is>
+          <t>L/DOOR BTM GASKET INNER SIDE STRIP BENT 08' .</t>
+        </is>
+      </c>
+      <c r="Z109" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA109" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB109" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7790,9 +10228,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B110" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY MUD+SAND ,WASTES PAPER DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B110" s="0"/>
+      <c r="C110" s="0"/>
+      <c r="D110" s="0"/>
+      <c r="E110" s="0"/>
+      <c r="F110" s="0"/>
+      <c r="G110" s="0"/>
+      <c r="H110" s="0"/>
+      <c r="I110" s="0"/>
+      <c r="J110" s="0"/>
+      <c r="K110" s="0"/>
+      <c r="L110" s="0"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="0"/>
+      <c r="O110" s="0"/>
+      <c r="P110" s="0"/>
+      <c r="Q110" s="0"/>
+      <c r="R110" s="0"/>
+      <c r="S110" s="0"/>
+      <c r="T110" s="0"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="0"/>
+      <c r="W110" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X110" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y110" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY MUD+SAND ,WASTES PAPER DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z110" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA110" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB110" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7914,9 +10398,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B112" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "B/DOOR LOCKBAR BENT 02 PCS .", "", "", ""]</t>
+      <c r="B112" s="0"/>
+      <c r="C112" s="0"/>
+      <c r="D112" s="0"/>
+      <c r="E112" s="0"/>
+      <c r="F112" s="0"/>
+      <c r="G112" s="0"/>
+      <c r="H112" s="0"/>
+      <c r="I112" s="0"/>
+      <c r="J112" s="0"/>
+      <c r="K112" s="0"/>
+      <c r="L112" s="0"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="0"/>
+      <c r="O112" s="0"/>
+      <c r="P112" s="0"/>
+      <c r="Q112" s="0"/>
+      <c r="R112" s="0"/>
+      <c r="S112" s="0"/>
+      <c r="T112" s="0"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="0"/>
+      <c r="W112" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X112" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y112" s="0" t="inlineStr">
+        <is>
+          <t>B/DOOR LOCKBAR BENT 02 PCS .</t>
+        </is>
+      </c>
+      <c r="Z112" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA112" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB112" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7926,9 +10456,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B113" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B SCREW LOOSED 13 PCS &amp; UP &amp; DOWN .", "", "", ""]</t>
+      <c r="B113" s="0"/>
+      <c r="C113" s="0"/>
+      <c r="D113" s="0"/>
+      <c r="E113" s="0"/>
+      <c r="F113" s="0"/>
+      <c r="G113" s="0"/>
+      <c r="H113" s="0"/>
+      <c r="I113" s="0"/>
+      <c r="J113" s="0"/>
+      <c r="K113" s="0"/>
+      <c r="L113" s="0"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="0"/>
+      <c r="O113" s="0"/>
+      <c r="P113" s="0"/>
+      <c r="Q113" s="0"/>
+      <c r="R113" s="0"/>
+      <c r="S113" s="0"/>
+      <c r="T113" s="0"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="0"/>
+      <c r="W113" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X113" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y113" s="0" t="inlineStr">
+        <is>
+          <t>F/B SCREW LOOSED 13 PCS &amp; UP &amp; DOWN .</t>
+        </is>
+      </c>
+      <c r="Z113" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA113" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB113" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7938,9 +10514,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B114" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DUST.", "", "", ""]</t>
+      <c r="B114" s="0"/>
+      <c r="C114" s="0"/>
+      <c r="D114" s="0"/>
+      <c r="E114" s="0"/>
+      <c r="F114" s="0"/>
+      <c r="G114" s="0"/>
+      <c r="H114" s="0"/>
+      <c r="I114" s="0"/>
+      <c r="J114" s="0"/>
+      <c r="K114" s="0"/>
+      <c r="L114" s="0"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="0"/>
+      <c r="O114" s="0"/>
+      <c r="P114" s="0"/>
+      <c r="Q114" s="0"/>
+      <c r="R114" s="0"/>
+      <c r="S114" s="0"/>
+      <c r="T114" s="0"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="0"/>
+      <c r="W114" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X114" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y114" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DUST.</t>
+        </is>
+      </c>
+      <c r="Z114" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA114" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB114" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8062,9 +10684,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B116" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SCRATCHED,TYER MARK,BLACK STAIN &amp; MUD DUST.", "", "", ""]</t>
+      <c r="B116" s="0"/>
+      <c r="C116" s="0"/>
+      <c r="D116" s="0"/>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+      <c r="G116" s="0"/>
+      <c r="H116" s="0"/>
+      <c r="I116" s="0"/>
+      <c r="J116" s="0"/>
+      <c r="K116" s="0"/>
+      <c r="L116" s="0"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="0"/>
+      <c r="O116" s="0"/>
+      <c r="P116" s="0"/>
+      <c r="Q116" s="0"/>
+      <c r="R116" s="0"/>
+      <c r="S116" s="0"/>
+      <c r="T116" s="0"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="0"/>
+      <c r="W116" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X116" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y116" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY SCRATCHED,TYER MARK,BLACK STAIN &amp; MUD DUST.</t>
+        </is>
+      </c>
+      <c r="Z116" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA116" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB116" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8186,9 +10854,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B118" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DROP OIL SPOT &amp; DUST.", "", "", ""]</t>
+      <c r="B118" s="0"/>
+      <c r="C118" s="0"/>
+      <c r="D118" s="0"/>
+      <c r="E118" s="0"/>
+      <c r="F118" s="0"/>
+      <c r="G118" s="0"/>
+      <c r="H118" s="0"/>
+      <c r="I118" s="0"/>
+      <c r="J118" s="0"/>
+      <c r="K118" s="0"/>
+      <c r="L118" s="0"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="0"/>
+      <c r="O118" s="0"/>
+      <c r="P118" s="0"/>
+      <c r="Q118" s="0"/>
+      <c r="R118" s="0"/>
+      <c r="S118" s="0"/>
+      <c r="T118" s="0"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="0"/>
+      <c r="W118" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X118" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y118" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DROP OIL SPOT &amp; DUST.</t>
+        </is>
+      </c>
+      <c r="Z118" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA118" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB118" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8310,9 +11024,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B120" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "R/DOORBTM GASKET MISSING 02' .", "", "", ""]</t>
+      <c r="B120" s="0"/>
+      <c r="C120" s="0"/>
+      <c r="D120" s="0"/>
+      <c r="E120" s="0"/>
+      <c r="F120" s="0"/>
+      <c r="G120" s="0"/>
+      <c r="H120" s="0"/>
+      <c r="I120" s="0"/>
+      <c r="J120" s="0"/>
+      <c r="K120" s="0"/>
+      <c r="L120" s="0"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="0"/>
+      <c r="O120" s="0"/>
+      <c r="P120" s="0"/>
+      <c r="Q120" s="0"/>
+      <c r="R120" s="0"/>
+      <c r="S120" s="0"/>
+      <c r="T120" s="0"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="0"/>
+      <c r="W120" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X120" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y120" s="0" t="inlineStr">
+        <is>
+          <t>R/DOORBTM GASKET MISSING 02' .</t>
+        </is>
+      </c>
+      <c r="Z120" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA120" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB120" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8322,9 +11082,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B121" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY OIL STAIN &amp; DUST .", "", "", ""]</t>
+      <c r="B121" s="0"/>
+      <c r="C121" s="0"/>
+      <c r="D121" s="0"/>
+      <c r="E121" s="0"/>
+      <c r="F121" s="0"/>
+      <c r="G121" s="0"/>
+      <c r="H121" s="0"/>
+      <c r="I121" s="0"/>
+      <c r="J121" s="0"/>
+      <c r="K121" s="0"/>
+      <c r="L121" s="0"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="0"/>
+      <c r="O121" s="0"/>
+      <c r="P121" s="0"/>
+      <c r="Q121" s="0"/>
+      <c r="R121" s="0"/>
+      <c r="S121" s="0"/>
+      <c r="T121" s="0"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="0"/>
+      <c r="W121" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X121" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y121" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY OIL STAIN &amp; DUST .</t>
+        </is>
+      </c>
+      <c r="Z121" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA121" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB121" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8446,9 +11252,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B123" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DROP OIL SPOT,SCRACHED &amp; DUST .", "", "", ""]</t>
+      <c r="B123" s="0"/>
+      <c r="C123" s="0"/>
+      <c r="D123" s="0"/>
+      <c r="E123" s="0"/>
+      <c r="F123" s="0"/>
+      <c r="G123" s="0"/>
+      <c r="H123" s="0"/>
+      <c r="I123" s="0"/>
+      <c r="J123" s="0"/>
+      <c r="K123" s="0"/>
+      <c r="L123" s="0"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="0"/>
+      <c r="O123" s="0"/>
+      <c r="P123" s="0"/>
+      <c r="Q123" s="0"/>
+      <c r="R123" s="0"/>
+      <c r="S123" s="0"/>
+      <c r="T123" s="0"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="0"/>
+      <c r="W123" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X123" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y123" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DROP OIL SPOT,SCRACHED &amp; DUST .</t>
+        </is>
+      </c>
+      <c r="Z123" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA123" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB123" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8570,9 +11422,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B125" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD SCROW MISSING &amp; HOLE 03 PLS.", "", "", ""]</t>
+      <c r="B125" s="0"/>
+      <c r="C125" s="0"/>
+      <c r="D125" s="0"/>
+      <c r="E125" s="0"/>
+      <c r="F125" s="0"/>
+      <c r="G125" s="0"/>
+      <c r="H125" s="0"/>
+      <c r="I125" s="0"/>
+      <c r="J125" s="0"/>
+      <c r="K125" s="0"/>
+      <c r="L125" s="0"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="0"/>
+      <c r="O125" s="0"/>
+      <c r="P125" s="0"/>
+      <c r="Q125" s="0"/>
+      <c r="R125" s="0"/>
+      <c r="S125" s="0"/>
+      <c r="T125" s="0"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="0"/>
+      <c r="W125" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X125" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y125" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD SCROW MISSING &amp; HOLE 03 PLS.</t>
+        </is>
+      </c>
+      <c r="Z125" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA125" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB125" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8582,9 +11480,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B126" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B126" s="0"/>
+      <c r="C126" s="0"/>
+      <c r="D126" s="0"/>
+      <c r="E126" s="0"/>
+      <c r="F126" s="0"/>
+      <c r="G126" s="0"/>
+      <c r="H126" s="0"/>
+      <c r="I126" s="0"/>
+      <c r="J126" s="0"/>
+      <c r="K126" s="0"/>
+      <c r="L126" s="0"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="0"/>
+      <c r="O126" s="0"/>
+      <c r="P126" s="0"/>
+      <c r="Q126" s="0"/>
+      <c r="R126" s="0"/>
+      <c r="S126" s="0"/>
+      <c r="T126" s="0"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="0"/>
+      <c r="W126" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X126" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y126" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z126" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA126" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB126" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8706,9 +11650,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B128" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B128" s="0"/>
+      <c r="C128" s="0"/>
+      <c r="D128" s="0"/>
+      <c r="E128" s="0"/>
+      <c r="F128" s="0"/>
+      <c r="G128" s="0"/>
+      <c r="H128" s="0"/>
+      <c r="I128" s="0"/>
+      <c r="J128" s="0"/>
+      <c r="K128" s="0"/>
+      <c r="L128" s="0"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="0"/>
+      <c r="O128" s="0"/>
+      <c r="P128" s="0"/>
+      <c r="Q128" s="0"/>
+      <c r="R128" s="0"/>
+      <c r="S128" s="0"/>
+      <c r="T128" s="0"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="0"/>
+      <c r="W128" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X128" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y128" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z128" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA128" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB128" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8830,9 +11820,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B130" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DROP OIL SPOT,CHEMICAL WATER DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B130" s="0"/>
+      <c r="C130" s="0"/>
+      <c r="D130" s="0"/>
+      <c r="E130" s="0"/>
+      <c r="F130" s="0"/>
+      <c r="G130" s="0"/>
+      <c r="H130" s="0"/>
+      <c r="I130" s="0"/>
+      <c r="J130" s="0"/>
+      <c r="K130" s="0"/>
+      <c r="L130" s="0"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="0"/>
+      <c r="O130" s="0"/>
+      <c r="P130" s="0"/>
+      <c r="Q130" s="0"/>
+      <c r="R130" s="0"/>
+      <c r="S130" s="0"/>
+      <c r="T130" s="0"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="0"/>
+      <c r="W130" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X130" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y130" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DROP OIL SPOT,CHEMICAL WATER DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z130" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA130" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB130" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9178,9 +12214,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B134" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST.", "", "", ""]</t>
+      <c r="B134" s="0"/>
+      <c r="C134" s="0"/>
+      <c r="D134" s="0"/>
+      <c r="E134" s="0"/>
+      <c r="F134" s="0"/>
+      <c r="G134" s="0"/>
+      <c r="H134" s="0"/>
+      <c r="I134" s="0"/>
+      <c r="J134" s="0"/>
+      <c r="K134" s="0"/>
+      <c r="L134" s="0"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="0"/>
+      <c r="O134" s="0"/>
+      <c r="P134" s="0"/>
+      <c r="Q134" s="0"/>
+      <c r="R134" s="0"/>
+      <c r="S134" s="0"/>
+      <c r="T134" s="0"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="0"/>
+      <c r="W134" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X134" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y134" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST.</t>
+        </is>
+      </c>
+      <c r="Z134" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA134" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB134" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9302,9 +12384,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B136" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST.", "", "", ""]</t>
+      <c r="B136" s="0"/>
+      <c r="C136" s="0"/>
+      <c r="D136" s="0"/>
+      <c r="E136" s="0"/>
+      <c r="F136" s="0"/>
+      <c r="G136" s="0"/>
+      <c r="H136" s="0"/>
+      <c r="I136" s="0"/>
+      <c r="J136" s="0"/>
+      <c r="K136" s="0"/>
+      <c r="L136" s="0"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="0"/>
+      <c r="O136" s="0"/>
+      <c r="P136" s="0"/>
+      <c r="Q136" s="0"/>
+      <c r="R136" s="0"/>
+      <c r="S136" s="0"/>
+      <c r="T136" s="0"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="0"/>
+      <c r="W136" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X136" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y136" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST.</t>
+        </is>
+      </c>
+      <c r="Z136" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA136" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB136" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9426,9 +12554,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B138" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST.", "", "", ""]</t>
+      <c r="B138" s="0"/>
+      <c r="C138" s="0"/>
+      <c r="D138" s="0"/>
+      <c r="E138" s="0"/>
+      <c r="F138" s="0"/>
+      <c r="G138" s="0"/>
+      <c r="H138" s="0"/>
+      <c r="I138" s="0"/>
+      <c r="J138" s="0"/>
+      <c r="K138" s="0"/>
+      <c r="L138" s="0"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="0"/>
+      <c r="O138" s="0"/>
+      <c r="P138" s="0"/>
+      <c r="Q138" s="0"/>
+      <c r="R138" s="0"/>
+      <c r="S138" s="0"/>
+      <c r="T138" s="0"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="0"/>
+      <c r="W138" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X138" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y138" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST.</t>
+        </is>
+      </c>
+      <c r="Z138" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA138" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB138" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9550,9 +12724,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B140" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY NORMAL DROP OIL SPOT,COTTON DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B140" s="0"/>
+      <c r="C140" s="0"/>
+      <c r="D140" s="0"/>
+      <c r="E140" s="0"/>
+      <c r="F140" s="0"/>
+      <c r="G140" s="0"/>
+      <c r="H140" s="0"/>
+      <c r="I140" s="0"/>
+      <c r="J140" s="0"/>
+      <c r="K140" s="0"/>
+      <c r="L140" s="0"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="0"/>
+      <c r="O140" s="0"/>
+      <c r="P140" s="0"/>
+      <c r="Q140" s="0"/>
+      <c r="R140" s="0"/>
+      <c r="S140" s="0"/>
+      <c r="T140" s="0"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="0"/>
+      <c r="W140" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X140" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y140" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY NORMAL DROP OIL SPOT,COTTON DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z140" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA140" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB140" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9674,9 +12894,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B142" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST", "", "", ""]</t>
+      <c r="B142" s="0"/>
+      <c r="C142" s="0"/>
+      <c r="D142" s="0"/>
+      <c r="E142" s="0"/>
+      <c r="F142" s="0"/>
+      <c r="G142" s="0"/>
+      <c r="H142" s="0"/>
+      <c r="I142" s="0"/>
+      <c r="J142" s="0"/>
+      <c r="K142" s="0"/>
+      <c r="L142" s="0"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="0"/>
+      <c r="O142" s="0"/>
+      <c r="P142" s="0"/>
+      <c r="Q142" s="0"/>
+      <c r="R142" s="0"/>
+      <c r="S142" s="0"/>
+      <c r="T142" s="0"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="0"/>
+      <c r="W142" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X142" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y142" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST</t>
+        </is>
+      </c>
+      <c r="Z142" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA142" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB142" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9798,9 +13064,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B144" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST", "", "", ""]</t>
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+      <c r="D144" s="0"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
+      <c r="H144" s="0"/>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
+      <c r="L144" s="0"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="0"/>
+      <c r="O144" s="0"/>
+      <c r="P144" s="0"/>
+      <c r="Q144" s="0"/>
+      <c r="R144" s="0"/>
+      <c r="S144" s="0"/>
+      <c r="T144" s="0"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="0"/>
+      <c r="W144" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X144" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y144" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST</t>
+        </is>
+      </c>
+      <c r="Z144" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA144" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB144" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9922,9 +13234,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B146" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST", "", "", ""]</t>
+      <c r="B146" s="0"/>
+      <c r="C146" s="0"/>
+      <c r="D146" s="0"/>
+      <c r="E146" s="0"/>
+      <c r="F146" s="0"/>
+      <c r="G146" s="0"/>
+      <c r="H146" s="0"/>
+      <c r="I146" s="0"/>
+      <c r="J146" s="0"/>
+      <c r="K146" s="0"/>
+      <c r="L146" s="0"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="0"/>
+      <c r="O146" s="0"/>
+      <c r="P146" s="0"/>
+      <c r="Q146" s="0"/>
+      <c r="R146" s="0"/>
+      <c r="S146" s="0"/>
+      <c r="T146" s="0"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="0"/>
+      <c r="W146" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X146" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y146" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST</t>
+        </is>
+      </c>
+      <c r="Z146" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA146" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB146" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10046,9 +13404,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B148" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B148" s="0"/>
+      <c r="C148" s="0"/>
+      <c r="D148" s="0"/>
+      <c r="E148" s="0"/>
+      <c r="F148" s="0"/>
+      <c r="G148" s="0"/>
+      <c r="H148" s="0"/>
+      <c r="I148" s="0"/>
+      <c r="J148" s="0"/>
+      <c r="K148" s="0"/>
+      <c r="L148" s="0"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="0"/>
+      <c r="O148" s="0"/>
+      <c r="P148" s="0"/>
+      <c r="Q148" s="0"/>
+      <c r="R148" s="0"/>
+      <c r="S148" s="0"/>
+      <c r="T148" s="0"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="0"/>
+      <c r="W148" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X148" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y148" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z148" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA148" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB148" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10170,9 +13574,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B150" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION.", "", "", ""]</t>
+      <c r="B150" s="0"/>
+      <c r="C150" s="0"/>
+      <c r="D150" s="0"/>
+      <c r="E150" s="0"/>
+      <c r="F150" s="0"/>
+      <c r="G150" s="0"/>
+      <c r="H150" s="0"/>
+      <c r="I150" s="0"/>
+      <c r="J150" s="0"/>
+      <c r="K150" s="0"/>
+      <c r="L150" s="0"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="0"/>
+      <c r="O150" s="0"/>
+      <c r="P150" s="0"/>
+      <c r="Q150" s="0"/>
+      <c r="R150" s="0"/>
+      <c r="S150" s="0"/>
+      <c r="T150" s="0"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="0"/>
+      <c r="W150" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X150" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y150" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION.</t>
+        </is>
+      </c>
+      <c r="Z150" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA150" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB150" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10182,9 +13632,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B151" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B151" s="0"/>
+      <c r="C151" s="0"/>
+      <c r="D151" s="0"/>
+      <c r="E151" s="0"/>
+      <c r="F151" s="0"/>
+      <c r="G151" s="0"/>
+      <c r="H151" s="0"/>
+      <c r="I151" s="0"/>
+      <c r="J151" s="0"/>
+      <c r="K151" s="0"/>
+      <c r="L151" s="0"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="0"/>
+      <c r="O151" s="0"/>
+      <c r="P151" s="0"/>
+      <c r="Q151" s="0"/>
+      <c r="R151" s="0"/>
+      <c r="S151" s="0"/>
+      <c r="T151" s="0"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="0"/>
+      <c r="W151" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X151" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y151" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z151" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA151" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB151" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10418,9 +13914,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B154" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST .", "", "", ""]</t>
+      <c r="B154" s="0"/>
+      <c r="C154" s="0"/>
+      <c r="D154" s="0"/>
+      <c r="E154" s="0"/>
+      <c r="F154" s="0"/>
+      <c r="G154" s="0"/>
+      <c r="H154" s="0"/>
+      <c r="I154" s="0"/>
+      <c r="J154" s="0"/>
+      <c r="K154" s="0"/>
+      <c r="L154" s="0"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="0"/>
+      <c r="O154" s="0"/>
+      <c r="P154" s="0"/>
+      <c r="Q154" s="0"/>
+      <c r="R154" s="0"/>
+      <c r="S154" s="0"/>
+      <c r="T154" s="0"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="0"/>
+      <c r="W154" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X154" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y154" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST .</t>
+        </is>
+      </c>
+      <c r="Z154" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA154" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB154" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10830,9 +14372,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B159" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "RIGHT PANEL CUT 03'.", "", "", ""]</t>
+      <c r="B159" s="0"/>
+      <c r="C159" s="0"/>
+      <c r="D159" s="0"/>
+      <c r="E159" s="0"/>
+      <c r="F159" s="0"/>
+      <c r="G159" s="0"/>
+      <c r="H159" s="0"/>
+      <c r="I159" s="0"/>
+      <c r="J159" s="0"/>
+      <c r="K159" s="0"/>
+      <c r="L159" s="0"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="0"/>
+      <c r="O159" s="0"/>
+      <c r="P159" s="0"/>
+      <c r="Q159" s="0"/>
+      <c r="R159" s="0"/>
+      <c r="S159" s="0"/>
+      <c r="T159" s="0"/>
+      <c r="U159" s="4"/>
+      <c r="V159" s="0"/>
+      <c r="W159" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X159" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y159" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT PANEL CUT 03'.</t>
+        </is>
+      </c>
+      <c r="Z159" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA159" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB159" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10842,9 +14430,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B160" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY FISH MEAL DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B160" s="0"/>
+      <c r="C160" s="0"/>
+      <c r="D160" s="0"/>
+      <c r="E160" s="0"/>
+      <c r="F160" s="0"/>
+      <c r="G160" s="0"/>
+      <c r="H160" s="0"/>
+      <c r="I160" s="0"/>
+      <c r="J160" s="0"/>
+      <c r="K160" s="0"/>
+      <c r="L160" s="0"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="0"/>
+      <c r="O160" s="0"/>
+      <c r="P160" s="0"/>
+      <c r="Q160" s="0"/>
+      <c r="R160" s="0"/>
+      <c r="S160" s="0"/>
+      <c r="T160" s="0"/>
+      <c r="U160" s="4"/>
+      <c r="V160" s="0"/>
+      <c r="W160" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X160" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y160" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY FISH MEAL DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z160" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA160" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB160" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11054,9 +14688,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B163" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY.", "", "", ""]</t>
+      <c r="B163" s="0"/>
+      <c r="C163" s="0"/>
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
+      <c r="H163" s="0"/>
+      <c r="I163" s="0"/>
+      <c r="J163" s="0"/>
+      <c r="K163" s="0"/>
+      <c r="L163" s="0"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="0"/>
+      <c r="O163" s="0"/>
+      <c r="P163" s="0"/>
+      <c r="Q163" s="0"/>
+      <c r="R163" s="0"/>
+      <c r="S163" s="0"/>
+      <c r="T163" s="0"/>
+      <c r="U163" s="4"/>
+      <c r="V163" s="0"/>
+      <c r="W163" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X163" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y163" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY.</t>
+        </is>
+      </c>
+      <c r="Z163" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA163" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB163" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11402,9 +15082,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B167" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD BROKEN DOWN 30' &amp; 30' &amp; SCRATCHED AT VARIOUS PLS", "", "", ""]</t>
+      <c r="B167" s="0"/>
+      <c r="C167" s="0"/>
+      <c r="D167" s="0"/>
+      <c r="E167" s="0"/>
+      <c r="F167" s="0"/>
+      <c r="G167" s="0"/>
+      <c r="H167" s="0"/>
+      <c r="I167" s="0"/>
+      <c r="J167" s="0"/>
+      <c r="K167" s="0"/>
+      <c r="L167" s="0"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="0"/>
+      <c r="O167" s="0"/>
+      <c r="P167" s="0"/>
+      <c r="Q167" s="0"/>
+      <c r="R167" s="0"/>
+      <c r="S167" s="0"/>
+      <c r="T167" s="0"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="0"/>
+      <c r="W167" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X167" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y167" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BROKEN DOWN 30' &amp; 30' &amp; SCRATCHED AT VARIOUS PLS</t>
+        </is>
+      </c>
+      <c r="Z167" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA167" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB167" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11414,9 +15140,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B168" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B168" s="0"/>
+      <c r="C168" s="0"/>
+      <c r="D168" s="0"/>
+      <c r="E168" s="0"/>
+      <c r="F168" s="0"/>
+      <c r="G168" s="0"/>
+      <c r="H168" s="0"/>
+      <c r="I168" s="0"/>
+      <c r="J168" s="0"/>
+      <c r="K168" s="0"/>
+      <c r="L168" s="0"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="0"/>
+      <c r="O168" s="0"/>
+      <c r="P168" s="0"/>
+      <c r="Q168" s="0"/>
+      <c r="R168" s="0"/>
+      <c r="S168" s="0"/>
+      <c r="T168" s="0"/>
+      <c r="U168" s="4"/>
+      <c r="V168" s="0"/>
+      <c r="W168" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X168" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y168" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z168" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA168" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB168" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11426,9 +15198,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B169" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; RUSTED CORROSION", "", "", ""]</t>
+      <c r="B169" s="0"/>
+      <c r="C169" s="0"/>
+      <c r="D169" s="0"/>
+      <c r="E169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
+      <c r="H169" s="0"/>
+      <c r="I169" s="0"/>
+      <c r="J169" s="0"/>
+      <c r="K169" s="0"/>
+      <c r="L169" s="0"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="0"/>
+      <c r="O169" s="0"/>
+      <c r="P169" s="0"/>
+      <c r="Q169" s="0"/>
+      <c r="R169" s="0"/>
+      <c r="S169" s="0"/>
+      <c r="T169" s="0"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="0"/>
+      <c r="W169" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X169" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y169" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z169" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA169" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB169" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12214,9 +16032,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B178" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B PROPARLY NOT SEEN BADLY DUST", "", "", ""]</t>
+      <c r="B178" s="0"/>
+      <c r="C178" s="0"/>
+      <c r="D178" s="0"/>
+      <c r="E178" s="0"/>
+      <c r="F178" s="0"/>
+      <c r="G178" s="0"/>
+      <c r="H178" s="0"/>
+      <c r="I178" s="0"/>
+      <c r="J178" s="0"/>
+      <c r="K178" s="0"/>
+      <c r="L178" s="0"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="0"/>
+      <c r="O178" s="0"/>
+      <c r="P178" s="0"/>
+      <c r="Q178" s="0"/>
+      <c r="R178" s="0"/>
+      <c r="S178" s="0"/>
+      <c r="T178" s="0"/>
+      <c r="U178" s="4"/>
+      <c r="V178" s="0"/>
+      <c r="W178" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X178" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y178" s="0" t="inlineStr">
+        <is>
+          <t>F/B PROPARLY NOT SEEN BADLY DUST</t>
+        </is>
+      </c>
+      <c r="Z178" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA178" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB178" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12338,9 +16202,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B180" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY POULTRY FEED DUST &amp; BAD SMEEL.", "", "", ""]</t>
+      <c r="B180" s="0"/>
+      <c r="C180" s="0"/>
+      <c r="D180" s="0"/>
+      <c r="E180" s="0"/>
+      <c r="F180" s="0"/>
+      <c r="G180" s="0"/>
+      <c r="H180" s="0"/>
+      <c r="I180" s="0"/>
+      <c r="J180" s="0"/>
+      <c r="K180" s="0"/>
+      <c r="L180" s="0"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="0"/>
+      <c r="O180" s="0"/>
+      <c r="P180" s="0"/>
+      <c r="Q180" s="0"/>
+      <c r="R180" s="0"/>
+      <c r="S180" s="0"/>
+      <c r="T180" s="0"/>
+      <c r="U180" s="4"/>
+      <c r="V180" s="0"/>
+      <c r="W180" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X180" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y180" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY POULTRY FEED DUST &amp; BAD SMEEL.</t>
+        </is>
+      </c>
+      <c r="Z180" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA180" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB180" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12462,9 +16372,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B182" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY STONE DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B182" s="0"/>
+      <c r="C182" s="0"/>
+      <c r="D182" s="0"/>
+      <c r="E182" s="0"/>
+      <c r="F182" s="0"/>
+      <c r="G182" s="0"/>
+      <c r="H182" s="0"/>
+      <c r="I182" s="0"/>
+      <c r="J182" s="0"/>
+      <c r="K182" s="0"/>
+      <c r="L182" s="0"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="0"/>
+      <c r="O182" s="0"/>
+      <c r="P182" s="0"/>
+      <c r="Q182" s="0"/>
+      <c r="R182" s="0"/>
+      <c r="S182" s="0"/>
+      <c r="T182" s="0"/>
+      <c r="U182" s="4"/>
+      <c r="V182" s="0"/>
+      <c r="W182" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X182" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y182" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY STONE DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z182" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA182" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB182" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12586,9 +16542,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B184" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B184" s="0"/>
+      <c r="C184" s="0"/>
+      <c r="D184" s="0"/>
+      <c r="E184" s="0"/>
+      <c r="F184" s="0"/>
+      <c r="G184" s="0"/>
+      <c r="H184" s="0"/>
+      <c r="I184" s="0"/>
+      <c r="J184" s="0"/>
+      <c r="K184" s="0"/>
+      <c r="L184" s="0"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="0"/>
+      <c r="O184" s="0"/>
+      <c r="P184" s="0"/>
+      <c r="Q184" s="0"/>
+      <c r="R184" s="0"/>
+      <c r="S184" s="0"/>
+      <c r="T184" s="0"/>
+      <c r="U184" s="4"/>
+      <c r="V184" s="0"/>
+      <c r="W184" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X184" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y184" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY COTTON &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z184" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA184" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB184" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12822,9 +16824,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B187" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR GASKET CUT 03' &amp; STRIP BENT 12'", "", "", ""]</t>
+      <c r="B187" s="0"/>
+      <c r="C187" s="0"/>
+      <c r="D187" s="0"/>
+      <c r="E187" s="0"/>
+      <c r="F187" s="0"/>
+      <c r="G187" s="0"/>
+      <c r="H187" s="0"/>
+      <c r="I187" s="0"/>
+      <c r="J187" s="0"/>
+      <c r="K187" s="0"/>
+      <c r="L187" s="0"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="0"/>
+      <c r="O187" s="0"/>
+      <c r="P187" s="0"/>
+      <c r="Q187" s="0"/>
+      <c r="R187" s="0"/>
+      <c r="S187" s="0"/>
+      <c r="T187" s="0"/>
+      <c r="U187" s="4"/>
+      <c r="V187" s="0"/>
+      <c r="W187" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X187" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y187" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR GASKET CUT 03' &amp; STRIP BENT 12'</t>
+        </is>
+      </c>
+      <c r="Z187" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA187" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB187" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12834,9 +16882,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B188" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; RUSTED CORROSION", "", "", ""]</t>
+      <c r="B188" s="0"/>
+      <c r="C188" s="0"/>
+      <c r="D188" s="0"/>
+      <c r="E188" s="0"/>
+      <c r="F188" s="0"/>
+      <c r="G188" s="0"/>
+      <c r="H188" s="0"/>
+      <c r="I188" s="0"/>
+      <c r="J188" s="0"/>
+      <c r="K188" s="0"/>
+      <c r="L188" s="0"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="0"/>
+      <c r="O188" s="0"/>
+      <c r="P188" s="0"/>
+      <c r="Q188" s="0"/>
+      <c r="R188" s="0"/>
+      <c r="S188" s="0"/>
+      <c r="T188" s="0"/>
+      <c r="U188" s="4"/>
+      <c r="V188" s="0"/>
+      <c r="W188" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X188" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y188" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED &amp; RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z188" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA188" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB188" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12846,9 +16940,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B189" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B189" s="0"/>
+      <c r="C189" s="0"/>
+      <c r="D189" s="0"/>
+      <c r="E189" s="0"/>
+      <c r="F189" s="0"/>
+      <c r="G189" s="0"/>
+      <c r="H189" s="0"/>
+      <c r="I189" s="0"/>
+      <c r="J189" s="0"/>
+      <c r="K189" s="0"/>
+      <c r="L189" s="0"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="0"/>
+      <c r="O189" s="0"/>
+      <c r="P189" s="0"/>
+      <c r="Q189" s="0"/>
+      <c r="R189" s="0"/>
+      <c r="S189" s="0"/>
+      <c r="T189" s="0"/>
+      <c r="U189" s="4"/>
+      <c r="V189" s="0"/>
+      <c r="W189" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X189" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y189" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z189" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA189" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB189" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12970,9 +17110,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B191" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B191" s="0"/>
+      <c r="C191" s="0"/>
+      <c r="D191" s="0"/>
+      <c r="E191" s="0"/>
+      <c r="F191" s="0"/>
+      <c r="G191" s="0"/>
+      <c r="H191" s="0"/>
+      <c r="I191" s="0"/>
+      <c r="J191" s="0"/>
+      <c r="K191" s="0"/>
+      <c r="L191" s="0"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="0"/>
+      <c r="O191" s="0"/>
+      <c r="P191" s="0"/>
+      <c r="Q191" s="0"/>
+      <c r="R191" s="0"/>
+      <c r="S191" s="0"/>
+      <c r="T191" s="0"/>
+      <c r="U191" s="4"/>
+      <c r="V191" s="0"/>
+      <c r="W191" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X191" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y191" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z191" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA191" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB191" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13094,9 +17280,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B193" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY COTTON DUST &amp; ODOUR", "", "", ""]</t>
+      <c r="B193" s="0"/>
+      <c r="C193" s="0"/>
+      <c r="D193" s="0"/>
+      <c r="E193" s="0"/>
+      <c r="F193" s="0"/>
+      <c r="G193" s="0"/>
+      <c r="H193" s="0"/>
+      <c r="I193" s="0"/>
+      <c r="J193" s="0"/>
+      <c r="K193" s="0"/>
+      <c r="L193" s="0"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="0"/>
+      <c r="O193" s="0"/>
+      <c r="P193" s="0"/>
+      <c r="Q193" s="0"/>
+      <c r="R193" s="0"/>
+      <c r="S193" s="0"/>
+      <c r="T193" s="0"/>
+      <c r="U193" s="4"/>
+      <c r="V193" s="0"/>
+      <c r="W193" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X193" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y193" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY COTTON DUST &amp; ODOUR</t>
+        </is>
+      </c>
+      <c r="Z193" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA193" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB193" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13418,9 +17650,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B197" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; RUSTED CORROSION", "", "", ""]</t>
+      <c r="B197" s="0"/>
+      <c r="C197" s="0"/>
+      <c r="D197" s="0"/>
+      <c r="E197" s="0"/>
+      <c r="F197" s="0"/>
+      <c r="G197" s="0"/>
+      <c r="H197" s="0"/>
+      <c r="I197" s="0"/>
+      <c r="J197" s="0"/>
+      <c r="K197" s="0"/>
+      <c r="L197" s="0"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="0"/>
+      <c r="O197" s="0"/>
+      <c r="P197" s="0"/>
+      <c r="Q197" s="0"/>
+      <c r="R197" s="0"/>
+      <c r="S197" s="0"/>
+      <c r="T197" s="0"/>
+      <c r="U197" s="4"/>
+      <c r="V197" s="0"/>
+      <c r="W197" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X197" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y197" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z197" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA197" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB197" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13430,9 +17708,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B198" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B198" s="0"/>
+      <c r="C198" s="0"/>
+      <c r="D198" s="0"/>
+      <c r="E198" s="0"/>
+      <c r="F198" s="0"/>
+      <c r="G198" s="0"/>
+      <c r="H198" s="0"/>
+      <c r="I198" s="0"/>
+      <c r="J198" s="0"/>
+      <c r="K198" s="0"/>
+      <c r="L198" s="0"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="0"/>
+      <c r="O198" s="0"/>
+      <c r="P198" s="0"/>
+      <c r="Q198" s="0"/>
+      <c r="R198" s="0"/>
+      <c r="S198" s="0"/>
+      <c r="T198" s="0"/>
+      <c r="U198" s="4"/>
+      <c r="V198" s="0"/>
+      <c r="W198" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X198" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y198" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z198" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA198" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB198" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13442,9 +17766,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B199" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD POULTRY FEED DUST &amp; TYRE MARK &amp; ODOUR", "", "", ""]</t>
+      <c r="B199" s="0"/>
+      <c r="C199" s="0"/>
+      <c r="D199" s="0"/>
+      <c r="E199" s="0"/>
+      <c r="F199" s="0"/>
+      <c r="G199" s="0"/>
+      <c r="H199" s="0"/>
+      <c r="I199" s="0"/>
+      <c r="J199" s="0"/>
+      <c r="K199" s="0"/>
+      <c r="L199" s="0"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="0"/>
+      <c r="O199" s="0"/>
+      <c r="P199" s="0"/>
+      <c r="Q199" s="0"/>
+      <c r="R199" s="0"/>
+      <c r="S199" s="0"/>
+      <c r="T199" s="0"/>
+      <c r="U199" s="4"/>
+      <c r="V199" s="0"/>
+      <c r="W199" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X199" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y199" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD POULTRY FEED DUST &amp; TYRE MARK &amp; ODOUR</t>
+        </is>
+      </c>
+      <c r="Z199" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA199" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB199" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13566,9 +17936,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B201" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "DOOR FRAME &amp; GASKET AREA BADLY RUSTED CORROSION", "", "", ""]</t>
+      <c r="B201" s="0"/>
+      <c r="C201" s="0"/>
+      <c r="D201" s="0"/>
+      <c r="E201" s="0"/>
+      <c r="F201" s="0"/>
+      <c r="G201" s="0"/>
+      <c r="H201" s="0"/>
+      <c r="I201" s="0"/>
+      <c r="J201" s="0"/>
+      <c r="K201" s="0"/>
+      <c r="L201" s="0"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="0"/>
+      <c r="O201" s="0"/>
+      <c r="P201" s="0"/>
+      <c r="Q201" s="0"/>
+      <c r="R201" s="0"/>
+      <c r="S201" s="0"/>
+      <c r="T201" s="0"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="0"/>
+      <c r="W201" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X201" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y201" s="0" t="inlineStr">
+        <is>
+          <t>DOOR FRAME &amp; GASKET AREA BADLY RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z201" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA201" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB201" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13578,9 +17994,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B202" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION. BADLY", "", "", ""]</t>
+      <c r="B202" s="0"/>
+      <c r="C202" s="0"/>
+      <c r="D202" s="0"/>
+      <c r="E202" s="0"/>
+      <c r="F202" s="0"/>
+      <c r="G202" s="0"/>
+      <c r="H202" s="0"/>
+      <c r="I202" s="0"/>
+      <c r="J202" s="0"/>
+      <c r="K202" s="0"/>
+      <c r="L202" s="0"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="0"/>
+      <c r="O202" s="0"/>
+      <c r="P202" s="0"/>
+      <c r="Q202" s="0"/>
+      <c r="R202" s="0"/>
+      <c r="S202" s="0"/>
+      <c r="T202" s="0"/>
+      <c r="U202" s="4"/>
+      <c r="V202" s="0"/>
+      <c r="W202" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X202" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y202" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION. BADLY</t>
+        </is>
+      </c>
+      <c r="Z202" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA202" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB202" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13590,9 +18052,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B203" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY SODA DUST &amp; ODOUR", "", "", ""]</t>
+      <c r="B203" s="0"/>
+      <c r="C203" s="0"/>
+      <c r="D203" s="0"/>
+      <c r="E203" s="0"/>
+      <c r="F203" s="0"/>
+      <c r="G203" s="0"/>
+      <c r="H203" s="0"/>
+      <c r="I203" s="0"/>
+      <c r="J203" s="0"/>
+      <c r="K203" s="0"/>
+      <c r="L203" s="0"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="0"/>
+      <c r="O203" s="0"/>
+      <c r="P203" s="0"/>
+      <c r="Q203" s="0"/>
+      <c r="R203" s="0"/>
+      <c r="S203" s="0"/>
+      <c r="T203" s="0"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="0"/>
+      <c r="W203" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X203" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y203" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY SODA DUST &amp; ODOUR</t>
+        </is>
+      </c>
+      <c r="Z203" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA203" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB203" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13714,9 +18222,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B205" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B205" s="0"/>
+      <c r="C205" s="0"/>
+      <c r="D205" s="0"/>
+      <c r="E205" s="0"/>
+      <c r="F205" s="0"/>
+      <c r="G205" s="0"/>
+      <c r="H205" s="0"/>
+      <c r="I205" s="0"/>
+      <c r="J205" s="0"/>
+      <c r="K205" s="0"/>
+      <c r="L205" s="0"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="0"/>
+      <c r="O205" s="0"/>
+      <c r="P205" s="0"/>
+      <c r="Q205" s="0"/>
+      <c r="R205" s="0"/>
+      <c r="S205" s="0"/>
+      <c r="T205" s="0"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="0"/>
+      <c r="W205" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X205" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y205" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z205" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA205" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB205" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13726,9 +18280,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B206" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR BOTTOM GASKET WITH STRIP LOOSE 12'", "", "", ""]</t>
+      <c r="B206" s="0"/>
+      <c r="C206" s="0"/>
+      <c r="D206" s="0"/>
+      <c r="E206" s="0"/>
+      <c r="F206" s="0"/>
+      <c r="G206" s="0"/>
+      <c r="H206" s="0"/>
+      <c r="I206" s="0"/>
+      <c r="J206" s="0"/>
+      <c r="K206" s="0"/>
+      <c r="L206" s="0"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="0"/>
+      <c r="O206" s="0"/>
+      <c r="P206" s="0"/>
+      <c r="Q206" s="0"/>
+      <c r="R206" s="0"/>
+      <c r="S206" s="0"/>
+      <c r="T206" s="0"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="0"/>
+      <c r="W206" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X206" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y206" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR BOTTOM GASKET WITH STRIP LOOSE 12'</t>
+        </is>
+      </c>
+      <c r="Z206" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA206" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB206" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13738,9 +18338,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B207" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST", "", "", ""]</t>
+      <c r="B207" s="0"/>
+      <c r="C207" s="0"/>
+      <c r="D207" s="0"/>
+      <c r="E207" s="0"/>
+      <c r="F207" s="0"/>
+      <c r="G207" s="0"/>
+      <c r="H207" s="0"/>
+      <c r="I207" s="0"/>
+      <c r="J207" s="0"/>
+      <c r="K207" s="0"/>
+      <c r="L207" s="0"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="0"/>
+      <c r="O207" s="0"/>
+      <c r="P207" s="0"/>
+      <c r="Q207" s="0"/>
+      <c r="R207" s="0"/>
+      <c r="S207" s="0"/>
+      <c r="T207" s="0"/>
+      <c r="U207" s="4"/>
+      <c r="V207" s="0"/>
+      <c r="W207" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X207" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y207" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD OIL SPOT &amp; COTTON &amp; MUD DUST</t>
+        </is>
+      </c>
+      <c r="Z207" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA207" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB207" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13862,9 +18508,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B209" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; MUD DUST &amp; POWDER", "", "", ""]</t>
+      <c r="B209" s="0"/>
+      <c r="C209" s="0"/>
+      <c r="D209" s="0"/>
+      <c r="E209" s="0"/>
+      <c r="F209" s="0"/>
+      <c r="G209" s="0"/>
+      <c r="H209" s="0"/>
+      <c r="I209" s="0"/>
+      <c r="J209" s="0"/>
+      <c r="K209" s="0"/>
+      <c r="L209" s="0"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="0"/>
+      <c r="O209" s="0"/>
+      <c r="P209" s="0"/>
+      <c r="Q209" s="0"/>
+      <c r="R209" s="0"/>
+      <c r="S209" s="0"/>
+      <c r="T209" s="0"/>
+      <c r="U209" s="4"/>
+      <c r="V209" s="0"/>
+      <c r="W209" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X209" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y209" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD OIL SPOT &amp; MUD DUST &amp; POWDER</t>
+        </is>
+      </c>
+      <c r="Z209" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA209" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB209" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14098,9 +18790,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B212" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B212" s="0"/>
+      <c r="C212" s="0"/>
+      <c r="D212" s="0"/>
+      <c r="E212" s="0"/>
+      <c r="F212" s="0"/>
+      <c r="G212" s="0"/>
+      <c r="H212" s="0"/>
+      <c r="I212" s="0"/>
+      <c r="J212" s="0"/>
+      <c r="K212" s="0"/>
+      <c r="L212" s="0"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="0"/>
+      <c r="O212" s="0"/>
+      <c r="P212" s="0"/>
+      <c r="Q212" s="0"/>
+      <c r="R212" s="0"/>
+      <c r="S212" s="0"/>
+      <c r="T212" s="0"/>
+      <c r="U212" s="4"/>
+      <c r="V212" s="0"/>
+      <c r="W212" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X212" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y212" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z212" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA212" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB212" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14222,9 +18960,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B214" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD NAILS FITTING 06 PCS", "", "", ""]</t>
+      <c r="B214" s="0"/>
+      <c r="C214" s="0"/>
+      <c r="D214" s="0"/>
+      <c r="E214" s="0"/>
+      <c r="F214" s="0"/>
+      <c r="G214" s="0"/>
+      <c r="H214" s="0"/>
+      <c r="I214" s="0"/>
+      <c r="J214" s="0"/>
+      <c r="K214" s="0"/>
+      <c r="L214" s="0"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="0"/>
+      <c r="O214" s="0"/>
+      <c r="P214" s="0"/>
+      <c r="Q214" s="0"/>
+      <c r="R214" s="0"/>
+      <c r="S214" s="0"/>
+      <c r="T214" s="0"/>
+      <c r="U214" s="4"/>
+      <c r="V214" s="0"/>
+      <c r="W214" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X214" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y214" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTING 06 PCS</t>
+        </is>
+      </c>
+      <c r="Z214" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA214" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB214" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14234,9 +19018,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B215" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD OIL SPOT &amp; DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B215" s="0"/>
+      <c r="C215" s="0"/>
+      <c r="D215" s="0"/>
+      <c r="E215" s="0"/>
+      <c r="F215" s="0"/>
+      <c r="G215" s="0"/>
+      <c r="H215" s="0"/>
+      <c r="I215" s="0"/>
+      <c r="J215" s="0"/>
+      <c r="K215" s="0"/>
+      <c r="L215" s="0"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="0"/>
+      <c r="O215" s="0"/>
+      <c r="P215" s="0"/>
+      <c r="Q215" s="0"/>
+      <c r="R215" s="0"/>
+      <c r="S215" s="0"/>
+      <c r="T215" s="0"/>
+      <c r="U215" s="4"/>
+      <c r="V215" s="0"/>
+      <c r="W215" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X215" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y215" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD OIL SPOT &amp; DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z215" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA215" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB215" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14358,9 +19188,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B217" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST ", "", "", ""]</t>
+      <c r="B217" s="0"/>
+      <c r="C217" s="0"/>
+      <c r="D217" s="0"/>
+      <c r="E217" s="0"/>
+      <c r="F217" s="0"/>
+      <c r="G217" s="0"/>
+      <c r="H217" s="0"/>
+      <c r="I217" s="0"/>
+      <c r="J217" s="0"/>
+      <c r="K217" s="0"/>
+      <c r="L217" s="0"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="0"/>
+      <c r="O217" s="0"/>
+      <c r="P217" s="0"/>
+      <c r="Q217" s="0"/>
+      <c r="R217" s="0"/>
+      <c r="S217" s="0"/>
+      <c r="T217" s="0"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="0"/>
+      <c r="W217" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X217" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y217" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST </t>
+        </is>
+      </c>
+      <c r="Z217" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA217" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB217" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14594,9 +19470,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B220" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY OIL SPOT,BLACK STAIN &amp; DUST.", "", "", ""]</t>
+      <c r="B220" s="0"/>
+      <c r="C220" s="0"/>
+      <c r="D220" s="0"/>
+      <c r="E220" s="0"/>
+      <c r="F220" s="0"/>
+      <c r="G220" s="0"/>
+      <c r="H220" s="0"/>
+      <c r="I220" s="0"/>
+      <c r="J220" s="0"/>
+      <c r="K220" s="0"/>
+      <c r="L220" s="0"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="0"/>
+      <c r="O220" s="0"/>
+      <c r="P220" s="0"/>
+      <c r="Q220" s="0"/>
+      <c r="R220" s="0"/>
+      <c r="S220" s="0"/>
+      <c r="T220" s="0"/>
+      <c r="U220" s="4"/>
+      <c r="V220" s="0"/>
+      <c r="W220" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X220" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y220" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD DIRTY BY OIL SPOT,BLACK STAIN &amp; DUST.</t>
+        </is>
+      </c>
+      <c r="Z220" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA220" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB220" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14718,9 +19640,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B222" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+      <c r="B222" s="0"/>
+      <c r="C222" s="0"/>
+      <c r="D222" s="0"/>
+      <c r="E222" s="0"/>
+      <c r="F222" s="0"/>
+      <c r="G222" s="0"/>
+      <c r="H222" s="0"/>
+      <c r="I222" s="0"/>
+      <c r="J222" s="0"/>
+      <c r="K222" s="0"/>
+      <c r="L222" s="0"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="0"/>
+      <c r="O222" s="0"/>
+      <c r="P222" s="0"/>
+      <c r="Q222" s="0"/>
+      <c r="R222" s="0"/>
+      <c r="S222" s="0"/>
+      <c r="T222" s="0"/>
+      <c r="U222" s="4"/>
+      <c r="V222" s="0"/>
+      <c r="W222" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X222" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y222" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST .</t>
+        </is>
+      </c>
+      <c r="Z222" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA222" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB222" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14842,9 +19810,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B224" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B224" s="0"/>
+      <c r="C224" s="0"/>
+      <c r="D224" s="0"/>
+      <c r="E224" s="0"/>
+      <c r="F224" s="0"/>
+      <c r="G224" s="0"/>
+      <c r="H224" s="0"/>
+      <c r="I224" s="0"/>
+      <c r="J224" s="0"/>
+      <c r="K224" s="0"/>
+      <c r="L224" s="0"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="0"/>
+      <c r="O224" s="0"/>
+      <c r="P224" s="0"/>
+      <c r="Q224" s="0"/>
+      <c r="R224" s="0"/>
+      <c r="S224" s="0"/>
+      <c r="T224" s="0"/>
+      <c r="U224" s="4"/>
+      <c r="V224" s="0"/>
+      <c r="W224" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X224" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y224" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z224" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA224" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB224" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14966,9 +19980,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B226" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "R/DOOR LOCKBAR  BENT 01 PC.", "", "", ""]</t>
+      <c r="B226" s="0"/>
+      <c r="C226" s="0"/>
+      <c r="D226" s="0"/>
+      <c r="E226" s="0"/>
+      <c r="F226" s="0"/>
+      <c r="G226" s="0"/>
+      <c r="H226" s="0"/>
+      <c r="I226" s="0"/>
+      <c r="J226" s="0"/>
+      <c r="K226" s="0"/>
+      <c r="L226" s="0"/>
+      <c r="M226" s="4"/>
+      <c r="N226" s="0"/>
+      <c r="O226" s="0"/>
+      <c r="P226" s="0"/>
+      <c r="Q226" s="0"/>
+      <c r="R226" s="0"/>
+      <c r="S226" s="0"/>
+      <c r="T226" s="0"/>
+      <c r="U226" s="4"/>
+      <c r="V226" s="0"/>
+      <c r="W226" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X226" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y226" s="0" t="inlineStr">
+        <is>
+          <t>R/DOOR LOCKBAR  BENT 01 PC.</t>
+        </is>
+      </c>
+      <c r="Z226" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA226" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB226" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -14978,9 +20038,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B227" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  WHITE POWDER DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B227" s="0"/>
+      <c r="C227" s="0"/>
+      <c r="D227" s="0"/>
+      <c r="E227" s="0"/>
+      <c r="F227" s="0"/>
+      <c r="G227" s="0"/>
+      <c r="H227" s="0"/>
+      <c r="I227" s="0"/>
+      <c r="J227" s="0"/>
+      <c r="K227" s="0"/>
+      <c r="L227" s="0"/>
+      <c r="M227" s="4"/>
+      <c r="N227" s="0"/>
+      <c r="O227" s="0"/>
+      <c r="P227" s="0"/>
+      <c r="Q227" s="0"/>
+      <c r="R227" s="0"/>
+      <c r="S227" s="0"/>
+      <c r="T227" s="0"/>
+      <c r="U227" s="4"/>
+      <c r="V227" s="0"/>
+      <c r="W227" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X227" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y227" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  WHITE POWDER DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z227" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA227" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB227" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15102,9 +20208,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B229" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FRONT SIDE F/B CRACKED &amp; UP 14'X10'.", "", "", ""]</t>
+      <c r="B229" s="0"/>
+      <c r="C229" s="0"/>
+      <c r="D229" s="0"/>
+      <c r="E229" s="0"/>
+      <c r="F229" s="0"/>
+      <c r="G229" s="0"/>
+      <c r="H229" s="0"/>
+      <c r="I229" s="0"/>
+      <c r="J229" s="0"/>
+      <c r="K229" s="0"/>
+      <c r="L229" s="0"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="0"/>
+      <c r="O229" s="0"/>
+      <c r="P229" s="0"/>
+      <c r="Q229" s="0"/>
+      <c r="R229" s="0"/>
+      <c r="S229" s="0"/>
+      <c r="T229" s="0"/>
+      <c r="U229" s="4"/>
+      <c r="V229" s="0"/>
+      <c r="W229" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X229" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y229" s="0" t="inlineStr">
+        <is>
+          <t>FRONT SIDE F/B CRACKED &amp; UP 14'X10'.</t>
+        </is>
+      </c>
+      <c r="Z229" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA229" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB229" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15114,9 +20266,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B230" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B230" s="0"/>
+      <c r="C230" s="0"/>
+      <c r="D230" s="0"/>
+      <c r="E230" s="0"/>
+      <c r="F230" s="0"/>
+      <c r="G230" s="0"/>
+      <c r="H230" s="0"/>
+      <c r="I230" s="0"/>
+      <c r="J230" s="0"/>
+      <c r="K230" s="0"/>
+      <c r="L230" s="0"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="0"/>
+      <c r="O230" s="0"/>
+      <c r="P230" s="0"/>
+      <c r="Q230" s="0"/>
+      <c r="R230" s="0"/>
+      <c r="S230" s="0"/>
+      <c r="T230" s="0"/>
+      <c r="U230" s="4"/>
+      <c r="V230" s="0"/>
+      <c r="W230" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X230" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y230" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z230" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA230" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB230" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15238,9 +20436,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B232" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL NO-11 RUSTED CORROSION .", "", "", ""]</t>
+      <c r="B232" s="0"/>
+      <c r="C232" s="0"/>
+      <c r="D232" s="0"/>
+      <c r="E232" s="0"/>
+      <c r="F232" s="0"/>
+      <c r="G232" s="0"/>
+      <c r="H232" s="0"/>
+      <c r="I232" s="0"/>
+      <c r="J232" s="0"/>
+      <c r="K232" s="0"/>
+      <c r="L232" s="0"/>
+      <c r="M232" s="4"/>
+      <c r="N232" s="0"/>
+      <c r="O232" s="0"/>
+      <c r="P232" s="0"/>
+      <c r="Q232" s="0"/>
+      <c r="R232" s="0"/>
+      <c r="S232" s="0"/>
+      <c r="T232" s="0"/>
+      <c r="U232" s="4"/>
+      <c r="V232" s="0"/>
+      <c r="W232" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X232" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y232" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL NO-11 RUSTED CORROSION .</t>
+        </is>
+      </c>
+      <c r="Z232" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA232" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB232" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15250,9 +20494,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B233" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B233" s="0"/>
+      <c r="C233" s="0"/>
+      <c r="D233" s="0"/>
+      <c r="E233" s="0"/>
+      <c r="F233" s="0"/>
+      <c r="G233" s="0"/>
+      <c r="H233" s="0"/>
+      <c r="I233" s="0"/>
+      <c r="J233" s="0"/>
+      <c r="K233" s="0"/>
+      <c r="L233" s="0"/>
+      <c r="M233" s="4"/>
+      <c r="N233" s="0"/>
+      <c r="O233" s="0"/>
+      <c r="P233" s="0"/>
+      <c r="Q233" s="0"/>
+      <c r="R233" s="0"/>
+      <c r="S233" s="0"/>
+      <c r="T233" s="0"/>
+      <c r="U233" s="4"/>
+      <c r="V233" s="0"/>
+      <c r="W233" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X233" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y233" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z233" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA233" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB233" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15374,9 +20664,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B235" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B235" s="0"/>
+      <c r="C235" s="0"/>
+      <c r="D235" s="0"/>
+      <c r="E235" s="0"/>
+      <c r="F235" s="0"/>
+      <c r="G235" s="0"/>
+      <c r="H235" s="0"/>
+      <c r="I235" s="0"/>
+      <c r="J235" s="0"/>
+      <c r="K235" s="0"/>
+      <c r="L235" s="0"/>
+      <c r="M235" s="4"/>
+      <c r="N235" s="0"/>
+      <c r="O235" s="0"/>
+      <c r="P235" s="0"/>
+      <c r="Q235" s="0"/>
+      <c r="R235" s="0"/>
+      <c r="S235" s="0"/>
+      <c r="T235" s="0"/>
+      <c r="U235" s="4"/>
+      <c r="V235" s="0"/>
+      <c r="W235" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X235" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y235" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z235" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA235" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB235" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15498,9 +20834,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B237" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY", "", "", ""]</t>
+      <c r="B237" s="0"/>
+      <c r="C237" s="0"/>
+      <c r="D237" s="0"/>
+      <c r="E237" s="0"/>
+      <c r="F237" s="0"/>
+      <c r="G237" s="0"/>
+      <c r="H237" s="0"/>
+      <c r="I237" s="0"/>
+      <c r="J237" s="0"/>
+      <c r="K237" s="0"/>
+      <c r="L237" s="0"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="0"/>
+      <c r="O237" s="0"/>
+      <c r="P237" s="0"/>
+      <c r="Q237" s="0"/>
+      <c r="R237" s="0"/>
+      <c r="S237" s="0"/>
+      <c r="T237" s="0"/>
+      <c r="U237" s="4"/>
+      <c r="V237" s="0"/>
+      <c r="W237" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X237" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y237" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY</t>
+        </is>
+      </c>
+      <c r="Z237" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA237" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB237" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15510,9 +20892,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B238" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY CANOLA SEED DUST &amp; ODOUR ", "", "", ""]</t>
+      <c r="B238" s="0"/>
+      <c r="C238" s="0"/>
+      <c r="D238" s="0"/>
+      <c r="E238" s="0"/>
+      <c r="F238" s="0"/>
+      <c r="G238" s="0"/>
+      <c r="H238" s="0"/>
+      <c r="I238" s="0"/>
+      <c r="J238" s="0"/>
+      <c r="K238" s="0"/>
+      <c r="L238" s="0"/>
+      <c r="M238" s="4"/>
+      <c r="N238" s="0"/>
+      <c r="O238" s="0"/>
+      <c r="P238" s="0"/>
+      <c r="Q238" s="0"/>
+      <c r="R238" s="0"/>
+      <c r="S238" s="0"/>
+      <c r="T238" s="0"/>
+      <c r="U238" s="4"/>
+      <c r="V238" s="0"/>
+      <c r="W238" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X238" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y238" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY CANOLA SEED DUST &amp; ODOUR </t>
+        </is>
+      </c>
+      <c r="Z238" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA238" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB238" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15634,9 +21062,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B240" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "R/DOOR TOP GASKET CUT 02'", "", "", ""]</t>
+      <c r="B240" s="0"/>
+      <c r="C240" s="0"/>
+      <c r="D240" s="0"/>
+      <c r="E240" s="0"/>
+      <c r="F240" s="0"/>
+      <c r="G240" s="0"/>
+      <c r="H240" s="0"/>
+      <c r="I240" s="0"/>
+      <c r="J240" s="0"/>
+      <c r="K240" s="0"/>
+      <c r="L240" s="0"/>
+      <c r="M240" s="4"/>
+      <c r="N240" s="0"/>
+      <c r="O240" s="0"/>
+      <c r="P240" s="0"/>
+      <c r="Q240" s="0"/>
+      <c r="R240" s="0"/>
+      <c r="S240" s="0"/>
+      <c r="T240" s="0"/>
+      <c r="U240" s="4"/>
+      <c r="V240" s="0"/>
+      <c r="W240" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X240" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y240" s="0" t="inlineStr">
+        <is>
+          <t>R/DOOR TOP GASKET CUT 02'</t>
+        </is>
+      </c>
+      <c r="Z240" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA240" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB240" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15646,9 +21120,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B241" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B241" s="0"/>
+      <c r="C241" s="0"/>
+      <c r="D241" s="0"/>
+      <c r="E241" s="0"/>
+      <c r="F241" s="0"/>
+      <c r="G241" s="0"/>
+      <c r="H241" s="0"/>
+      <c r="I241" s="0"/>
+      <c r="J241" s="0"/>
+      <c r="K241" s="0"/>
+      <c r="L241" s="0"/>
+      <c r="M241" s="4"/>
+      <c r="N241" s="0"/>
+      <c r="O241" s="0"/>
+      <c r="P241" s="0"/>
+      <c r="Q241" s="0"/>
+      <c r="R241" s="0"/>
+      <c r="S241" s="0"/>
+      <c r="T241" s="0"/>
+      <c r="U241" s="4"/>
+      <c r="V241" s="0"/>
+      <c r="W241" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X241" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y241" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z241" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA241" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB241" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15882,9 +21402,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B244" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCKING BAR BENT 01 PC", "", "", ""]</t>
+      <c r="B244" s="0"/>
+      <c r="C244" s="0"/>
+      <c r="D244" s="0"/>
+      <c r="E244" s="0"/>
+      <c r="F244" s="0"/>
+      <c r="G244" s="0"/>
+      <c r="H244" s="0"/>
+      <c r="I244" s="0"/>
+      <c r="J244" s="0"/>
+      <c r="K244" s="0"/>
+      <c r="L244" s="0"/>
+      <c r="M244" s="4"/>
+      <c r="N244" s="0"/>
+      <c r="O244" s="0"/>
+      <c r="P244" s="0"/>
+      <c r="Q244" s="0"/>
+      <c r="R244" s="0"/>
+      <c r="S244" s="0"/>
+      <c r="T244" s="0"/>
+      <c r="U244" s="4"/>
+      <c r="V244" s="0"/>
+      <c r="W244" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X244" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y244" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCKING BAR BENT 01 PC</t>
+        </is>
+      </c>
+      <c r="Z244" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA244" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB244" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15894,9 +21460,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B245" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; RUSTED CORROSION", "", "", ""]</t>
+      <c r="B245" s="0"/>
+      <c r="C245" s="0"/>
+      <c r="D245" s="0"/>
+      <c r="E245" s="0"/>
+      <c r="F245" s="0"/>
+      <c r="G245" s="0"/>
+      <c r="H245" s="0"/>
+      <c r="I245" s="0"/>
+      <c r="J245" s="0"/>
+      <c r="K245" s="0"/>
+      <c r="L245" s="0"/>
+      <c r="M245" s="4"/>
+      <c r="N245" s="0"/>
+      <c r="O245" s="0"/>
+      <c r="P245" s="0"/>
+      <c r="Q245" s="0"/>
+      <c r="R245" s="0"/>
+      <c r="S245" s="0"/>
+      <c r="T245" s="0"/>
+      <c r="U245" s="4"/>
+      <c r="V245" s="0"/>
+      <c r="W245" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X245" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y245" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY &amp; RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z245" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA245" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB245" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15906,9 +21518,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B246" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B246" s="0"/>
+      <c r="C246" s="0"/>
+      <c r="D246" s="0"/>
+      <c r="E246" s="0"/>
+      <c r="F246" s="0"/>
+      <c r="G246" s="0"/>
+      <c r="H246" s="0"/>
+      <c r="I246" s="0"/>
+      <c r="J246" s="0"/>
+      <c r="K246" s="0"/>
+      <c r="L246" s="0"/>
+      <c r="M246" s="4"/>
+      <c r="N246" s="0"/>
+      <c r="O246" s="0"/>
+      <c r="P246" s="0"/>
+      <c r="Q246" s="0"/>
+      <c r="R246" s="0"/>
+      <c r="S246" s="0"/>
+      <c r="T246" s="0"/>
+      <c r="U246" s="4"/>
+      <c r="V246" s="0"/>
+      <c r="W246" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X246" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y246" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z246" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA246" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB246" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -15918,9 +21576,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B247" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B247" s="0"/>
+      <c r="C247" s="0"/>
+      <c r="D247" s="0"/>
+      <c r="E247" s="0"/>
+      <c r="F247" s="0"/>
+      <c r="G247" s="0"/>
+      <c r="H247" s="0"/>
+      <c r="I247" s="0"/>
+      <c r="J247" s="0"/>
+      <c r="K247" s="0"/>
+      <c r="L247" s="0"/>
+      <c r="M247" s="4"/>
+      <c r="N247" s="0"/>
+      <c r="O247" s="0"/>
+      <c r="P247" s="0"/>
+      <c r="Q247" s="0"/>
+      <c r="R247" s="0"/>
+      <c r="S247" s="0"/>
+      <c r="T247" s="0"/>
+      <c r="U247" s="4"/>
+      <c r="V247" s="0"/>
+      <c r="W247" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X247" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y247" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z247" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA247" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB247" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16042,9 +21746,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B249" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+      <c r="B249" s="0"/>
+      <c r="C249" s="0"/>
+      <c r="D249" s="0"/>
+      <c r="E249" s="0"/>
+      <c r="F249" s="0"/>
+      <c r="G249" s="0"/>
+      <c r="H249" s="0"/>
+      <c r="I249" s="0"/>
+      <c r="J249" s="0"/>
+      <c r="K249" s="0"/>
+      <c r="L249" s="0"/>
+      <c r="M249" s="4"/>
+      <c r="N249" s="0"/>
+      <c r="O249" s="0"/>
+      <c r="P249" s="0"/>
+      <c r="Q249" s="0"/>
+      <c r="R249" s="0"/>
+      <c r="S249" s="0"/>
+      <c r="T249" s="0"/>
+      <c r="U249" s="4"/>
+      <c r="V249" s="0"/>
+      <c r="W249" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X249" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y249" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST .</t>
+        </is>
+      </c>
+      <c r="Z249" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA249" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB249" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16166,9 +21916,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B251" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B251" s="0"/>
+      <c r="C251" s="0"/>
+      <c r="D251" s="0"/>
+      <c r="E251" s="0"/>
+      <c r="F251" s="0"/>
+      <c r="G251" s="0"/>
+      <c r="H251" s="0"/>
+      <c r="I251" s="0"/>
+      <c r="J251" s="0"/>
+      <c r="K251" s="0"/>
+      <c r="L251" s="0"/>
+      <c r="M251" s="4"/>
+      <c r="N251" s="0"/>
+      <c r="O251" s="0"/>
+      <c r="P251" s="0"/>
+      <c r="Q251" s="0"/>
+      <c r="R251" s="0"/>
+      <c r="S251" s="0"/>
+      <c r="T251" s="0"/>
+      <c r="U251" s="4"/>
+      <c r="V251" s="0"/>
+      <c r="W251" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X251" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y251" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z251" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA251" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB251" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16178,9 +21974,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B252" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR GASKET BENT 30'", "", "", ""]</t>
+      <c r="B252" s="0"/>
+      <c r="C252" s="0"/>
+      <c r="D252" s="0"/>
+      <c r="E252" s="0"/>
+      <c r="F252" s="0"/>
+      <c r="G252" s="0"/>
+      <c r="H252" s="0"/>
+      <c r="I252" s="0"/>
+      <c r="J252" s="0"/>
+      <c r="K252" s="0"/>
+      <c r="L252" s="0"/>
+      <c r="M252" s="4"/>
+      <c r="N252" s="0"/>
+      <c r="O252" s="0"/>
+      <c r="P252" s="0"/>
+      <c r="Q252" s="0"/>
+      <c r="R252" s="0"/>
+      <c r="S252" s="0"/>
+      <c r="T252" s="0"/>
+      <c r="U252" s="4"/>
+      <c r="V252" s="0"/>
+      <c r="W252" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X252" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y252" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR GASKET BENT 30'</t>
+        </is>
+      </c>
+      <c r="Z252" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA252" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB252" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16190,9 +22032,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B253" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B253" s="0"/>
+      <c r="C253" s="0"/>
+      <c r="D253" s="0"/>
+      <c r="E253" s="0"/>
+      <c r="F253" s="0"/>
+      <c r="G253" s="0"/>
+      <c r="H253" s="0"/>
+      <c r="I253" s="0"/>
+      <c r="J253" s="0"/>
+      <c r="K253" s="0"/>
+      <c r="L253" s="0"/>
+      <c r="M253" s="4"/>
+      <c r="N253" s="0"/>
+      <c r="O253" s="0"/>
+      <c r="P253" s="0"/>
+      <c r="Q253" s="0"/>
+      <c r="R253" s="0"/>
+      <c r="S253" s="0"/>
+      <c r="T253" s="0"/>
+      <c r="U253" s="4"/>
+      <c r="V253" s="0"/>
+      <c r="W253" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X253" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y253" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY WASTES PAPER &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z253" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA253" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB253" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16314,9 +22202,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B255" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY .", "", "", ""]</t>
+      <c r="B255" s="0"/>
+      <c r="C255" s="0"/>
+      <c r="D255" s="0"/>
+      <c r="E255" s="0"/>
+      <c r="F255" s="0"/>
+      <c r="G255" s="0"/>
+      <c r="H255" s="0"/>
+      <c r="I255" s="0"/>
+      <c r="J255" s="0"/>
+      <c r="K255" s="0"/>
+      <c r="L255" s="0"/>
+      <c r="M255" s="4"/>
+      <c r="N255" s="0"/>
+      <c r="O255" s="0"/>
+      <c r="P255" s="0"/>
+      <c r="Q255" s="0"/>
+      <c r="R255" s="0"/>
+      <c r="S255" s="0"/>
+      <c r="T255" s="0"/>
+      <c r="U255" s="4"/>
+      <c r="V255" s="0"/>
+      <c r="W255" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X255" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y255" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY .</t>
+        </is>
+      </c>
+      <c r="Z255" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA255" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB255" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16438,9 +22372,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B257" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY CANOLA SEEDS DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B257" s="0"/>
+      <c r="C257" s="0"/>
+      <c r="D257" s="0"/>
+      <c r="E257" s="0"/>
+      <c r="F257" s="0"/>
+      <c r="G257" s="0"/>
+      <c r="H257" s="0"/>
+      <c r="I257" s="0"/>
+      <c r="J257" s="0"/>
+      <c r="K257" s="0"/>
+      <c r="L257" s="0"/>
+      <c r="M257" s="4"/>
+      <c r="N257" s="0"/>
+      <c r="O257" s="0"/>
+      <c r="P257" s="0"/>
+      <c r="Q257" s="0"/>
+      <c r="R257" s="0"/>
+      <c r="S257" s="0"/>
+      <c r="T257" s="0"/>
+      <c r="U257" s="4"/>
+      <c r="V257" s="0"/>
+      <c r="W257" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X257" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y257" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY CANOLA SEEDS DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z257" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA257" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB257" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16562,9 +22542,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B259" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B259" s="0"/>
+      <c r="C259" s="0"/>
+      <c r="D259" s="0"/>
+      <c r="E259" s="0"/>
+      <c r="F259" s="0"/>
+      <c r="G259" s="0"/>
+      <c r="H259" s="0"/>
+      <c r="I259" s="0"/>
+      <c r="J259" s="0"/>
+      <c r="K259" s="0"/>
+      <c r="L259" s="0"/>
+      <c r="M259" s="4"/>
+      <c r="N259" s="0"/>
+      <c r="O259" s="0"/>
+      <c r="P259" s="0"/>
+      <c r="Q259" s="0"/>
+      <c r="R259" s="0"/>
+      <c r="S259" s="0"/>
+      <c r="T259" s="0"/>
+      <c r="U259" s="4"/>
+      <c r="V259" s="0"/>
+      <c r="W259" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X259" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y259" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z259" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA259" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB259" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16686,9 +22712,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B261" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY LENTILS DUST", "", "", ""]</t>
+      <c r="B261" s="0"/>
+      <c r="C261" s="0"/>
+      <c r="D261" s="0"/>
+      <c r="E261" s="0"/>
+      <c r="F261" s="0"/>
+      <c r="G261" s="0"/>
+      <c r="H261" s="0"/>
+      <c r="I261" s="0"/>
+      <c r="J261" s="0"/>
+      <c r="K261" s="0"/>
+      <c r="L261" s="0"/>
+      <c r="M261" s="4"/>
+      <c r="N261" s="0"/>
+      <c r="O261" s="0"/>
+      <c r="P261" s="0"/>
+      <c r="Q261" s="0"/>
+      <c r="R261" s="0"/>
+      <c r="S261" s="0"/>
+      <c r="T261" s="0"/>
+      <c r="U261" s="4"/>
+      <c r="V261" s="0"/>
+      <c r="W261" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X261" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y261" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST</t>
+        </is>
+      </c>
+      <c r="Z261" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA261" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB261" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16810,9 +22882,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B263" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B263" s="0"/>
+      <c r="C263" s="0"/>
+      <c r="D263" s="0"/>
+      <c r="E263" s="0"/>
+      <c r="F263" s="0"/>
+      <c r="G263" s="0"/>
+      <c r="H263" s="0"/>
+      <c r="I263" s="0"/>
+      <c r="J263" s="0"/>
+      <c r="K263" s="0"/>
+      <c r="L263" s="0"/>
+      <c r="M263" s="4"/>
+      <c r="N263" s="0"/>
+      <c r="O263" s="0"/>
+      <c r="P263" s="0"/>
+      <c r="Q263" s="0"/>
+      <c r="R263" s="0"/>
+      <c r="S263" s="0"/>
+      <c r="T263" s="0"/>
+      <c r="U263" s="4"/>
+      <c r="V263" s="0"/>
+      <c r="W263" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X263" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y263" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z263" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA263" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB263" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -16934,9 +23052,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B265" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B265" s="0"/>
+      <c r="C265" s="0"/>
+      <c r="D265" s="0"/>
+      <c r="E265" s="0"/>
+      <c r="F265" s="0"/>
+      <c r="G265" s="0"/>
+      <c r="H265" s="0"/>
+      <c r="I265" s="0"/>
+      <c r="J265" s="0"/>
+      <c r="K265" s="0"/>
+      <c r="L265" s="0"/>
+      <c r="M265" s="4"/>
+      <c r="N265" s="0"/>
+      <c r="O265" s="0"/>
+      <c r="P265" s="0"/>
+      <c r="Q265" s="0"/>
+      <c r="R265" s="0"/>
+      <c r="S265" s="0"/>
+      <c r="T265" s="0"/>
+      <c r="U265" s="4"/>
+      <c r="V265" s="0"/>
+      <c r="W265" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X265" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y265" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z265" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA265" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB265" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17058,9 +23222,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B267" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B267" s="0"/>
+      <c r="C267" s="0"/>
+      <c r="D267" s="0"/>
+      <c r="E267" s="0"/>
+      <c r="F267" s="0"/>
+      <c r="G267" s="0"/>
+      <c r="H267" s="0"/>
+      <c r="I267" s="0"/>
+      <c r="J267" s="0"/>
+      <c r="K267" s="0"/>
+      <c r="L267" s="0"/>
+      <c r="M267" s="4"/>
+      <c r="N267" s="0"/>
+      <c r="O267" s="0"/>
+      <c r="P267" s="0"/>
+      <c r="Q267" s="0"/>
+      <c r="R267" s="0"/>
+      <c r="S267" s="0"/>
+      <c r="T267" s="0"/>
+      <c r="U267" s="4"/>
+      <c r="V267" s="0"/>
+      <c r="W267" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X267" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y267" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z267" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA267" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB267" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17182,9 +23392,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B269" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY COTTON DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B269" s="0"/>
+      <c r="C269" s="0"/>
+      <c r="D269" s="0"/>
+      <c r="E269" s="0"/>
+      <c r="F269" s="0"/>
+      <c r="G269" s="0"/>
+      <c r="H269" s="0"/>
+      <c r="I269" s="0"/>
+      <c r="J269" s="0"/>
+      <c r="K269" s="0"/>
+      <c r="L269" s="0"/>
+      <c r="M269" s="4"/>
+      <c r="N269" s="0"/>
+      <c r="O269" s="0"/>
+      <c r="P269" s="0"/>
+      <c r="Q269" s="0"/>
+      <c r="R269" s="0"/>
+      <c r="S269" s="0"/>
+      <c r="T269" s="0"/>
+      <c r="U269" s="4"/>
+      <c r="V269" s="0"/>
+      <c r="W269" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X269" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y269" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY COTTON DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z269" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA269" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB269" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17306,9 +23562,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B271" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B BROKEN HOLE 24'X16' .", "", "", ""]</t>
+      <c r="B271" s="0"/>
+      <c r="C271" s="0"/>
+      <c r="D271" s="0"/>
+      <c r="E271" s="0"/>
+      <c r="F271" s="0"/>
+      <c r="G271" s="0"/>
+      <c r="H271" s="0"/>
+      <c r="I271" s="0"/>
+      <c r="J271" s="0"/>
+      <c r="K271" s="0"/>
+      <c r="L271" s="0"/>
+      <c r="M271" s="4"/>
+      <c r="N271" s="0"/>
+      <c r="O271" s="0"/>
+      <c r="P271" s="0"/>
+      <c r="Q271" s="0"/>
+      <c r="R271" s="0"/>
+      <c r="S271" s="0"/>
+      <c r="T271" s="0"/>
+      <c r="U271" s="4"/>
+      <c r="V271" s="0"/>
+      <c r="W271" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X271" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y271" s="0" t="inlineStr">
+        <is>
+          <t>F/B BROKEN HOLE 24'X16' .</t>
+        </is>
+      </c>
+      <c r="Z271" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA271" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB271" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17318,9 +23620,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B272" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY COTTON DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B272" s="0"/>
+      <c r="C272" s="0"/>
+      <c r="D272" s="0"/>
+      <c r="E272" s="0"/>
+      <c r="F272" s="0"/>
+      <c r="G272" s="0"/>
+      <c r="H272" s="0"/>
+      <c r="I272" s="0"/>
+      <c r="J272" s="0"/>
+      <c r="K272" s="0"/>
+      <c r="L272" s="0"/>
+      <c r="M272" s="4"/>
+      <c r="N272" s="0"/>
+      <c r="O272" s="0"/>
+      <c r="P272" s="0"/>
+      <c r="Q272" s="0"/>
+      <c r="R272" s="0"/>
+      <c r="S272" s="0"/>
+      <c r="T272" s="0"/>
+      <c r="U272" s="4"/>
+      <c r="V272" s="0"/>
+      <c r="W272" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X272" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y272" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY COTTON DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z272" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA272" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB272" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17442,9 +23790,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B274" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY COTTON DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B274" s="0"/>
+      <c r="C274" s="0"/>
+      <c r="D274" s="0"/>
+      <c r="E274" s="0"/>
+      <c r="F274" s="0"/>
+      <c r="G274" s="0"/>
+      <c r="H274" s="0"/>
+      <c r="I274" s="0"/>
+      <c r="J274" s="0"/>
+      <c r="K274" s="0"/>
+      <c r="L274" s="0"/>
+      <c r="M274" s="4"/>
+      <c r="N274" s="0"/>
+      <c r="O274" s="0"/>
+      <c r="P274" s="0"/>
+      <c r="Q274" s="0"/>
+      <c r="R274" s="0"/>
+      <c r="S274" s="0"/>
+      <c r="T274" s="0"/>
+      <c r="U274" s="4"/>
+      <c r="V274" s="0"/>
+      <c r="W274" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X274" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y274" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z274" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA274" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB274" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -17566,9 +23960,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B276" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B276" s="0"/>
+      <c r="C276" s="0"/>
+      <c r="D276" s="0"/>
+      <c r="E276" s="0"/>
+      <c r="F276" s="0"/>
+      <c r="G276" s="0"/>
+      <c r="H276" s="0"/>
+      <c r="I276" s="0"/>
+      <c r="J276" s="0"/>
+      <c r="K276" s="0"/>
+      <c r="L276" s="0"/>
+      <c r="M276" s="4"/>
+      <c r="N276" s="0"/>
+      <c r="O276" s="0"/>
+      <c r="P276" s="0"/>
+      <c r="Q276" s="0"/>
+      <c r="R276" s="0"/>
+      <c r="S276" s="0"/>
+      <c r="T276" s="0"/>
+      <c r="U276" s="4"/>
+      <c r="V276" s="0"/>
+      <c r="W276" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X276" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y276" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z276" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA276" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB276" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18138,9 +24578,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B282" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY POULTRY FEED DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B282" s="0"/>
+      <c r="C282" s="0"/>
+      <c r="D282" s="0"/>
+      <c r="E282" s="0"/>
+      <c r="F282" s="0"/>
+      <c r="G282" s="0"/>
+      <c r="H282" s="0"/>
+      <c r="I282" s="0"/>
+      <c r="J282" s="0"/>
+      <c r="K282" s="0"/>
+      <c r="L282" s="0"/>
+      <c r="M282" s="4"/>
+      <c r="N282" s="0"/>
+      <c r="O282" s="0"/>
+      <c r="P282" s="0"/>
+      <c r="Q282" s="0"/>
+      <c r="R282" s="0"/>
+      <c r="S282" s="0"/>
+      <c r="T282" s="0"/>
+      <c r="U282" s="4"/>
+      <c r="V282" s="0"/>
+      <c r="W282" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X282" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y282" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY POULTRY FEED DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z282" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA282" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB282" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18150,9 +24636,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B283" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "FRONT SIDE PANEL CUT 06\"", "", "", ""]</t>
+      <c r="B283" s="0"/>
+      <c r="C283" s="0"/>
+      <c r="D283" s="0"/>
+      <c r="E283" s="0"/>
+      <c r="F283" s="0"/>
+      <c r="G283" s="0"/>
+      <c r="H283" s="0"/>
+      <c r="I283" s="0"/>
+      <c r="J283" s="0"/>
+      <c r="K283" s="0"/>
+      <c r="L283" s="0"/>
+      <c r="M283" s="4"/>
+      <c r="N283" s="0"/>
+      <c r="O283" s="0"/>
+      <c r="P283" s="0"/>
+      <c r="Q283" s="0"/>
+      <c r="R283" s="0"/>
+      <c r="S283" s="0"/>
+      <c r="T283" s="0"/>
+      <c r="U283" s="4"/>
+      <c r="V283" s="0"/>
+      <c r="W283" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X283" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y283" s="0" t="inlineStr">
+        <is>
+          <t>FRONT SIDE PANEL CUT 06"</t>
+        </is>
+      </c>
+      <c r="Z283" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA283" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB283" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18274,9 +24806,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B285" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B285" s="0"/>
+      <c r="C285" s="0"/>
+      <c r="D285" s="0"/>
+      <c r="E285" s="0"/>
+      <c r="F285" s="0"/>
+      <c r="G285" s="0"/>
+      <c r="H285" s="0"/>
+      <c r="I285" s="0"/>
+      <c r="J285" s="0"/>
+      <c r="K285" s="0"/>
+      <c r="L285" s="0"/>
+      <c r="M285" s="4"/>
+      <c r="N285" s="0"/>
+      <c r="O285" s="0"/>
+      <c r="P285" s="0"/>
+      <c r="Q285" s="0"/>
+      <c r="R285" s="0"/>
+      <c r="S285" s="0"/>
+      <c r="T285" s="0"/>
+      <c r="U285" s="4"/>
+      <c r="V285" s="0"/>
+      <c r="W285" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X285" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y285" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY SODA DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z285" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA285" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB285" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18398,9 +24976,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B287" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY MUD DUST + SCRATCHED &amp; SCRAP DUST &amp; ODOUR ", "", "", ""]</t>
+      <c r="B287" s="0"/>
+      <c r="C287" s="0"/>
+      <c r="D287" s="0"/>
+      <c r="E287" s="0"/>
+      <c r="F287" s="0"/>
+      <c r="G287" s="0"/>
+      <c r="H287" s="0"/>
+      <c r="I287" s="0"/>
+      <c r="J287" s="0"/>
+      <c r="K287" s="0"/>
+      <c r="L287" s="0"/>
+      <c r="M287" s="4"/>
+      <c r="N287" s="0"/>
+      <c r="O287" s="0"/>
+      <c r="P287" s="0"/>
+      <c r="Q287" s="0"/>
+      <c r="R287" s="0"/>
+      <c r="S287" s="0"/>
+      <c r="T287" s="0"/>
+      <c r="U287" s="4"/>
+      <c r="V287" s="0"/>
+      <c r="W287" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X287" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y287" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY MUD DUST + SCRATCHED &amp; SCRAP DUST &amp; ODOUR </t>
+        </is>
+      </c>
+      <c r="Z287" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA287" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB287" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18634,9 +25258,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B290" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B290" s="0"/>
+      <c r="C290" s="0"/>
+      <c r="D290" s="0"/>
+      <c r="E290" s="0"/>
+      <c r="F290" s="0"/>
+      <c r="G290" s="0"/>
+      <c r="H290" s="0"/>
+      <c r="I290" s="0"/>
+      <c r="J290" s="0"/>
+      <c r="K290" s="0"/>
+      <c r="L290" s="0"/>
+      <c r="M290" s="4"/>
+      <c r="N290" s="0"/>
+      <c r="O290" s="0"/>
+      <c r="P290" s="0"/>
+      <c r="Q290" s="0"/>
+      <c r="R290" s="0"/>
+      <c r="S290" s="0"/>
+      <c r="T290" s="0"/>
+      <c r="U290" s="4"/>
+      <c r="V290" s="0"/>
+      <c r="W290" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X290" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y290" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z290" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA290" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB290" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -18758,9 +25428,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B292" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B292" s="0"/>
+      <c r="C292" s="0"/>
+      <c r="D292" s="0"/>
+      <c r="E292" s="0"/>
+      <c r="F292" s="0"/>
+      <c r="G292" s="0"/>
+      <c r="H292" s="0"/>
+      <c r="I292" s="0"/>
+      <c r="J292" s="0"/>
+      <c r="K292" s="0"/>
+      <c r="L292" s="0"/>
+      <c r="M292" s="4"/>
+      <c r="N292" s="0"/>
+      <c r="O292" s="0"/>
+      <c r="P292" s="0"/>
+      <c r="Q292" s="0"/>
+      <c r="R292" s="0"/>
+      <c r="S292" s="0"/>
+      <c r="T292" s="0"/>
+      <c r="U292" s="4"/>
+      <c r="V292" s="0"/>
+      <c r="W292" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X292" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y292" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z292" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA292" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB292" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -19170,9 +25886,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B297" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY.", "", "", ""]</t>
+      <c r="B297" s="0"/>
+      <c r="C297" s="0"/>
+      <c r="D297" s="0"/>
+      <c r="E297" s="0"/>
+      <c r="F297" s="0"/>
+      <c r="G297" s="0"/>
+      <c r="H297" s="0"/>
+      <c r="I297" s="0"/>
+      <c r="J297" s="0"/>
+      <c r="K297" s="0"/>
+      <c r="L297" s="0"/>
+      <c r="M297" s="4"/>
+      <c r="N297" s="0"/>
+      <c r="O297" s="0"/>
+      <c r="P297" s="0"/>
+      <c r="Q297" s="0"/>
+      <c r="R297" s="0"/>
+      <c r="S297" s="0"/>
+      <c r="T297" s="0"/>
+      <c r="U297" s="4"/>
+      <c r="V297" s="0"/>
+      <c r="W297" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X297" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y297" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY.</t>
+        </is>
+      </c>
+      <c r="Z297" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA297" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB297" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_53_.xlsx
+++ b/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_53_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:145</t>
+          <t>Total number of containers:145</t>
         </is>
       </c>
     </row>
